--- a/sempre_Presentes.xlsx
+++ b/sempre_Presentes.xlsx
@@ -81,7 +81,7 @@
     <t>C_2000</t>
   </si>
   <si>
-    <t>C_1114</t>
+    <t>C_1074</t>
   </si>
   <si>
     <t>C_1025</t>
@@ -366,7 +366,7 @@
     <t>AP-6</t>
   </si>
   <si>
-    <t>AP-2</t>
+    <t>AP-1</t>
   </si>
   <si>
     <t>Membro_Influente</t>
@@ -600,13 +600,13 @@
         <v>120</v>
       </c>
       <c r="N2" s="0">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O2" t="s">
         <v>120</v>
       </c>
       <c r="P2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Q2" t="s">
         <v>141</v>
@@ -657,7 +657,7 @@
         <v>120</v>
       </c>
       <c r="N3" s="0">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O3" t="s">
         <v>120</v>
@@ -712,13 +712,13 @@
         <v>120</v>
       </c>
       <c r="N4" s="0">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="O4" t="s">
         <v>120</v>
       </c>
       <c r="P4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Q4" t="s">
         <v>141</v>
@@ -767,13 +767,13 @@
         <v>120</v>
       </c>
       <c r="N5" s="0">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O5" t="s">
         <v>120</v>
       </c>
       <c r="P5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q5" t="s">
         <v>141</v>
@@ -824,13 +824,13 @@
         <v>120</v>
       </c>
       <c r="N6" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Q6" t="s">
         <v>141</v>
@@ -879,13 +879,13 @@
         <v>120</v>
       </c>
       <c r="N7" s="0">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="O7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q7" t="s">
         <v>141</v>
@@ -936,7 +936,7 @@
         <v>120</v>
       </c>
       <c r="N8" s="0">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="O8" t="s">
         <v>121</v>
@@ -1048,7 +1048,7 @@
         <v>120</v>
       </c>
       <c r="N10" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O10" t="s">
         <v>120</v>
@@ -1105,7 +1105,7 @@
         <v>120</v>
       </c>
       <c r="N11" s="0">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O11" t="s">
         <v>120</v>
@@ -1160,7 +1160,7 @@
         <v>120</v>
       </c>
       <c r="N12" s="0">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O12" t="s">
         <v>120</v>
@@ -1217,13 +1217,13 @@
         <v>120</v>
       </c>
       <c r="N13" s="0">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P13" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="Q13" t="s">
         <v>141</v>
@@ -1272,13 +1272,13 @@
         <v>120</v>
       </c>
       <c r="N14" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O14" t="s">
         <v>120</v>
       </c>
       <c r="P14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Q14" t="s">
         <v>141</v>
@@ -1329,7 +1329,7 @@
         <v>120</v>
       </c>
       <c r="N15" s="0">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O15" t="s">
         <v>120</v>
@@ -1386,13 +1386,13 @@
         <v>120</v>
       </c>
       <c r="N16" s="0">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="O16" t="s">
         <v>120</v>
       </c>
       <c r="P16" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q16" t="s">
         <v>141</v>
@@ -1498,13 +1498,13 @@
         <v>120</v>
       </c>
       <c r="N18" s="0">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O18" t="s">
         <v>120</v>
       </c>
       <c r="P18" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q18" t="s">
         <v>141</v>
@@ -1553,7 +1553,7 @@
         <v>120</v>
       </c>
       <c r="N19" s="0">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O19" t="s">
         <v>120</v>
@@ -1608,13 +1608,13 @@
         <v>120</v>
       </c>
       <c r="N20" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O20" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P20" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q20" t="s">
         <v>141</v>
@@ -1663,13 +1663,13 @@
         <v>120</v>
       </c>
       <c r="N21" s="0">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O21" t="s">
         <v>120</v>
       </c>
       <c r="P21" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q21" t="s">
         <v>141</v>
@@ -1720,13 +1720,13 @@
         <v>120</v>
       </c>
       <c r="N22" s="0">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="O22" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P22" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q22" t="s">
         <v>141</v>
@@ -1769,13 +1769,13 @@
         <v>119</v>
       </c>
       <c r="L23" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M23" t="s">
         <v>120</v>
       </c>
       <c r="N23" s="0">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O23" t="s">
         <v>120</v>
@@ -1830,7 +1830,7 @@
         <v>120</v>
       </c>
       <c r="N24" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O24" t="s">
         <v>120</v>
@@ -1887,13 +1887,13 @@
         <v>120</v>
       </c>
       <c r="N25" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O25" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P25" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q25" t="s">
         <v>142</v>
@@ -1942,7 +1942,7 @@
         <v>120</v>
       </c>
       <c r="N26" s="0">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O26" t="s">
         <v>120</v>
@@ -1997,13 +1997,13 @@
         <v>120</v>
       </c>
       <c r="N27" s="0">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O27" t="s">
         <v>120</v>
       </c>
       <c r="P27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Q27" t="s">
         <v>141</v>
@@ -2052,7 +2052,7 @@
         <v>120</v>
       </c>
       <c r="N28" s="0">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="O28" t="s">
         <v>120</v>
@@ -2107,16 +2107,16 @@
         <v>120</v>
       </c>
       <c r="N29" s="0">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O29" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P29" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q29" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="R29" t="s">
         <v>144</v>
@@ -2162,10 +2162,10 @@
         <v>120</v>
       </c>
       <c r="N30" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O30" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P30" t="s">
         <v>121</v>
@@ -2274,13 +2274,13 @@
         <v>120</v>
       </c>
       <c r="N32" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O32" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P32" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q32" t="s">
         <v>141</v>
@@ -2331,16 +2331,16 @@
         <v>120</v>
       </c>
       <c r="N33" s="0">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O33" t="s">
         <v>120</v>
       </c>
       <c r="P33" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q33" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="R33" t="s">
         <v>144</v>
@@ -2441,10 +2441,10 @@
         <v>120</v>
       </c>
       <c r="N35" s="0">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="O35" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P35" t="s">
         <v>119</v>
@@ -2496,10 +2496,10 @@
         <v>120</v>
       </c>
       <c r="N36" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O36" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P36" t="s">
         <v>121</v>
@@ -2553,13 +2553,13 @@
         <v>120</v>
       </c>
       <c r="N37" s="0">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="O37" t="s">
         <v>120</v>
       </c>
       <c r="P37" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q37" t="s">
         <v>142</v>
@@ -2608,13 +2608,13 @@
         <v>120</v>
       </c>
       <c r="N38" s="0">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O38" t="s">
         <v>120</v>
       </c>
       <c r="P38" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q38" t="s">
         <v>141</v>
@@ -2663,16 +2663,16 @@
         <v>120</v>
       </c>
       <c r="N39" s="0">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O39" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P39" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="Q39" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="R39" t="s">
         <v>145</v>
@@ -2720,13 +2720,13 @@
         <v>120</v>
       </c>
       <c r="N40" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O40" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P40" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q40" t="s">
         <v>141</v>
@@ -2777,7 +2777,7 @@
         <v>120</v>
       </c>
       <c r="N41" s="0">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="O41" t="s">
         <v>121</v>
@@ -2834,13 +2834,13 @@
         <v>120</v>
       </c>
       <c r="N42" s="0">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O42" t="s">
         <v>120</v>
       </c>
       <c r="P42" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q42" t="s">
         <v>141</v>
@@ -2891,7 +2891,7 @@
         <v>120</v>
       </c>
       <c r="N43" s="0">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O43" t="s">
         <v>120</v>
@@ -2948,16 +2948,16 @@
         <v>120</v>
       </c>
       <c r="N44" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O44" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P44" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="Q44" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="R44" t="s">
         <v>144</v>
@@ -3062,13 +3062,13 @@
         <v>120</v>
       </c>
       <c r="N46" s="0">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="O46" t="s">
         <v>120</v>
       </c>
       <c r="P46" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Q46" t="s">
         <v>141</v>
@@ -3119,13 +3119,13 @@
         <v>120</v>
       </c>
       <c r="N47" s="0">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O47" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Q47" t="s">
         <v>141</v>
@@ -3176,7 +3176,7 @@
         <v>120</v>
       </c>
       <c r="N48" s="0">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="O48" t="s">
         <v>121</v>

--- a/sempre_Presentes.xlsx
+++ b/sempre_Presentes.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="177">
   <si>
     <t>ID</t>
   </si>
@@ -21,12 +21,21 @@
     <t>C_1051</t>
   </si>
   <si>
+    <t>C_1097</t>
+  </si>
+  <si>
     <t>C_1053</t>
   </si>
   <si>
     <t>C_1054</t>
   </si>
   <si>
+    <t>C_1105</t>
+  </si>
+  <si>
+    <t>C_1090</t>
+  </si>
+  <si>
     <t>C_1019</t>
   </si>
   <si>
@@ -39,6 +48,12 @@
     <t>C_1057</t>
   </si>
   <si>
+    <t>C_1102</t>
+  </si>
+  <si>
+    <t>C_1106</t>
+  </si>
+  <si>
     <t>C_1058</t>
   </si>
   <si>
@@ -54,12 +69,18 @@
     <t>C_1022</t>
   </si>
   <si>
+    <t>C_1088</t>
+  </si>
+  <si>
     <t>C_1071</t>
   </si>
   <si>
     <t>C_1023</t>
   </si>
   <si>
+    <t>C_1108</t>
+  </si>
+  <si>
     <t>C_1035</t>
   </si>
   <si>
@@ -81,7 +102,10 @@
     <t>C_2000</t>
   </si>
   <si>
-    <t>C_1074</t>
+    <t>C_1099</t>
+  </si>
+  <si>
+    <t>C_1114</t>
   </si>
   <si>
     <t>C_1025</t>
@@ -96,9 +120,15 @@
     <t>C_1084</t>
   </si>
   <si>
+    <t>C_3001</t>
+  </si>
+  <si>
     <t>C_1122</t>
   </si>
   <si>
+    <t>C_1087</t>
+  </si>
+  <si>
     <t>C_1028</t>
   </si>
   <si>
@@ -117,6 +147,9 @@
     <t>C_1073</t>
   </si>
   <si>
+    <t>C_1107</t>
+  </si>
+  <si>
     <t>C_1015</t>
   </si>
   <si>
@@ -126,6 +159,9 @@
     <t>C_1010</t>
   </si>
   <si>
+    <t>C_3000</t>
+  </si>
+  <si>
     <t>C_1082</t>
   </si>
   <si>
@@ -144,9 +180,15 @@
     <t>C_1065</t>
   </si>
   <si>
+    <t>C_3002</t>
+  </si>
+  <si>
     <t>C_1046</t>
   </si>
   <si>
+    <t>C_1072</t>
+  </si>
+  <si>
     <t>C_1067</t>
   </si>
   <si>
@@ -174,12 +216,21 @@
     <t>ADAMO CAINDE</t>
   </si>
   <si>
+    <t>ADELIA MANUEL</t>
+  </si>
+  <si>
     <t>AMADEU FURAI</t>
   </si>
   <si>
     <t>AMADEU TOMO</t>
   </si>
   <si>
+    <t>AMELIA DAVID BANDO</t>
+  </si>
+  <si>
+    <t>ANA MANGUIZA</t>
+  </si>
+  <si>
     <t>ANITA ARMANDO</t>
   </si>
   <si>
@@ -192,6 +243,12 @@
     <t>CANSSALO FELIZ</t>
   </si>
   <si>
+    <t>CATARINA ALBERTO</t>
+  </si>
+  <si>
+    <t>CECILIA CHAMUSSE</t>
+  </si>
+  <si>
     <t>CHADE BASTO</t>
   </si>
   <si>
@@ -207,12 +264,18 @@
     <t>FATIANCA PAULINHO</t>
   </si>
   <si>
+    <t>FATIMA SAIZE</t>
+  </si>
+  <si>
     <t>FERNANDO MURIRO</t>
   </si>
   <si>
     <t>FLORIANA RANDINHO</t>
   </si>
   <si>
+    <t>GRECE ALBERTO SAIZE</t>
+  </si>
+  <si>
     <t>IBRAIMO JOSE</t>
   </si>
   <si>
@@ -234,6 +297,9 @@
     <t>LANGUITONE ZUZE</t>
   </si>
   <si>
+    <t>LAURINDA MATEUS SABONETE</t>
+  </si>
+  <si>
     <t>LAURINDA SABAO</t>
   </si>
   <si>
@@ -249,9 +315,15 @@
     <t>MANUEL BENJAMIM</t>
   </si>
   <si>
+    <t>MARIA SIMBULANE</t>
+  </si>
+  <si>
     <t>MARIO FERNANDO</t>
   </si>
   <si>
+    <t>MARTA BRAUNDE</t>
+  </si>
+  <si>
     <t>MELENIA PITA</t>
   </si>
   <si>
@@ -270,6 +342,9 @@
     <t>MOISES TAUNDE</t>
   </si>
   <si>
+    <t>NORA JOAO</t>
+  </si>
+  <si>
     <t>NORINDA FRANCISCO</t>
   </si>
   <si>
@@ -279,6 +354,9 @@
     <t>RAQUEL ARMANDO</t>
   </si>
   <si>
+    <t>REGINA JEQUE</t>
+  </si>
+  <si>
     <t>ROBATE TAUNDE CHIGOROGORO</t>
   </si>
   <si>
@@ -297,9 +375,15 @@
     <t>SANTINHO TOMO</t>
   </si>
   <si>
+    <t>SARA SEDA</t>
+  </si>
+  <si>
     <t>SIMONE JOSE</t>
   </si>
   <si>
+    <t>SOFIA ARMANDO</t>
+  </si>
+  <si>
     <t>TEMBO MOGUENE</t>
   </si>
   <si>
@@ -339,18 +423,24 @@
     <t>GORONGOSA-NHANGUCO</t>
   </si>
   <si>
+    <t>CHIMANIMANI-MPUNGA</t>
+  </si>
+  <si>
     <t>GORONGOSA-NHAMU</t>
   </si>
   <si>
-    <t>CHIMANIMANI-MPUNGA</t>
-  </si>
-  <si>
     <t>Turma</t>
   </si>
   <si>
     <t>H_2</t>
   </si>
   <si>
+    <t>AP-1</t>
+  </si>
+  <si>
+    <t>AP-2</t>
+  </si>
+  <si>
     <t>M_2</t>
   </si>
   <si>
@@ -366,9 +456,6 @@
     <t>AP-6</t>
   </si>
   <si>
-    <t>AP-1</t>
-  </si>
-  <si>
     <t>Membro_Influente</t>
   </si>
   <si>
@@ -394,6 +481,9 @@
   </si>
   <si>
     <t>FACILITADOR DO PARQUE</t>
+  </si>
+  <si>
+    <t>MEMBRO DA OMM</t>
   </si>
   <si>
     <t>LIDER RELIGIOSO E DE CERIMONIAS TRADICIONAIS</t>
@@ -497,7 +587,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S51"/>
+  <dimension ref="A1:S65"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -505,58 +595,58 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="C1" t="s">
-        <v>102</v>
+        <v>130</v>
       </c>
       <c r="D1" t="s">
-        <v>103</v>
+        <v>131</v>
       </c>
       <c r="E1" t="s">
-        <v>106</v>
+        <v>134</v>
       </c>
       <c r="F1" t="s">
-        <v>110</v>
+        <v>138</v>
       </c>
       <c r="G1" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="H1" t="s">
-        <v>122</v>
+        <v>151</v>
       </c>
       <c r="I1" t="s">
-        <v>132</v>
+        <v>162</v>
       </c>
       <c r="J1" t="s">
-        <v>133</v>
+        <v>163</v>
       </c>
       <c r="K1" t="s">
-        <v>134</v>
+        <v>164</v>
       </c>
       <c r="L1" t="s">
-        <v>135</v>
+        <v>165</v>
       </c>
       <c r="M1" t="s">
-        <v>136</v>
+        <v>166</v>
       </c>
       <c r="N1" t="s">
-        <v>137</v>
+        <v>167</v>
       </c>
       <c r="O1" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="P1" t="s">
-        <v>139</v>
+        <v>169</v>
       </c>
       <c r="Q1" t="s">
-        <v>140</v>
+        <v>170</v>
       </c>
       <c r="R1" t="s">
-        <v>143</v>
+        <v>173</v>
       </c>
       <c r="S1" t="s">
-        <v>146</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2">
@@ -564,55 +654,55 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="C2" s="0">
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>104</v>
+        <v>132</v>
       </c>
       <c r="E2" t="s">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="F2" t="s">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="G2" t="s">
-        <v>119</v>
+        <v>148</v>
       </c>
       <c r="H2" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="I2" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="J2" s="0">
         <v>6</v>
       </c>
       <c r="K2" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="L2" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="M2" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="N2" s="0">
         <v>2</v>
       </c>
       <c r="O2" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="P2" t="s">
-        <v>119</v>
+        <v>148</v>
       </c>
       <c r="Q2" t="s">
-        <v>141</v>
+        <v>171</v>
       </c>
       <c r="R2" t="s">
-        <v>144</v>
+        <v>174</v>
       </c>
       <c r="S2" s="0"/>
     </row>
@@ -621,55 +711,51 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="0">
-        <v>62</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="C3" s="0"/>
       <c r="D3" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="E3" t="s">
-        <v>107</v>
+        <v>136</v>
       </c>
       <c r="F3" t="s">
-        <v>111</v>
+        <v>140</v>
       </c>
       <c r="G3" t="s">
-        <v>119</v>
+        <v>148</v>
       </c>
       <c r="H3" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="I3" t="s">
-        <v>121</v>
-      </c>
-      <c r="J3" s="0">
-        <v>1</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="J3" s="0"/>
       <c r="K3" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="L3" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="M3" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="N3" s="0">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O3" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="P3" t="s">
-        <v>119</v>
+        <v>148</v>
       </c>
       <c r="Q3" t="s">
-        <v>141</v>
+        <v>171</v>
       </c>
       <c r="R3" t="s">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="S3" s="0"/>
     </row>
@@ -678,53 +764,55 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" s="0"/>
+        <v>68</v>
+      </c>
+      <c r="C4" s="0">
+        <v>62</v>
+      </c>
       <c r="D4" t="s">
-        <v>104</v>
+        <v>132</v>
       </c>
       <c r="E4" t="s">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="F4" t="s">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="G4" t="s">
-        <v>119</v>
+        <v>148</v>
       </c>
       <c r="H4" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="I4" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="J4" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="L4" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="M4" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="N4" s="0">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="O4" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="P4" t="s">
-        <v>119</v>
+        <v>149</v>
       </c>
       <c r="Q4" t="s">
-        <v>141</v>
+        <v>171</v>
       </c>
       <c r="R4" t="s">
-        <v>144</v>
+        <v>174</v>
       </c>
       <c r="S4" s="0"/>
     </row>
@@ -733,53 +821,53 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="C5" s="0"/>
       <c r="D5" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="E5" t="s">
-        <v>108</v>
+        <v>135</v>
       </c>
       <c r="F5" t="s">
-        <v>112</v>
+        <v>139</v>
       </c>
       <c r="G5" t="s">
-        <v>119</v>
+        <v>148</v>
       </c>
       <c r="H5" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="I5" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="J5" s="0">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K5" t="s">
-        <v>119</v>
+        <v>149</v>
       </c>
       <c r="L5" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="M5" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="N5" s="0">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="O5" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="P5" t="s">
-        <v>120</v>
+        <v>148</v>
       </c>
       <c r="Q5" t="s">
-        <v>141</v>
+        <v>171</v>
       </c>
       <c r="R5" t="s">
-        <v>144</v>
+        <v>174</v>
       </c>
       <c r="S5" s="0"/>
     </row>
@@ -788,55 +876,53 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="C6" s="0">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="D6" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="E6" t="s">
-        <v>108</v>
+        <v>136</v>
       </c>
       <c r="F6" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="G6" t="s">
-        <v>119</v>
+        <v>148</v>
       </c>
       <c r="H6" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="I6" t="s">
-        <v>121</v>
-      </c>
-      <c r="J6" s="0">
-        <v>6</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="J6" s="0"/>
       <c r="K6" t="s">
-        <v>120</v>
+        <v>148</v>
       </c>
       <c r="L6" t="s">
-        <v>119</v>
+        <v>148</v>
       </c>
       <c r="M6" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="N6" s="0">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="O6" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="P6" t="s">
-        <v>120</v>
+        <v>148</v>
       </c>
       <c r="Q6" t="s">
-        <v>141</v>
+        <v>171</v>
       </c>
       <c r="R6" t="s">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="S6" s="0"/>
     </row>
@@ -845,53 +931,51 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="C7" s="0"/>
       <c r="D7" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="E7" t="s">
-        <v>108</v>
+        <v>136</v>
       </c>
       <c r="F7" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="G7" t="s">
-        <v>120</v>
+        <v>148</v>
       </c>
       <c r="H7" t="s">
-        <v>123</v>
+        <v>150</v>
       </c>
       <c r="I7" t="s">
-        <v>121</v>
-      </c>
-      <c r="J7" s="0">
-        <v>2</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="J7" s="0"/>
       <c r="K7" t="s">
-        <v>119</v>
+        <v>148</v>
       </c>
       <c r="L7" t="s">
-        <v>120</v>
+        <v>148</v>
       </c>
       <c r="M7" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="N7" s="0">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O7" t="s">
-        <v>121</v>
+        <v>149</v>
       </c>
       <c r="P7" t="s">
-        <v>121</v>
+        <v>148</v>
       </c>
       <c r="Q7" t="s">
-        <v>141</v>
+        <v>171</v>
       </c>
       <c r="R7" t="s">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="S7" s="0"/>
     </row>
@@ -900,55 +984,53 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" s="0">
-        <v>30</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="C8" s="0"/>
       <c r="D8" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="E8" t="s">
-        <v>107</v>
+        <v>137</v>
       </c>
       <c r="F8" t="s">
-        <v>111</v>
+        <v>142</v>
       </c>
       <c r="G8" t="s">
-        <v>119</v>
+        <v>148</v>
       </c>
       <c r="H8" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="I8" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="J8" s="0">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K8" t="s">
-        <v>120</v>
+        <v>148</v>
       </c>
       <c r="L8" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="M8" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="N8" s="0">
         <v>8</v>
       </c>
       <c r="O8" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="P8" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="Q8" t="s">
-        <v>141</v>
+        <v>171</v>
       </c>
       <c r="R8" t="s">
-        <v>144</v>
+        <v>174</v>
       </c>
       <c r="S8" s="0"/>
     </row>
@@ -957,55 +1039,55 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="C9" s="0">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="D9" t="s">
-        <v>104</v>
+        <v>132</v>
       </c>
       <c r="E9" t="s">
-        <v>107</v>
+        <v>137</v>
       </c>
       <c r="F9" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="G9" t="s">
-        <v>119</v>
+        <v>148</v>
       </c>
       <c r="H9" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="I9" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="J9" s="0">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K9" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="L9" t="s">
-        <v>120</v>
+        <v>148</v>
       </c>
       <c r="M9" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="N9" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O9" t="s">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="P9" t="s">
-        <v>119</v>
+        <v>150</v>
       </c>
       <c r="Q9" t="s">
-        <v>141</v>
+        <v>171</v>
       </c>
       <c r="R9" t="s">
-        <v>144</v>
+        <v>174</v>
       </c>
       <c r="S9" s="0"/>
     </row>
@@ -1014,53 +1096,53 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="C10" s="0"/>
       <c r="D10" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="E10" t="s">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="F10" t="s">
-        <v>114</v>
+        <v>144</v>
       </c>
       <c r="G10" t="s">
-        <v>119</v>
+        <v>149</v>
       </c>
       <c r="H10" t="s">
-        <v>121</v>
+        <v>152</v>
       </c>
       <c r="I10" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="J10" s="0">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K10" t="s">
-        <v>119</v>
+        <v>148</v>
       </c>
       <c r="L10" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="M10" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="N10" s="0">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O10" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="P10" t="s">
-        <v>119</v>
+        <v>148</v>
       </c>
       <c r="Q10" t="s">
-        <v>142</v>
+        <v>171</v>
       </c>
       <c r="R10" t="s">
-        <v>144</v>
+        <v>174</v>
       </c>
       <c r="S10" s="0"/>
     </row>
@@ -1069,55 +1151,55 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="C11" s="0">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="E11" t="s">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="F11" t="s">
-        <v>112</v>
+        <v>139</v>
       </c>
       <c r="G11" t="s">
-        <v>119</v>
+        <v>148</v>
       </c>
       <c r="H11" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="I11" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="J11" s="0">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K11" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="L11" t="s">
-        <v>119</v>
+        <v>149</v>
       </c>
       <c r="M11" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="N11" s="0">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O11" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="P11" t="s">
-        <v>119</v>
+        <v>148</v>
       </c>
       <c r="Q11" t="s">
-        <v>141</v>
+        <v>171</v>
       </c>
       <c r="R11" t="s">
-        <v>144</v>
+        <v>174</v>
       </c>
       <c r="S11" s="0"/>
     </row>
@@ -1126,53 +1208,51 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>62</v>
-      </c>
-      <c r="C12" s="0">
-        <v>60</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="C12" s="0"/>
       <c r="D12" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="E12" t="s">
-        <v>109</v>
+        <v>136</v>
       </c>
       <c r="F12" t="s">
-        <v>115</v>
+        <v>140</v>
       </c>
       <c r="G12" t="s">
-        <v>119</v>
+        <v>148</v>
       </c>
       <c r="H12" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="I12" t="s">
-        <v>119</v>
+        <v>148</v>
       </c>
       <c r="J12" s="0"/>
       <c r="K12" t="s">
-        <v>121</v>
+        <v>149</v>
       </c>
       <c r="L12" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="M12" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="N12" s="0">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="O12" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="P12" t="s">
-        <v>119</v>
+        <v>149</v>
       </c>
       <c r="Q12" t="s">
-        <v>141</v>
+        <v>171</v>
       </c>
       <c r="R12" t="s">
-        <v>145</v>
+        <v>175</v>
       </c>
       <c r="S12" s="0"/>
     </row>
@@ -1181,55 +1261,51 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>63</v>
-      </c>
-      <c r="C13" s="0">
-        <v>69</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="C13" s="0"/>
       <c r="D13" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="E13" t="s">
-        <v>107</v>
+        <v>136</v>
       </c>
       <c r="F13" t="s">
-        <v>112</v>
+        <v>141</v>
       </c>
       <c r="G13" t="s">
-        <v>119</v>
+        <v>148</v>
       </c>
       <c r="H13" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="I13" t="s">
-        <v>121</v>
-      </c>
-      <c r="J13" s="0">
-        <v>8</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="J13" s="0"/>
       <c r="K13" t="s">
-        <v>120</v>
+        <v>148</v>
       </c>
       <c r="L13" t="s">
-        <v>119</v>
+        <v>149</v>
       </c>
       <c r="M13" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="N13" s="0">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="O13" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="P13" t="s">
-        <v>119</v>
+        <v>148</v>
       </c>
       <c r="Q13" t="s">
-        <v>141</v>
+        <v>171</v>
       </c>
       <c r="R13" t="s">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="S13" s="0"/>
     </row>
@@ -1238,53 +1314,55 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="C14" s="0">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="D14" t="s">
-        <v>104</v>
+        <v>132</v>
       </c>
       <c r="E14" t="s">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="F14" t="s">
-        <v>115</v>
+        <v>139</v>
       </c>
       <c r="G14" t="s">
-        <v>120</v>
+        <v>148</v>
       </c>
       <c r="H14" t="s">
-        <v>124</v>
+        <v>150</v>
       </c>
       <c r="I14" t="s">
-        <v>120</v>
-      </c>
-      <c r="J14" s="0"/>
+        <v>150</v>
+      </c>
+      <c r="J14" s="0">
+        <v>7</v>
+      </c>
       <c r="K14" t="s">
-        <v>121</v>
+        <v>149</v>
       </c>
       <c r="L14" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="M14" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="N14" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O14" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="P14" t="s">
-        <v>119</v>
+        <v>149</v>
       </c>
       <c r="Q14" t="s">
-        <v>141</v>
+        <v>171</v>
       </c>
       <c r="R14" t="s">
-        <v>145</v>
+        <v>174</v>
       </c>
       <c r="S14" s="0"/>
     </row>
@@ -1293,55 +1371,53 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>65</v>
-      </c>
-      <c r="C15" s="0">
-        <v>54</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="C15" s="0"/>
       <c r="D15" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="E15" t="s">
-        <v>107</v>
+        <v>137</v>
       </c>
       <c r="F15" t="s">
-        <v>112</v>
+        <v>144</v>
       </c>
       <c r="G15" t="s">
-        <v>119</v>
+        <v>148</v>
       </c>
       <c r="H15" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="I15" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="J15" s="0">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K15" t="s">
-        <v>120</v>
+        <v>148</v>
       </c>
       <c r="L15" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="M15" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="N15" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O15" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="P15" t="s">
-        <v>119</v>
+        <v>148</v>
       </c>
       <c r="Q15" t="s">
-        <v>141</v>
+        <v>172</v>
       </c>
       <c r="R15" t="s">
-        <v>144</v>
+        <v>174</v>
       </c>
       <c r="S15" s="0"/>
     </row>
@@ -1350,55 +1426,55 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="C16" s="0">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="D16" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="E16" t="s">
-        <v>108</v>
+        <v>135</v>
       </c>
       <c r="F16" t="s">
-        <v>113</v>
+        <v>142</v>
       </c>
       <c r="G16" t="s">
-        <v>119</v>
+        <v>148</v>
       </c>
       <c r="H16" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="I16" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="J16" s="0">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K16" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="L16" t="s">
-        <v>119</v>
+        <v>148</v>
       </c>
       <c r="M16" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="N16" s="0">
         <v>7</v>
       </c>
       <c r="O16" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="P16" t="s">
-        <v>120</v>
+        <v>148</v>
       </c>
       <c r="Q16" t="s">
-        <v>141</v>
+        <v>171</v>
       </c>
       <c r="R16" t="s">
-        <v>144</v>
+        <v>174</v>
       </c>
       <c r="S16" s="0"/>
     </row>
@@ -1407,55 +1483,53 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="C17" s="0">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="D17" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="E17" t="s">
-        <v>107</v>
+        <v>136</v>
       </c>
       <c r="F17" t="s">
-        <v>112</v>
+        <v>145</v>
       </c>
       <c r="G17" t="s">
-        <v>119</v>
+        <v>148</v>
       </c>
       <c r="H17" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="I17" t="s">
-        <v>121</v>
-      </c>
-      <c r="J17" s="0">
-        <v>1</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="J17" s="0"/>
       <c r="K17" t="s">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="L17" t="s">
-        <v>119</v>
+        <v>149</v>
       </c>
       <c r="M17" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="N17" s="0">
         <v>7</v>
       </c>
       <c r="O17" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="P17" t="s">
-        <v>119</v>
+        <v>149</v>
       </c>
       <c r="Q17" t="s">
-        <v>141</v>
+        <v>171</v>
       </c>
       <c r="R17" t="s">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="S17" s="0"/>
     </row>
@@ -1464,53 +1538,55 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>68</v>
-      </c>
-      <c r="C18" s="0"/>
+        <v>82</v>
+      </c>
+      <c r="C18" s="0">
+        <v>69</v>
+      </c>
       <c r="D18" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="E18" t="s">
-        <v>108</v>
+        <v>135</v>
       </c>
       <c r="F18" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="G18" t="s">
-        <v>119</v>
+        <v>148</v>
       </c>
       <c r="H18" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="I18" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="J18" s="0">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K18" t="s">
-        <v>119</v>
+        <v>149</v>
       </c>
       <c r="L18" t="s">
-        <v>120</v>
+        <v>148</v>
       </c>
       <c r="M18" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="N18" s="0">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O18" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="P18" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="Q18" t="s">
-        <v>141</v>
+        <v>171</v>
       </c>
       <c r="R18" t="s">
-        <v>144</v>
+        <v>174</v>
       </c>
       <c r="S18" s="0"/>
     </row>
@@ -1519,53 +1595,53 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="C19" s="0">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D19" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="E19" t="s">
-        <v>109</v>
+        <v>136</v>
       </c>
       <c r="F19" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="G19" t="s">
-        <v>119</v>
+        <v>148</v>
       </c>
       <c r="H19" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="I19" t="s">
-        <v>119</v>
+        <v>148</v>
       </c>
       <c r="J19" s="0"/>
       <c r="K19" t="s">
-        <v>121</v>
+        <v>149</v>
       </c>
       <c r="L19" t="s">
-        <v>120</v>
+        <v>148</v>
       </c>
       <c r="M19" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="N19" s="0">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O19" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="P19" t="s">
-        <v>119</v>
+        <v>148</v>
       </c>
       <c r="Q19" t="s">
-        <v>141</v>
+        <v>171</v>
       </c>
       <c r="R19" t="s">
-        <v>145</v>
+        <v>175</v>
       </c>
       <c r="S19" s="0"/>
     </row>
@@ -1574,53 +1650,53 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="C20" s="0">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="D20" t="s">
-        <v>104</v>
+        <v>132</v>
       </c>
       <c r="E20" t="s">
-        <v>109</v>
+        <v>136</v>
       </c>
       <c r="F20" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="G20" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="H20" t="s">
-        <v>125</v>
+        <v>153</v>
       </c>
       <c r="I20" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="J20" s="0"/>
       <c r="K20" t="s">
-        <v>119</v>
+        <v>150</v>
       </c>
       <c r="L20" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="M20" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="N20" s="0">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O20" t="s">
-        <v>121</v>
+        <v>149</v>
       </c>
       <c r="P20" t="s">
-        <v>121</v>
+        <v>148</v>
       </c>
       <c r="Q20" t="s">
-        <v>141</v>
+        <v>171</v>
       </c>
       <c r="R20" t="s">
-        <v>145</v>
+        <v>175</v>
       </c>
       <c r="S20" s="0"/>
     </row>
@@ -1629,53 +1705,55 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="C21" s="0">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D21" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="E21" t="s">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="F21" t="s">
-        <v>116</v>
+        <v>142</v>
       </c>
       <c r="G21" t="s">
-        <v>119</v>
+        <v>148</v>
       </c>
       <c r="H21" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="I21" t="s">
-        <v>119</v>
-      </c>
-      <c r="J21" s="0"/>
+        <v>150</v>
+      </c>
+      <c r="J21" s="0">
+        <v>5</v>
+      </c>
       <c r="K21" t="s">
-        <v>121</v>
+        <v>149</v>
       </c>
       <c r="L21" t="s">
-        <v>121</v>
+        <v>149</v>
       </c>
       <c r="M21" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="N21" s="0">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O21" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="P21" t="s">
-        <v>120</v>
+        <v>148</v>
       </c>
       <c r="Q21" t="s">
-        <v>141</v>
+        <v>171</v>
       </c>
       <c r="R21" t="s">
-        <v>145</v>
+        <v>174</v>
       </c>
       <c r="S21" s="0"/>
     </row>
@@ -1684,55 +1762,53 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="C22" s="0">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="D22" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="E22" t="s">
-        <v>108</v>
+        <v>136</v>
       </c>
       <c r="F22" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="G22" t="s">
-        <v>119</v>
+        <v>148</v>
       </c>
       <c r="H22" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="I22" t="s">
-        <v>121</v>
-      </c>
-      <c r="J22" s="0">
-        <v>7</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="J22" s="0"/>
       <c r="K22" t="s">
-        <v>119</v>
+        <v>149</v>
       </c>
       <c r="L22" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="M22" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="N22" s="0">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="O22" t="s">
-        <v>121</v>
+        <v>149</v>
       </c>
       <c r="P22" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="Q22" t="s">
-        <v>141</v>
+        <v>172</v>
       </c>
       <c r="R22" t="s">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="S22" s="0"/>
     </row>
@@ -1741,53 +1817,55 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="C23" s="0">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="D23" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="E23" t="s">
-        <v>109</v>
+        <v>137</v>
       </c>
       <c r="F23" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="G23" t="s">
-        <v>119</v>
+        <v>148</v>
       </c>
       <c r="H23" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="I23" t="s">
-        <v>119</v>
-      </c>
-      <c r="J23" s="0"/>
+        <v>150</v>
+      </c>
+      <c r="J23" s="0">
+        <v>8</v>
+      </c>
       <c r="K23" t="s">
-        <v>119</v>
+        <v>149</v>
       </c>
       <c r="L23" t="s">
-        <v>120</v>
+        <v>148</v>
       </c>
       <c r="M23" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="N23" s="0">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="O23" t="s">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="P23" t="s">
-        <v>119</v>
+        <v>150</v>
       </c>
       <c r="Q23" t="s">
-        <v>141</v>
+        <v>171</v>
       </c>
       <c r="R23" t="s">
-        <v>145</v>
+        <v>174</v>
       </c>
       <c r="S23" s="0"/>
     </row>
@@ -1796,53 +1874,55 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>74</v>
-      </c>
-      <c r="C24" s="0"/>
+        <v>88</v>
+      </c>
+      <c r="C24" s="0">
+        <v>43</v>
+      </c>
       <c r="D24" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="E24" t="s">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="F24" t="s">
-        <v>112</v>
+        <v>142</v>
       </c>
       <c r="G24" t="s">
-        <v>119</v>
+        <v>148</v>
       </c>
       <c r="H24" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="I24" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="J24" s="0">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K24" t="s">
-        <v>119</v>
+        <v>149</v>
       </c>
       <c r="L24" t="s">
-        <v>119</v>
+        <v>148</v>
       </c>
       <c r="M24" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="N24" s="0">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O24" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="P24" t="s">
-        <v>119</v>
+        <v>149</v>
       </c>
       <c r="Q24" t="s">
-        <v>141</v>
+        <v>171</v>
       </c>
       <c r="R24" t="s">
-        <v>144</v>
+        <v>174</v>
       </c>
       <c r="S24" s="0"/>
     </row>
@@ -1851,55 +1931,53 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>75</v>
-      </c>
-      <c r="C25" s="0">
-        <v>23</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="C25" s="0"/>
       <c r="D25" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="E25" t="s">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="F25" t="s">
-        <v>114</v>
+        <v>144</v>
       </c>
       <c r="G25" t="s">
-        <v>119</v>
+        <v>148</v>
       </c>
       <c r="H25" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="I25" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="J25" s="0">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K25" t="s">
-        <v>119</v>
+        <v>148</v>
       </c>
       <c r="L25" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="M25" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="N25" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O25" t="s">
-        <v>121</v>
+        <v>149</v>
       </c>
       <c r="P25" t="s">
-        <v>121</v>
+        <v>149</v>
       </c>
       <c r="Q25" t="s">
-        <v>142</v>
+        <v>171</v>
       </c>
       <c r="R25" t="s">
-        <v>144</v>
+        <v>174</v>
       </c>
       <c r="S25" s="0"/>
     </row>
@@ -1908,53 +1986,53 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>76</v>
-      </c>
-      <c r="C26" s="0"/>
+        <v>90</v>
+      </c>
+      <c r="C26" s="0">
+        <v>46</v>
+      </c>
       <c r="D26" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="E26" t="s">
-        <v>107</v>
+        <v>136</v>
       </c>
       <c r="F26" t="s">
-        <v>112</v>
+        <v>146</v>
       </c>
       <c r="G26" t="s">
-        <v>119</v>
+        <v>148</v>
       </c>
       <c r="H26" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="I26" t="s">
-        <v>121</v>
-      </c>
-      <c r="J26" s="0">
-        <v>3</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="J26" s="0"/>
       <c r="K26" t="s">
-        <v>119</v>
+        <v>150</v>
       </c>
       <c r="L26" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="M26" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="N26" s="0">
         <v>4</v>
       </c>
       <c r="O26" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="P26" t="s">
-        <v>119</v>
+        <v>148</v>
       </c>
       <c r="Q26" t="s">
-        <v>141</v>
+        <v>171</v>
       </c>
       <c r="R26" t="s">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="S26" s="0"/>
     </row>
@@ -1963,53 +2041,53 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="C27" s="0">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D27" t="s">
-        <v>104</v>
+        <v>132</v>
       </c>
       <c r="E27" t="s">
-        <v>109</v>
+        <v>136</v>
       </c>
       <c r="F27" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="G27" t="s">
-        <v>121</v>
+        <v>149</v>
       </c>
       <c r="H27" t="s">
-        <v>121</v>
+        <v>154</v>
       </c>
       <c r="I27" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="J27" s="0"/>
       <c r="K27" t="s">
-        <v>121</v>
+        <v>148</v>
       </c>
       <c r="L27" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="M27" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="N27" s="0">
         <v>5</v>
       </c>
       <c r="O27" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="P27" t="s">
-        <v>119</v>
+        <v>148</v>
       </c>
       <c r="Q27" t="s">
-        <v>141</v>
+        <v>171</v>
       </c>
       <c r="R27" t="s">
-        <v>145</v>
+        <v>175</v>
       </c>
       <c r="S27" s="0"/>
     </row>
@@ -2018,53 +2096,53 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="C28" s="0">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="D28" t="s">
-        <v>104</v>
+        <v>132</v>
       </c>
       <c r="E28" t="s">
-        <v>109</v>
+        <v>136</v>
       </c>
       <c r="F28" t="s">
-        <v>116</v>
+        <v>146</v>
       </c>
       <c r="G28" t="s">
-        <v>120</v>
+        <v>148</v>
       </c>
       <c r="H28" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="I28" t="s">
-        <v>119</v>
+        <v>148</v>
       </c>
       <c r="J28" s="0"/>
       <c r="K28" t="s">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="L28" t="s">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="M28" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="N28" s="0">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O28" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="P28" t="s">
-        <v>119</v>
+        <v>149</v>
       </c>
       <c r="Q28" t="s">
-        <v>141</v>
+        <v>171</v>
       </c>
       <c r="R28" t="s">
-        <v>145</v>
+        <v>175</v>
       </c>
       <c r="S28" s="0"/>
     </row>
@@ -2073,53 +2151,55 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>79</v>
-      </c>
-      <c r="C29" s="0"/>
+        <v>93</v>
+      </c>
+      <c r="C29" s="0">
+        <v>60</v>
+      </c>
       <c r="D29" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="E29" t="s">
-        <v>107</v>
+        <v>137</v>
       </c>
       <c r="F29" t="s">
-        <v>112</v>
+        <v>143</v>
       </c>
       <c r="G29" t="s">
-        <v>119</v>
+        <v>148</v>
       </c>
       <c r="H29" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="I29" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="J29" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K29" t="s">
-        <v>119</v>
+        <v>148</v>
       </c>
       <c r="L29" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="M29" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="N29" s="0">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O29" t="s">
-        <v>121</v>
+        <v>149</v>
       </c>
       <c r="P29" t="s">
-        <v>121</v>
+        <v>148</v>
       </c>
       <c r="Q29" t="s">
-        <v>142</v>
+        <v>171</v>
       </c>
       <c r="R29" t="s">
-        <v>144</v>
+        <v>174</v>
       </c>
       <c r="S29" s="0"/>
     </row>
@@ -2128,53 +2208,51 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>80</v>
-      </c>
-      <c r="C30" s="0">
-        <v>49</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="C30" s="0"/>
       <c r="D30" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="E30" t="s">
-        <v>109</v>
+        <v>136</v>
       </c>
       <c r="F30" t="s">
-        <v>115</v>
+        <v>140</v>
       </c>
       <c r="G30" t="s">
-        <v>120</v>
+        <v>148</v>
       </c>
       <c r="H30" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="I30" t="s">
-        <v>120</v>
+        <v>148</v>
       </c>
       <c r="J30" s="0"/>
       <c r="K30" t="s">
-        <v>121</v>
+        <v>148</v>
       </c>
       <c r="L30" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="M30" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="N30" s="0">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O30" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="P30" t="s">
-        <v>121</v>
+        <v>148</v>
       </c>
       <c r="Q30" t="s">
-        <v>141</v>
+        <v>172</v>
       </c>
       <c r="R30" t="s">
-        <v>145</v>
+        <v>175</v>
       </c>
       <c r="S30" s="0"/>
     </row>
@@ -2183,53 +2261,53 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>81</v>
-      </c>
-      <c r="C31" s="0"/>
+        <v>95</v>
+      </c>
+      <c r="C31" s="0">
+        <v>50</v>
+      </c>
       <c r="D31" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="E31" t="s">
-        <v>108</v>
+        <v>136</v>
       </c>
       <c r="F31" t="s">
-        <v>114</v>
+        <v>141</v>
       </c>
       <c r="G31" t="s">
-        <v>119</v>
+        <v>148</v>
       </c>
       <c r="H31" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="I31" t="s">
-        <v>121</v>
-      </c>
-      <c r="J31" s="0">
+        <v>148</v>
+      </c>
+      <c r="J31" s="0"/>
+      <c r="K31" t="s">
+        <v>148</v>
+      </c>
+      <c r="L31" t="s">
+        <v>148</v>
+      </c>
+      <c r="M31" t="s">
+        <v>149</v>
+      </c>
+      <c r="N31" s="0">
         <v>4</v>
       </c>
-      <c r="K31" t="s">
-        <v>119</v>
-      </c>
-      <c r="L31" t="s">
-        <v>120</v>
-      </c>
-      <c r="M31" t="s">
-        <v>120</v>
-      </c>
-      <c r="N31" s="0">
-        <v>2</v>
-      </c>
       <c r="O31" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="P31" t="s">
-        <v>120</v>
+        <v>148</v>
       </c>
       <c r="Q31" t="s">
-        <v>141</v>
+        <v>171</v>
       </c>
       <c r="R31" t="s">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="S31" s="0"/>
     </row>
@@ -2238,55 +2316,53 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>82</v>
-      </c>
-      <c r="C32" s="0">
-        <v>27</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="C32" s="0"/>
       <c r="D32" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="E32" t="s">
-        <v>108</v>
+        <v>135</v>
       </c>
       <c r="F32" t="s">
-        <v>113</v>
+        <v>142</v>
       </c>
       <c r="G32" t="s">
-        <v>119</v>
+        <v>148</v>
       </c>
       <c r="H32" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="I32" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="J32" s="0">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K32" t="s">
-        <v>120</v>
+        <v>148</v>
       </c>
       <c r="L32" t="s">
-        <v>119</v>
+        <v>148</v>
       </c>
       <c r="M32" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="N32" s="0">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O32" t="s">
-        <v>121</v>
+        <v>149</v>
       </c>
       <c r="P32" t="s">
-        <v>121</v>
+        <v>148</v>
       </c>
       <c r="Q32" t="s">
-        <v>141</v>
+        <v>171</v>
       </c>
       <c r="R32" t="s">
-        <v>144</v>
+        <v>174</v>
       </c>
       <c r="S32" s="0"/>
     </row>
@@ -2295,55 +2371,55 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="C33" s="0">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="D33" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="E33" t="s">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="F33" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="G33" t="s">
-        <v>119</v>
+        <v>148</v>
       </c>
       <c r="H33" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="I33" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="J33" s="0">
         <v>5</v>
       </c>
       <c r="K33" t="s">
-        <v>119</v>
+        <v>148</v>
       </c>
       <c r="L33" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="M33" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="N33" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O33" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="P33" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="Q33" t="s">
-        <v>141</v>
+        <v>171</v>
       </c>
       <c r="R33" t="s">
-        <v>144</v>
+        <v>174</v>
       </c>
       <c r="S33" s="0"/>
     </row>
@@ -2352,53 +2428,53 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>84</v>
-      </c>
-      <c r="C34" s="0">
-        <v>55</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="C34" s="0"/>
       <c r="D34" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="E34" t="s">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="F34" t="s">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="G34" t="s">
-        <v>119</v>
+        <v>148</v>
       </c>
       <c r="H34" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="I34" t="s">
-        <v>119</v>
-      </c>
-      <c r="J34" s="0"/>
+        <v>150</v>
+      </c>
+      <c r="J34" s="0">
+        <v>3</v>
+      </c>
       <c r="K34" t="s">
-        <v>121</v>
+        <v>148</v>
       </c>
       <c r="L34" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="M34" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="N34" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O34" t="s">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="P34" t="s">
-        <v>119</v>
+        <v>150</v>
       </c>
       <c r="Q34" t="s">
-        <v>141</v>
+        <v>171</v>
       </c>
       <c r="R34" t="s">
-        <v>145</v>
+        <v>174</v>
       </c>
       <c r="S34" s="0"/>
     </row>
@@ -2407,53 +2483,53 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>85</v>
-      </c>
-      <c r="C35" s="0"/>
+        <v>99</v>
+      </c>
+      <c r="C35" s="0">
+        <v>42</v>
+      </c>
       <c r="D35" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="E35" t="s">
-        <v>108</v>
+        <v>136</v>
       </c>
       <c r="F35" t="s">
-        <v>114</v>
+        <v>145</v>
       </c>
       <c r="G35" t="s">
-        <v>119</v>
+        <v>150</v>
       </c>
       <c r="H35" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="I35" t="s">
-        <v>121</v>
-      </c>
-      <c r="J35" s="0">
-        <v>5</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="J35" s="0"/>
       <c r="K35" t="s">
-        <v>119</v>
+        <v>150</v>
       </c>
       <c r="L35" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="M35" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="N35" s="0">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="O35" t="s">
-        <v>119</v>
+        <v>149</v>
       </c>
       <c r="P35" t="s">
-        <v>119</v>
+        <v>148</v>
       </c>
       <c r="Q35" t="s">
-        <v>141</v>
+        <v>171</v>
       </c>
       <c r="R35" t="s">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="S35" s="0"/>
     </row>
@@ -2462,53 +2538,51 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>86</v>
-      </c>
-      <c r="C36" s="0">
-        <v>38</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="C36" s="0"/>
       <c r="D36" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="E36" t="s">
-        <v>109</v>
+        <v>136</v>
       </c>
       <c r="F36" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="G36" t="s">
-        <v>120</v>
+        <v>148</v>
       </c>
       <c r="H36" t="s">
-        <v>128</v>
+        <v>150</v>
       </c>
       <c r="I36" t="s">
-        <v>120</v>
+        <v>148</v>
       </c>
       <c r="J36" s="0"/>
       <c r="K36" t="s">
-        <v>121</v>
+        <v>149</v>
       </c>
       <c r="L36" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="M36" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="N36" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O36" t="s">
-        <v>121</v>
+        <v>149</v>
       </c>
       <c r="P36" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="Q36" t="s">
-        <v>141</v>
+        <v>172</v>
       </c>
       <c r="R36" t="s">
-        <v>145</v>
+        <v>175</v>
       </c>
       <c r="S36" s="0"/>
     </row>
@@ -2517,55 +2591,53 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="C37" s="0">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D37" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="E37" t="s">
-        <v>108</v>
+        <v>136</v>
       </c>
       <c r="F37" t="s">
-        <v>114</v>
+        <v>146</v>
       </c>
       <c r="G37" t="s">
-        <v>119</v>
+        <v>149</v>
       </c>
       <c r="H37" t="s">
-        <v>121</v>
+        <v>155</v>
       </c>
       <c r="I37" t="s">
-        <v>121</v>
-      </c>
-      <c r="J37" s="0">
-        <v>2</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="J37" s="0"/>
       <c r="K37" t="s">
-        <v>119</v>
+        <v>149</v>
       </c>
       <c r="L37" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="M37" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="N37" s="0">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O37" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="P37" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="Q37" t="s">
-        <v>142</v>
+        <v>171</v>
       </c>
       <c r="R37" t="s">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="S37" s="0"/>
     </row>
@@ -2574,53 +2646,53 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>88</v>
-      </c>
-      <c r="C38" s="0">
-        <v>52</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="C38" s="0"/>
       <c r="D38" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="E38" t="s">
-        <v>109</v>
+        <v>136</v>
       </c>
       <c r="F38" t="s">
-        <v>115</v>
+        <v>140</v>
       </c>
       <c r="G38" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="H38" t="s">
-        <v>129</v>
+        <v>156</v>
       </c>
       <c r="I38" t="s">
-        <v>119</v>
-      </c>
-      <c r="J38" s="0"/>
+        <v>149</v>
+      </c>
+      <c r="J38" s="0">
+        <v>5</v>
+      </c>
       <c r="K38" t="s">
-        <v>121</v>
+        <v>149</v>
       </c>
       <c r="L38" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="M38" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="N38" s="0">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O38" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="P38" t="s">
-        <v>121</v>
+        <v>149</v>
       </c>
       <c r="Q38" t="s">
-        <v>141</v>
+        <v>171</v>
       </c>
       <c r="R38" t="s">
-        <v>145</v>
+        <v>175</v>
       </c>
       <c r="S38" s="0"/>
     </row>
@@ -2629,53 +2701,53 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>89</v>
-      </c>
-      <c r="C39" s="0">
-        <v>49</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="C39" s="0"/>
       <c r="D39" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="E39" t="s">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="F39" t="s">
-        <v>116</v>
+        <v>142</v>
       </c>
       <c r="G39" t="s">
-        <v>119</v>
+        <v>148</v>
       </c>
       <c r="H39" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="I39" t="s">
-        <v>119</v>
-      </c>
-      <c r="J39" s="0"/>
+        <v>150</v>
+      </c>
+      <c r="J39" s="0">
+        <v>6</v>
+      </c>
       <c r="K39" t="s">
-        <v>121</v>
+        <v>148</v>
       </c>
       <c r="L39" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="M39" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="N39" s="0">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O39" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="P39" t="s">
-        <v>119</v>
+        <v>149</v>
       </c>
       <c r="Q39" t="s">
-        <v>141</v>
+        <v>172</v>
       </c>
       <c r="R39" t="s">
-        <v>145</v>
+        <v>174</v>
       </c>
       <c r="S39" s="0"/>
     </row>
@@ -2684,55 +2756,53 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="C40" s="0">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="D40" t="s">
-        <v>104</v>
+        <v>132</v>
       </c>
       <c r="E40" t="s">
-        <v>107</v>
+        <v>136</v>
       </c>
       <c r="F40" t="s">
-        <v>111</v>
+        <v>145</v>
       </c>
       <c r="G40" t="s">
-        <v>119</v>
+        <v>149</v>
       </c>
       <c r="H40" t="s">
-        <v>121</v>
+        <v>157</v>
       </c>
       <c r="I40" t="s">
-        <v>121</v>
-      </c>
-      <c r="J40" s="0">
-        <v>6</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="J40" s="0"/>
       <c r="K40" t="s">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="L40" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="M40" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="N40" s="0">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O40" t="s">
-        <v>121</v>
+        <v>149</v>
       </c>
       <c r="P40" t="s">
-        <v>121</v>
+        <v>149</v>
       </c>
       <c r="Q40" t="s">
-        <v>141</v>
+        <v>171</v>
       </c>
       <c r="R40" t="s">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="S40" s="0"/>
     </row>
@@ -2741,55 +2811,53 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>91</v>
-      </c>
-      <c r="C41" s="0">
-        <v>44</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="C41" s="0"/>
       <c r="D41" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="E41" t="s">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="F41" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="G41" t="s">
-        <v>119</v>
+        <v>148</v>
       </c>
       <c r="H41" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="I41" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="J41" s="0">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K41" t="s">
-        <v>119</v>
+        <v>148</v>
       </c>
       <c r="L41" t="s">
-        <v>119</v>
+        <v>149</v>
       </c>
       <c r="M41" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="N41" s="0">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O41" t="s">
-        <v>121</v>
+        <v>149</v>
       </c>
       <c r="P41" t="s">
-        <v>121</v>
+        <v>148</v>
       </c>
       <c r="Q41" t="s">
-        <v>141</v>
+        <v>171</v>
       </c>
       <c r="R41" t="s">
-        <v>144</v>
+        <v>174</v>
       </c>
       <c r="S41" s="0"/>
     </row>
@@ -2798,55 +2866,55 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="C42" s="0">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="D42" t="s">
-        <v>104</v>
+        <v>132</v>
       </c>
       <c r="E42" t="s">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="F42" t="s">
-        <v>113</v>
+        <v>143</v>
       </c>
       <c r="G42" t="s">
-        <v>119</v>
+        <v>148</v>
       </c>
       <c r="H42" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="I42" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="J42" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K42" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="L42" t="s">
-        <v>120</v>
+        <v>148</v>
       </c>
       <c r="M42" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="N42" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O42" t="s">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="P42" t="s">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="Q42" t="s">
-        <v>141</v>
+        <v>171</v>
       </c>
       <c r="R42" t="s">
-        <v>144</v>
+        <v>174</v>
       </c>
       <c r="S42" s="0"/>
     </row>
@@ -2855,55 +2923,55 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="C43" s="0">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="D43" t="s">
-        <v>104</v>
+        <v>132</v>
       </c>
       <c r="E43" t="s">
-        <v>107</v>
+        <v>137</v>
       </c>
       <c r="F43" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="G43" t="s">
-        <v>119</v>
+        <v>148</v>
       </c>
       <c r="H43" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="I43" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="J43" s="0">
         <v>5</v>
       </c>
       <c r="K43" t="s">
-        <v>120</v>
+        <v>148</v>
       </c>
       <c r="L43" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="M43" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="N43" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O43" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="P43" t="s">
-        <v>119</v>
+        <v>148</v>
       </c>
       <c r="Q43" t="s">
-        <v>141</v>
+        <v>171</v>
       </c>
       <c r="R43" t="s">
-        <v>144</v>
+        <v>174</v>
       </c>
       <c r="S43" s="0"/>
     </row>
@@ -2912,55 +2980,53 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="C44" s="0">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="D44" t="s">
-        <v>104</v>
+        <v>132</v>
       </c>
       <c r="E44" t="s">
-        <v>108</v>
+        <v>136</v>
       </c>
       <c r="F44" t="s">
-        <v>113</v>
+        <v>145</v>
       </c>
       <c r="G44" t="s">
-        <v>119</v>
+        <v>148</v>
       </c>
       <c r="H44" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="I44" t="s">
-        <v>121</v>
-      </c>
-      <c r="J44" s="0">
+        <v>148</v>
+      </c>
+      <c r="J44" s="0"/>
+      <c r="K44" t="s">
+        <v>150</v>
+      </c>
+      <c r="L44" t="s">
+        <v>149</v>
+      </c>
+      <c r="M44" t="s">
+        <v>149</v>
+      </c>
+      <c r="N44" s="0">
         <v>4</v>
       </c>
-      <c r="K44" t="s">
-        <v>120</v>
-      </c>
-      <c r="L44" t="s">
-        <v>119</v>
-      </c>
-      <c r="M44" t="s">
-        <v>120</v>
-      </c>
-      <c r="N44" s="0">
-        <v>2</v>
-      </c>
       <c r="O44" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="P44" t="s">
-        <v>119</v>
+        <v>148</v>
       </c>
       <c r="Q44" t="s">
-        <v>141</v>
+        <v>171</v>
       </c>
       <c r="R44" t="s">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="S44" s="0"/>
     </row>
@@ -2969,55 +3035,53 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="C45" s="0">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D45" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="E45" t="s">
-        <v>107</v>
+        <v>136</v>
       </c>
       <c r="F45" t="s">
-        <v>111</v>
+        <v>141</v>
       </c>
       <c r="G45" t="s">
-        <v>119</v>
+        <v>148</v>
       </c>
       <c r="H45" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="I45" t="s">
-        <v>121</v>
-      </c>
-      <c r="J45" s="0">
-        <v>8</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="J45" s="0"/>
       <c r="K45" t="s">
-        <v>120</v>
+        <v>148</v>
       </c>
       <c r="L45" t="s">
-        <v>120</v>
+        <v>148</v>
       </c>
       <c r="M45" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="N45" s="0">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O45" t="s">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="P45" t="s">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="Q45" t="s">
-        <v>141</v>
+        <v>171</v>
       </c>
       <c r="R45" t="s">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="S45" s="0"/>
     </row>
@@ -3026,55 +3090,53 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>96</v>
-      </c>
-      <c r="C46" s="0">
-        <v>24</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="C46" s="0"/>
       <c r="D46" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="E46" t="s">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="F46" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="G46" t="s">
-        <v>119</v>
+        <v>148</v>
       </c>
       <c r="H46" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="I46" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="J46" s="0">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K46" t="s">
-        <v>120</v>
+        <v>148</v>
       </c>
       <c r="L46" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="M46" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="N46" s="0">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O46" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="P46" t="s">
-        <v>119</v>
+        <v>148</v>
       </c>
       <c r="Q46" t="s">
-        <v>141</v>
+        <v>171</v>
       </c>
       <c r="R46" t="s">
-        <v>144</v>
+        <v>174</v>
       </c>
       <c r="S46" s="0"/>
     </row>
@@ -3083,55 +3145,53 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="C47" s="0">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D47" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="E47" t="s">
-        <v>108</v>
+        <v>136</v>
       </c>
       <c r="F47" t="s">
-        <v>114</v>
+        <v>145</v>
       </c>
       <c r="G47" t="s">
-        <v>119</v>
+        <v>149</v>
       </c>
       <c r="H47" t="s">
-        <v>121</v>
+        <v>158</v>
       </c>
       <c r="I47" t="s">
-        <v>121</v>
-      </c>
-      <c r="J47" s="0">
-        <v>3</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="J47" s="0"/>
       <c r="K47" t="s">
-        <v>119</v>
+        <v>150</v>
       </c>
       <c r="L47" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="M47" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="N47" s="0">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O47" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="P47" t="s">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="Q47" t="s">
-        <v>141</v>
+        <v>171</v>
       </c>
       <c r="R47" t="s">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="S47" s="0"/>
     </row>
@@ -3140,55 +3200,55 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="C48" s="0">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="D48" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="E48" t="s">
-        <v>107</v>
+        <v>137</v>
       </c>
       <c r="F48" t="s">
-        <v>111</v>
+        <v>144</v>
       </c>
       <c r="G48" t="s">
-        <v>120</v>
+        <v>148</v>
       </c>
       <c r="H48" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="I48" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="J48" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K48" t="s">
-        <v>120</v>
+        <v>148</v>
       </c>
       <c r="L48" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="M48" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="N48" s="0">
         <v>8</v>
       </c>
       <c r="O48" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="P48" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="Q48" t="s">
-        <v>141</v>
+        <v>172</v>
       </c>
       <c r="R48" t="s">
-        <v>144</v>
+        <v>174</v>
       </c>
       <c r="S48" s="0"/>
     </row>
@@ -3197,55 +3257,55 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="C49" s="0">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="D49" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="E49" t="s">
-        <v>107</v>
+        <v>136</v>
       </c>
       <c r="F49" t="s">
-        <v>111</v>
+        <v>141</v>
       </c>
       <c r="G49" t="s">
-        <v>119</v>
+        <v>148</v>
       </c>
       <c r="H49" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="I49" t="s">
-        <v>121</v>
+        <v>149</v>
       </c>
       <c r="J49" s="0">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K49" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="L49" t="s">
-        <v>120</v>
+        <v>148</v>
       </c>
       <c r="M49" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="N49" s="0">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="O49" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="P49" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="Q49" t="s">
-        <v>141</v>
+        <v>171</v>
       </c>
       <c r="R49" t="s">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="S49" s="0"/>
     </row>
@@ -3254,53 +3314,53 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="C50" s="0">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D50" t="s">
-        <v>104</v>
+        <v>132</v>
       </c>
       <c r="E50" t="s">
-        <v>109</v>
+        <v>136</v>
       </c>
       <c r="F50" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="G50" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="H50" t="s">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c r="I50" t="s">
-        <v>119</v>
+        <v>148</v>
       </c>
       <c r="J50" s="0"/>
       <c r="K50" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="L50" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="M50" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="N50" s="0">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O50" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="P50" t="s">
-        <v>119</v>
+        <v>148</v>
       </c>
       <c r="Q50" t="s">
-        <v>141</v>
+        <v>171</v>
       </c>
       <c r="R50" t="s">
-        <v>145</v>
+        <v>175</v>
       </c>
       <c r="S50" s="0"/>
     </row>
@@ -3309,57 +3369,847 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="C51" s="0">
+        <v>49</v>
+      </c>
+      <c r="D51" t="s">
+        <v>132</v>
+      </c>
+      <c r="E51" t="s">
+        <v>136</v>
+      </c>
+      <c r="F51" t="s">
+        <v>146</v>
+      </c>
+      <c r="G51" t="s">
+        <v>148</v>
+      </c>
+      <c r="H51" t="s">
+        <v>150</v>
+      </c>
+      <c r="I51" t="s">
+        <v>148</v>
+      </c>
+      <c r="J51" s="0"/>
+      <c r="K51" t="s">
+        <v>150</v>
+      </c>
+      <c r="L51" t="s">
+        <v>149</v>
+      </c>
+      <c r="M51" t="s">
+        <v>149</v>
+      </c>
+      <c r="N51" s="0">
+        <v>3</v>
+      </c>
+      <c r="O51" t="s">
+        <v>149</v>
+      </c>
+      <c r="P51" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>171</v>
+      </c>
+      <c r="R51" t="s">
+        <v>175</v>
+      </c>
+      <c r="S51" s="0"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>116</v>
+      </c>
+      <c r="C52" s="0">
+        <v>42</v>
+      </c>
+      <c r="D52" t="s">
+        <v>132</v>
+      </c>
+      <c r="E52" t="s">
+        <v>135</v>
+      </c>
+      <c r="F52" t="s">
+        <v>139</v>
+      </c>
+      <c r="G52" t="s">
+        <v>148</v>
+      </c>
+      <c r="H52" t="s">
+        <v>150</v>
+      </c>
+      <c r="I52" t="s">
+        <v>150</v>
+      </c>
+      <c r="J52" s="0">
+        <v>6</v>
+      </c>
+      <c r="K52" t="s">
+        <v>149</v>
+      </c>
+      <c r="L52" t="s">
+        <v>149</v>
+      </c>
+      <c r="M52" t="s">
+        <v>149</v>
+      </c>
+      <c r="N52" s="0">
+        <v>6</v>
+      </c>
+      <c r="O52" t="s">
+        <v>149</v>
+      </c>
+      <c r="P52" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>171</v>
+      </c>
+      <c r="R52" t="s">
+        <v>174</v>
+      </c>
+      <c r="S52" s="0"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>117</v>
+      </c>
+      <c r="C53" s="0">
+        <v>44</v>
+      </c>
+      <c r="D53" t="s">
+        <v>132</v>
+      </c>
+      <c r="E53" t="s">
+        <v>137</v>
+      </c>
+      <c r="F53" t="s">
+        <v>143</v>
+      </c>
+      <c r="G53" t="s">
+        <v>148</v>
+      </c>
+      <c r="H53" t="s">
+        <v>150</v>
+      </c>
+      <c r="I53" t="s">
+        <v>150</v>
+      </c>
+      <c r="J53" s="0">
+        <v>6</v>
+      </c>
+      <c r="K53" t="s">
+        <v>148</v>
+      </c>
+      <c r="L53" t="s">
+        <v>148</v>
+      </c>
+      <c r="M53" t="s">
+        <v>149</v>
+      </c>
+      <c r="N53" s="0">
+        <v>4</v>
+      </c>
+      <c r="O53" t="s">
+        <v>149</v>
+      </c>
+      <c r="P53" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>171</v>
+      </c>
+      <c r="R53" t="s">
+        <v>174</v>
+      </c>
+      <c r="S53" s="0"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>118</v>
+      </c>
+      <c r="C54" s="0">
+        <v>37</v>
+      </c>
+      <c r="D54" t="s">
+        <v>132</v>
+      </c>
+      <c r="E54" t="s">
+        <v>137</v>
+      </c>
+      <c r="F54" t="s">
+        <v>143</v>
+      </c>
+      <c r="G54" t="s">
+        <v>148</v>
+      </c>
+      <c r="H54" t="s">
+        <v>150</v>
+      </c>
+      <c r="I54" t="s">
+        <v>150</v>
+      </c>
+      <c r="J54" s="0">
+        <v>5</v>
+      </c>
+      <c r="K54" t="s">
+        <v>149</v>
+      </c>
+      <c r="L54" t="s">
+        <v>149</v>
+      </c>
+      <c r="M54" t="s">
+        <v>149</v>
+      </c>
+      <c r="N54" s="0">
+        <v>3</v>
+      </c>
+      <c r="O54" t="s">
+        <v>149</v>
+      </c>
+      <c r="P54" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>171</v>
+      </c>
+      <c r="R54" t="s">
+        <v>174</v>
+      </c>
+      <c r="S54" s="0"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>119</v>
+      </c>
+      <c r="C55" s="0">
+        <v>30</v>
+      </c>
+      <c r="D55" t="s">
+        <v>132</v>
+      </c>
+      <c r="E55" t="s">
+        <v>135</v>
+      </c>
+      <c r="F55" t="s">
+        <v>139</v>
+      </c>
+      <c r="G55" t="s">
+        <v>148</v>
+      </c>
+      <c r="H55" t="s">
+        <v>150</v>
+      </c>
+      <c r="I55" t="s">
+        <v>150</v>
+      </c>
+      <c r="J55" s="0">
+        <v>5</v>
+      </c>
+      <c r="K55" t="s">
+        <v>149</v>
+      </c>
+      <c r="L55" t="s">
+        <v>149</v>
+      </c>
+      <c r="M55" t="s">
+        <v>149</v>
+      </c>
+      <c r="N55" s="0">
+        <v>1</v>
+      </c>
+      <c r="O55" t="s">
+        <v>150</v>
+      </c>
+      <c r="P55" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>171</v>
+      </c>
+      <c r="R55" t="s">
+        <v>174</v>
+      </c>
+      <c r="S55" s="0"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>120</v>
+      </c>
+      <c r="C56" s="0"/>
+      <c r="D56" t="s">
+        <v>133</v>
+      </c>
+      <c r="E56" t="s">
+        <v>136</v>
+      </c>
+      <c r="F56" t="s">
+        <v>141</v>
+      </c>
+      <c r="G56" t="s">
+        <v>148</v>
+      </c>
+      <c r="H56" t="s">
+        <v>150</v>
+      </c>
+      <c r="I56" t="s">
+        <v>149</v>
+      </c>
+      <c r="J56" s="0">
+        <v>5</v>
+      </c>
+      <c r="K56" t="s">
+        <v>149</v>
+      </c>
+      <c r="L56" t="s">
+        <v>149</v>
+      </c>
+      <c r="M56" t="s">
+        <v>149</v>
+      </c>
+      <c r="N56" s="0">
+        <v>7</v>
+      </c>
+      <c r="O56" t="s">
+        <v>149</v>
+      </c>
+      <c r="P56" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>171</v>
+      </c>
+      <c r="R56" t="s">
+        <v>175</v>
+      </c>
+      <c r="S56" s="0"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>121</v>
+      </c>
+      <c r="C57" s="0">
+        <v>24</v>
+      </c>
+      <c r="D57" t="s">
+        <v>132</v>
+      </c>
+      <c r="E57" t="s">
+        <v>137</v>
+      </c>
+      <c r="F57" t="s">
+        <v>143</v>
+      </c>
+      <c r="G57" t="s">
+        <v>148</v>
+      </c>
+      <c r="H57" t="s">
+        <v>150</v>
+      </c>
+      <c r="I57" t="s">
+        <v>150</v>
+      </c>
+      <c r="J57" s="0">
+        <v>4</v>
+      </c>
+      <c r="K57" t="s">
+        <v>149</v>
+      </c>
+      <c r="L57" t="s">
+        <v>148</v>
+      </c>
+      <c r="M57" t="s">
+        <v>149</v>
+      </c>
+      <c r="N57" s="0">
+        <v>4</v>
+      </c>
+      <c r="O57" t="s">
+        <v>149</v>
+      </c>
+      <c r="P57" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>172</v>
+      </c>
+      <c r="R57" t="s">
+        <v>174</v>
+      </c>
+      <c r="S57" s="0"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>122</v>
+      </c>
+      <c r="C58" s="0">
+        <v>40</v>
+      </c>
+      <c r="D58" t="s">
+        <v>133</v>
+      </c>
+      <c r="E58" t="s">
+        <v>136</v>
+      </c>
+      <c r="F58" t="s">
+        <v>140</v>
+      </c>
+      <c r="G58" t="s">
+        <v>148</v>
+      </c>
+      <c r="H58" t="s">
+        <v>150</v>
+      </c>
+      <c r="I58" t="s">
+        <v>148</v>
+      </c>
+      <c r="J58" s="0"/>
+      <c r="K58" t="s">
+        <v>148</v>
+      </c>
+      <c r="L58" t="s">
+        <v>148</v>
+      </c>
+      <c r="M58" t="s">
+        <v>149</v>
+      </c>
+      <c r="N58" s="0">
+        <v>2</v>
+      </c>
+      <c r="O58" t="s">
+        <v>149</v>
+      </c>
+      <c r="P58" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>171</v>
+      </c>
+      <c r="R58" t="s">
+        <v>175</v>
+      </c>
+      <c r="S58" s="0"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>123</v>
+      </c>
+      <c r="C59" s="0">
+        <v>23</v>
+      </c>
+      <c r="D59" t="s">
+        <v>132</v>
+      </c>
+      <c r="E59" t="s">
+        <v>135</v>
+      </c>
+      <c r="F59" t="s">
+        <v>139</v>
+      </c>
+      <c r="G59" t="s">
+        <v>148</v>
+      </c>
+      <c r="H59" t="s">
+        <v>150</v>
+      </c>
+      <c r="I59" t="s">
+        <v>150</v>
+      </c>
+      <c r="J59" s="0">
+        <v>8</v>
+      </c>
+      <c r="K59" t="s">
+        <v>149</v>
+      </c>
+      <c r="L59" t="s">
+        <v>149</v>
+      </c>
+      <c r="M59" t="s">
+        <v>149</v>
+      </c>
+      <c r="N59" s="0">
+        <v>3</v>
+      </c>
+      <c r="O59" t="s">
+        <v>149</v>
+      </c>
+      <c r="P59" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>171</v>
+      </c>
+      <c r="R59" t="s">
+        <v>174</v>
+      </c>
+      <c r="S59" s="0"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>124</v>
+      </c>
+      <c r="C60" s="0">
+        <v>24</v>
+      </c>
+      <c r="D60" t="s">
+        <v>132</v>
+      </c>
+      <c r="E60" t="s">
+        <v>137</v>
+      </c>
+      <c r="F60" t="s">
+        <v>143</v>
+      </c>
+      <c r="G60" t="s">
+        <v>148</v>
+      </c>
+      <c r="H60" t="s">
+        <v>150</v>
+      </c>
+      <c r="I60" t="s">
+        <v>150</v>
+      </c>
+      <c r="J60" s="0">
+        <v>4</v>
+      </c>
+      <c r="K60" t="s">
+        <v>149</v>
+      </c>
+      <c r="L60" t="s">
+        <v>149</v>
+      </c>
+      <c r="M60" t="s">
+        <v>149</v>
+      </c>
+      <c r="N60" s="0">
+        <v>7</v>
+      </c>
+      <c r="O60" t="s">
+        <v>149</v>
+      </c>
+      <c r="P60" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>171</v>
+      </c>
+      <c r="R60" t="s">
+        <v>174</v>
+      </c>
+      <c r="S60" s="0"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>125</v>
+      </c>
+      <c r="C61" s="0">
+        <v>39</v>
+      </c>
+      <c r="D61" t="s">
+        <v>133</v>
+      </c>
+      <c r="E61" t="s">
+        <v>137</v>
+      </c>
+      <c r="F61" t="s">
+        <v>144</v>
+      </c>
+      <c r="G61" t="s">
+        <v>148</v>
+      </c>
+      <c r="H61" t="s">
+        <v>150</v>
+      </c>
+      <c r="I61" t="s">
+        <v>150</v>
+      </c>
+      <c r="J61" s="0">
+        <v>3</v>
+      </c>
+      <c r="K61" t="s">
+        <v>148</v>
+      </c>
+      <c r="L61" t="s">
+        <v>149</v>
+      </c>
+      <c r="M61" t="s">
+        <v>149</v>
+      </c>
+      <c r="N61" s="0">
+        <v>6</v>
+      </c>
+      <c r="O61" t="s">
+        <v>149</v>
+      </c>
+      <c r="P61" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>171</v>
+      </c>
+      <c r="R61" t="s">
+        <v>174</v>
+      </c>
+      <c r="S61" s="0"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>126</v>
+      </c>
+      <c r="C62" s="0">
+        <v>52</v>
+      </c>
+      <c r="D62" t="s">
+        <v>132</v>
+      </c>
+      <c r="E62" t="s">
+        <v>135</v>
+      </c>
+      <c r="F62" t="s">
+        <v>139</v>
+      </c>
+      <c r="G62" t="s">
+        <v>149</v>
+      </c>
+      <c r="H62" t="s">
+        <v>160</v>
+      </c>
+      <c r="I62" t="s">
+        <v>150</v>
+      </c>
+      <c r="J62" s="0">
+        <v>1</v>
+      </c>
+      <c r="K62" t="s">
+        <v>149</v>
+      </c>
+      <c r="L62" t="s">
+        <v>149</v>
+      </c>
+      <c r="M62" t="s">
+        <v>149</v>
+      </c>
+      <c r="N62" s="0">
+        <v>5</v>
+      </c>
+      <c r="O62" t="s">
+        <v>149</v>
+      </c>
+      <c r="P62" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>171</v>
+      </c>
+      <c r="R62" t="s">
+        <v>174</v>
+      </c>
+      <c r="S62" s="0"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>127</v>
+      </c>
+      <c r="C63" s="0">
+        <v>71</v>
+      </c>
+      <c r="D63" t="s">
+        <v>132</v>
+      </c>
+      <c r="E63" t="s">
+        <v>135</v>
+      </c>
+      <c r="F63" t="s">
+        <v>139</v>
+      </c>
+      <c r="G63" t="s">
+        <v>148</v>
+      </c>
+      <c r="H63" t="s">
+        <v>150</v>
+      </c>
+      <c r="I63" t="s">
+        <v>150</v>
+      </c>
+      <c r="J63" s="0">
+        <v>4</v>
+      </c>
+      <c r="K63" t="s">
+        <v>149</v>
+      </c>
+      <c r="L63" t="s">
+        <v>149</v>
+      </c>
+      <c r="M63" t="s">
+        <v>149</v>
+      </c>
+      <c r="N63" s="0">
+        <v>6</v>
+      </c>
+      <c r="O63" t="s">
+        <v>149</v>
+      </c>
+      <c r="P63" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>171</v>
+      </c>
+      <c r="R63" t="s">
+        <v>174</v>
+      </c>
+      <c r="S63" s="0"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>128</v>
+      </c>
+      <c r="C64" s="0">
+        <v>57</v>
+      </c>
+      <c r="D64" t="s">
+        <v>132</v>
+      </c>
+      <c r="E64" t="s">
+        <v>136</v>
+      </c>
+      <c r="F64" t="s">
+        <v>145</v>
+      </c>
+      <c r="G64" t="s">
+        <v>149</v>
+      </c>
+      <c r="H64" t="s">
+        <v>161</v>
+      </c>
+      <c r="I64" t="s">
+        <v>148</v>
+      </c>
+      <c r="J64" s="0"/>
+      <c r="K64" t="s">
+        <v>150</v>
+      </c>
+      <c r="L64" t="s">
+        <v>149</v>
+      </c>
+      <c r="M64" t="s">
+        <v>149</v>
+      </c>
+      <c r="N64" s="0">
+        <v>2</v>
+      </c>
+      <c r="O64" t="s">
+        <v>149</v>
+      </c>
+      <c r="P64" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>171</v>
+      </c>
+      <c r="R64" t="s">
+        <v>175</v>
+      </c>
+      <c r="S64" s="0"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>129</v>
+      </c>
+      <c r="C65" s="0">
         <v>22</v>
       </c>
-      <c r="D51" t="s">
-        <v>104</v>
-      </c>
-      <c r="E51" t="s">
-        <v>108</v>
-      </c>
-      <c r="F51" t="s">
-        <v>113</v>
-      </c>
-      <c r="G51" t="s">
-        <v>119</v>
-      </c>
-      <c r="H51" t="s">
-        <v>121</v>
-      </c>
-      <c r="I51" t="s">
-        <v>121</v>
-      </c>
-      <c r="J51" s="0">
+      <c r="D65" t="s">
+        <v>132</v>
+      </c>
+      <c r="E65" t="s">
+        <v>137</v>
+      </c>
+      <c r="F65" t="s">
+        <v>143</v>
+      </c>
+      <c r="G65" t="s">
+        <v>148</v>
+      </c>
+      <c r="H65" t="s">
+        <v>150</v>
+      </c>
+      <c r="I65" t="s">
+        <v>150</v>
+      </c>
+      <c r="J65" s="0">
         <v>5</v>
       </c>
-      <c r="K51" t="s">
-        <v>119</v>
-      </c>
-      <c r="L51" t="s">
-        <v>120</v>
-      </c>
-      <c r="M51" t="s">
-        <v>120</v>
-      </c>
-      <c r="N51" s="0">
-        <v>8</v>
-      </c>
-      <c r="O51" t="s">
-        <v>121</v>
-      </c>
-      <c r="P51" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q51" t="s">
-        <v>141</v>
-      </c>
-      <c r="R51" t="s">
-        <v>144</v>
-      </c>
-      <c r="S51" s="0"/>
+      <c r="K65" t="s">
+        <v>148</v>
+      </c>
+      <c r="L65" t="s">
+        <v>149</v>
+      </c>
+      <c r="M65" t="s">
+        <v>149</v>
+      </c>
+      <c r="N65" s="0">
+        <v>5</v>
+      </c>
+      <c r="O65" t="s">
+        <v>149</v>
+      </c>
+      <c r="P65" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>171</v>
+      </c>
+      <c r="R65" t="s">
+        <v>174</v>
+      </c>
+      <c r="S65" s="0"/>
     </row>
   </sheetData>
 </worksheet>

--- a/sempre_Presentes.xlsx
+++ b/sempre_Presentes.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1188" uniqueCount="210">
   <si>
     <t>ID</t>
   </si>
@@ -24,6 +24,9 @@
     <t>C_1097</t>
   </si>
   <si>
+    <t>C_1169</t>
+  </si>
+  <si>
     <t>C_1053</t>
   </si>
   <si>
@@ -36,6 +39,9 @@
     <t>C_1090</t>
   </si>
   <si>
+    <t>C_1178</t>
+  </si>
+  <si>
     <t>C_1019</t>
   </si>
   <si>
@@ -51,21 +57,36 @@
     <t>C_1102</t>
   </si>
   <si>
+    <t>C_1156</t>
+  </si>
+  <si>
     <t>C_1106</t>
   </si>
   <si>
     <t>C_1058</t>
   </si>
   <si>
+    <t>C_1167</t>
+  </si>
+  <si>
     <t>C_1004</t>
   </si>
   <si>
+    <t>C_1154</t>
+  </si>
+  <si>
     <t>C_1021</t>
   </si>
   <si>
+    <t>C_1140</t>
+  </si>
+  <si>
     <t>C_1078</t>
   </si>
   <si>
+    <t>C_1159</t>
+  </si>
+  <si>
     <t>C_1022</t>
   </si>
   <si>
@@ -78,6 +99,9 @@
     <t>C_1023</t>
   </si>
   <si>
+    <t>C_1137</t>
+  </si>
+  <si>
     <t>C_1108</t>
   </si>
   <si>
@@ -105,7 +129,7 @@
     <t>C_1099</t>
   </si>
   <si>
-    <t>C_1114</t>
+    <t>C_1074</t>
   </si>
   <si>
     <t>C_1025</t>
@@ -126,6 +150,9 @@
     <t>C_1122</t>
   </si>
   <si>
+    <t>C_1170</t>
+  </si>
+  <si>
     <t>C_1087</t>
   </si>
   <si>
@@ -138,6 +165,9 @@
     <t>C_1009</t>
   </si>
   <si>
+    <t>C_1130</t>
+  </si>
+  <si>
     <t>C_1038</t>
   </si>
   <si>
@@ -147,6 +177,9 @@
     <t>C_1073</t>
   </si>
   <si>
+    <t>C_1138</t>
+  </si>
+  <si>
     <t>C_1107</t>
   </si>
   <si>
@@ -168,6 +201,9 @@
     <t>C_1117</t>
   </si>
   <si>
+    <t>C_1136</t>
+  </si>
+  <si>
     <t>C_1064</t>
   </si>
   <si>
@@ -186,6 +222,9 @@
     <t>C_1046</t>
   </si>
   <si>
+    <t>C_1153</t>
+  </si>
+  <si>
     <t>C_1072</t>
   </si>
   <si>
@@ -201,6 +240,9 @@
     <t>C_1068</t>
   </si>
   <si>
+    <t>C_1172</t>
+  </si>
+  <si>
     <t>C_1070</t>
   </si>
   <si>
@@ -219,6 +261,9 @@
     <t>ADELIA MANUEL</t>
   </si>
   <si>
+    <t>AIRINE ANDRE</t>
+  </si>
+  <si>
     <t>AMADEU FURAI</t>
   </si>
   <si>
@@ -231,6 +276,9 @@
     <t>ANA MANGUIZA</t>
   </si>
   <si>
+    <t>ANA PANGUIDZAI</t>
+  </si>
+  <si>
     <t>ANITA ARMANDO</t>
   </si>
   <si>
@@ -246,21 +294,36 @@
     <t>CATARINA ALBERTO</t>
   </si>
   <si>
+    <t>CATARINA SIMBISSONE</t>
+  </si>
+  <si>
     <t>CECILIA CHAMUSSE</t>
   </si>
   <si>
     <t>CHADE BASTO</t>
   </si>
   <si>
+    <t>CRISTINA TAPARATSI</t>
+  </si>
+  <si>
     <t>DESTA ARMANDO</t>
   </si>
   <si>
+    <t>DIOLINDA DAVID</t>
+  </si>
+  <si>
     <t>DIONIZIA AIRONE CHAPO</t>
   </si>
   <si>
+    <t>DOCA ELIAS</t>
+  </si>
+  <si>
     <t>ELIAS JULAI</t>
   </si>
   <si>
+    <t>ESTA MATANDA</t>
+  </si>
+  <si>
     <t>FATIANCA PAULINHO</t>
   </si>
   <si>
@@ -273,6 +336,9 @@
     <t>FLORIANA RANDINHO</t>
   </si>
   <si>
+    <t>GLEDISSE PEDRO</t>
+  </si>
+  <si>
     <t>GRECE ALBERTO SAIZE</t>
   </si>
   <si>
@@ -321,6 +387,9 @@
     <t>MARIO FERNANDO</t>
   </si>
   <si>
+    <t>MARTA ANDRE</t>
+  </si>
+  <si>
     <t>MARTA BRAUNDE</t>
   </si>
   <si>
@@ -333,6 +402,9 @@
     <t>MERECINA FROMA</t>
   </si>
   <si>
+    <t>MICHEQUE MASSITEMBA CHISSICO</t>
+  </si>
+  <si>
     <t>MODESTO JOSE</t>
   </si>
   <si>
@@ -342,6 +414,9 @@
     <t>MOISES TAUNDE</t>
   </si>
   <si>
+    <t>NEIVES SIMBISSON</t>
+  </si>
+  <si>
     <t>NORA JOAO</t>
   </si>
   <si>
@@ -363,6 +438,9 @@
     <t>ROBERTO SABAO</t>
   </si>
   <si>
+    <t>ROSA ROBETY</t>
+  </si>
+  <si>
     <t>ROSARIO CHICO</t>
   </si>
   <si>
@@ -381,6 +459,9 @@
     <t>SIMONE JOSE</t>
   </si>
   <si>
+    <t>SITEN FILIPE</t>
+  </si>
+  <si>
     <t>SOFIA ARMANDO</t>
   </si>
   <si>
@@ -396,6 +477,9 @@
     <t>VENANCIO BASTO</t>
   </si>
   <si>
+    <t>VERONICA MOISES</t>
+  </si>
+  <si>
     <t>VICTOR LAZENE</t>
   </si>
   <si>
@@ -426,6 +510,9 @@
     <t>CHIMANIMANI-MPUNGA</t>
   </si>
   <si>
+    <t>CHIMANIMANI-MUSSAPA</t>
+  </si>
+  <si>
     <t>GORONGOSA-NHAMU</t>
   </si>
   <si>
@@ -438,6 +525,9 @@
     <t>AP-1</t>
   </si>
   <si>
+    <t>AP-4</t>
+  </si>
+  <si>
     <t>AP-2</t>
   </si>
   <si>
@@ -450,12 +540,21 @@
     <t>M_1</t>
   </si>
   <si>
+    <t>AP-3</t>
+  </si>
+  <si>
     <t>AP-5</t>
   </si>
   <si>
     <t>AP-6</t>
   </si>
   <si>
+    <t>AP-7</t>
+  </si>
+  <si>
+    <t>AP-8</t>
+  </si>
+  <si>
     <t>Membro_Influente</t>
   </si>
   <si>
@@ -495,6 +594,9 @@
     <t>CHEFE DE 10 CASAS</t>
   </si>
   <si>
+    <t>CHEFE DE 15 CASAS</t>
+  </si>
+  <si>
     <t>MEDICO TRADICIONAL</t>
   </si>
   <si>
@@ -541,9 +643,6 @@
   </si>
   <si>
     <t>CHIMANIMANI</t>
-  </si>
-  <si>
-    <t>ProdutorLider1SIM0não</t>
   </si>
 </sst>
 </file>
@@ -587,7 +686,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S65"/>
+  <dimension ref="A1:R79"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -595,58 +694,55 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="C1" t="s">
-        <v>130</v>
+        <v>158</v>
       </c>
       <c r="D1" t="s">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c r="E1" t="s">
-        <v>134</v>
+        <v>162</v>
       </c>
       <c r="F1" t="s">
-        <v>138</v>
+        <v>167</v>
       </c>
       <c r="G1" t="s">
-        <v>147</v>
+        <v>180</v>
       </c>
       <c r="H1" t="s">
-        <v>151</v>
+        <v>184</v>
       </c>
       <c r="I1" t="s">
-        <v>162</v>
+        <v>196</v>
       </c>
       <c r="J1" t="s">
-        <v>163</v>
+        <v>197</v>
       </c>
       <c r="K1" t="s">
-        <v>164</v>
+        <v>198</v>
       </c>
       <c r="L1" t="s">
-        <v>165</v>
+        <v>199</v>
       </c>
       <c r="M1" t="s">
-        <v>166</v>
+        <v>200</v>
       </c>
       <c r="N1" t="s">
-        <v>167</v>
+        <v>201</v>
       </c>
       <c r="O1" t="s">
-        <v>168</v>
+        <v>202</v>
       </c>
       <c r="P1" t="s">
-        <v>169</v>
+        <v>203</v>
       </c>
       <c r="Q1" t="s">
-        <v>170</v>
+        <v>204</v>
       </c>
       <c r="R1" t="s">
-        <v>173</v>
-      </c>
-      <c r="S1" t="s">
-        <v>176</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2">
@@ -654,3562 +750,4276 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="C2" s="0">
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>132</v>
+        <v>160</v>
       </c>
       <c r="E2" t="s">
-        <v>135</v>
+        <v>163</v>
       </c>
       <c r="F2" t="s">
-        <v>139</v>
+        <v>168</v>
       </c>
       <c r="G2" t="s">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="H2" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
       <c r="I2" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
       <c r="J2" s="0">
         <v>6</v>
       </c>
       <c r="K2" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="L2" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="M2" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="N2" s="0">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O2" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="P2" t="s">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="Q2" t="s">
-        <v>171</v>
+        <v>205</v>
       </c>
       <c r="R2" t="s">
-        <v>174</v>
-      </c>
-      <c r="S2" s="0"/>
+        <v>208</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="C3" s="0"/>
       <c r="D3" t="s">
-        <v>133</v>
+        <v>161</v>
       </c>
       <c r="E3" t="s">
-        <v>136</v>
+        <v>164</v>
       </c>
       <c r="F3" t="s">
-        <v>140</v>
+        <v>169</v>
       </c>
       <c r="G3" t="s">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="H3" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
       <c r="I3" t="s">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="J3" s="0"/>
       <c r="K3" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="L3" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="M3" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="N3" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O3" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="P3" t="s">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="Q3" t="s">
-        <v>171</v>
+        <v>205</v>
       </c>
       <c r="R3" t="s">
-        <v>175</v>
-      </c>
-      <c r="S3" s="0"/>
+        <v>209</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="C4" s="0">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="E4" t="s">
-        <v>135</v>
+        <v>165</v>
       </c>
       <c r="F4" t="s">
-        <v>139</v>
+        <v>170</v>
       </c>
       <c r="G4" t="s">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="H4" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
       <c r="I4" t="s">
-        <v>150</v>
+        <v>181</v>
       </c>
       <c r="J4" s="0">
         <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>149</v>
+        <v>181</v>
       </c>
       <c r="L4" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="M4" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="N4" s="0">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="O4" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="P4" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="Q4" t="s">
-        <v>171</v>
+        <v>205</v>
       </c>
       <c r="R4" t="s">
-        <v>174</v>
-      </c>
-      <c r="S4" s="0"/>
+        <v>209</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C5" s="0"/>
+        <v>83</v>
+      </c>
+      <c r="C5" s="0">
+        <v>62</v>
+      </c>
       <c r="D5" t="s">
-        <v>132</v>
+        <v>160</v>
       </c>
       <c r="E5" t="s">
-        <v>135</v>
+        <v>163</v>
       </c>
       <c r="F5" t="s">
-        <v>139</v>
+        <v>168</v>
       </c>
       <c r="G5" t="s">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="H5" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
       <c r="I5" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
       <c r="J5" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="L5" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="M5" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="N5" s="0">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O5" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="P5" t="s">
-        <v>148</v>
+        <v>182</v>
       </c>
       <c r="Q5" t="s">
-        <v>171</v>
+        <v>205</v>
       </c>
       <c r="R5" t="s">
-        <v>174</v>
-      </c>
-      <c r="S5" s="0"/>
+        <v>208</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C6" s="0">
-        <v>44</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="C6" s="0"/>
       <c r="D6" t="s">
-        <v>133</v>
+        <v>160</v>
       </c>
       <c r="E6" t="s">
-        <v>136</v>
+        <v>163</v>
       </c>
       <c r="F6" t="s">
-        <v>141</v>
+        <v>168</v>
       </c>
       <c r="G6" t="s">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="H6" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
       <c r="I6" t="s">
-        <v>148</v>
-      </c>
-      <c r="J6" s="0"/>
+        <v>183</v>
+      </c>
+      <c r="J6" s="0">
+        <v>4</v>
+      </c>
       <c r="K6" t="s">
-        <v>148</v>
+        <v>182</v>
       </c>
       <c r="L6" t="s">
-        <v>148</v>
+        <v>182</v>
       </c>
       <c r="M6" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="N6" s="0">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="O6" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="P6" t="s">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="Q6" t="s">
-        <v>171</v>
+        <v>205</v>
       </c>
       <c r="R6" t="s">
-        <v>175</v>
-      </c>
-      <c r="S6" s="0"/>
+        <v>208</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C7" s="0"/>
+        <v>85</v>
+      </c>
+      <c r="C7" s="0">
+        <v>44</v>
+      </c>
       <c r="D7" t="s">
-        <v>133</v>
+        <v>161</v>
       </c>
       <c r="E7" t="s">
-        <v>136</v>
+        <v>164</v>
       </c>
       <c r="F7" t="s">
-        <v>140</v>
+        <v>171</v>
       </c>
       <c r="G7" t="s">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="H7" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
       <c r="I7" t="s">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="J7" s="0"/>
       <c r="K7" t="s">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="L7" t="s">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="M7" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="N7" s="0">
         <v>6</v>
       </c>
       <c r="O7" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="P7" t="s">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="Q7" t="s">
-        <v>171</v>
+        <v>205</v>
       </c>
       <c r="R7" t="s">
-        <v>175</v>
-      </c>
-      <c r="S7" s="0"/>
+        <v>209</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="C8" s="0"/>
       <c r="D8" t="s">
-        <v>133</v>
+        <v>161</v>
       </c>
       <c r="E8" t="s">
-        <v>137</v>
+        <v>164</v>
       </c>
       <c r="F8" t="s">
-        <v>142</v>
+        <v>169</v>
       </c>
       <c r="G8" t="s">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="H8" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
       <c r="I8" t="s">
-        <v>150</v>
-      </c>
-      <c r="J8" s="0">
-        <v>7</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="J8" s="0"/>
       <c r="K8" t="s">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="L8" t="s">
-        <v>149</v>
+        <v>181</v>
       </c>
       <c r="M8" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="N8" s="0">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="O8" t="s">
-        <v>150</v>
+        <v>182</v>
       </c>
       <c r="P8" t="s">
-        <v>150</v>
+        <v>182</v>
       </c>
       <c r="Q8" t="s">
-        <v>171</v>
+        <v>205</v>
       </c>
       <c r="R8" t="s">
-        <v>174</v>
-      </c>
-      <c r="S8" s="0"/>
+        <v>209</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="C9" s="0">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="D9" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="E9" t="s">
-        <v>137</v>
+        <v>165</v>
       </c>
       <c r="F9" t="s">
-        <v>143</v>
+        <v>170</v>
       </c>
       <c r="G9" t="s">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="H9" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
       <c r="I9" t="s">
-        <v>150</v>
+        <v>181</v>
       </c>
       <c r="J9" s="0">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K9" t="s">
-        <v>149</v>
+        <v>181</v>
       </c>
       <c r="L9" t="s">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="M9" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="N9" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O9" t="s">
-        <v>150</v>
+        <v>182</v>
       </c>
       <c r="P9" t="s">
-        <v>150</v>
+        <v>181</v>
       </c>
       <c r="Q9" t="s">
-        <v>171</v>
+        <v>206</v>
       </c>
       <c r="R9" t="s">
-        <v>174</v>
-      </c>
-      <c r="S9" s="0"/>
+        <v>209</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="C10" s="0"/>
       <c r="D10" t="s">
-        <v>133</v>
+        <v>161</v>
       </c>
       <c r="E10" t="s">
-        <v>137</v>
+        <v>166</v>
       </c>
       <c r="F10" t="s">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="G10" t="s">
-        <v>149</v>
+        <v>181</v>
       </c>
       <c r="H10" t="s">
-        <v>152</v>
+        <v>183</v>
       </c>
       <c r="I10" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
       <c r="J10" s="0">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K10" t="s">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="L10" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="M10" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="N10" s="0">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O10" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="P10" t="s">
-        <v>148</v>
+        <v>183</v>
       </c>
       <c r="Q10" t="s">
-        <v>171</v>
+        <v>206</v>
       </c>
       <c r="R10" t="s">
-        <v>174</v>
-      </c>
-      <c r="S10" s="0"/>
+        <v>208</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="C11" s="0">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="D11" t="s">
-        <v>132</v>
+        <v>160</v>
       </c>
       <c r="E11" t="s">
-        <v>135</v>
+        <v>166</v>
       </c>
       <c r="F11" t="s">
-        <v>139</v>
+        <v>173</v>
       </c>
       <c r="G11" t="s">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="H11" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
       <c r="I11" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
       <c r="J11" s="0">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K11" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="L11" t="s">
-        <v>149</v>
+        <v>181</v>
       </c>
       <c r="M11" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="N11" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O11" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="P11" t="s">
-        <v>148</v>
+        <v>183</v>
       </c>
       <c r="Q11" t="s">
-        <v>171</v>
+        <v>205</v>
       </c>
       <c r="R11" t="s">
-        <v>174</v>
-      </c>
-      <c r="S11" s="0"/>
+        <v>208</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="C12" s="0"/>
       <c r="D12" t="s">
-        <v>133</v>
+        <v>161</v>
       </c>
       <c r="E12" t="s">
-        <v>136</v>
+        <v>166</v>
       </c>
       <c r="F12" t="s">
-        <v>140</v>
+        <v>174</v>
       </c>
       <c r="G12" t="s">
-        <v>148</v>
+        <v>182</v>
       </c>
       <c r="H12" t="s">
-        <v>150</v>
+        <v>185</v>
       </c>
       <c r="I12" t="s">
-        <v>148</v>
-      </c>
-      <c r="J12" s="0"/>
+        <v>183</v>
+      </c>
+      <c r="J12" s="0">
+        <v>2</v>
+      </c>
       <c r="K12" t="s">
-        <v>149</v>
+        <v>181</v>
       </c>
       <c r="L12" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="M12" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="N12" s="0">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="O12" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="P12" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="Q12" t="s">
-        <v>171</v>
+        <v>205</v>
       </c>
       <c r="R12" t="s">
-        <v>175</v>
-      </c>
-      <c r="S12" s="0"/>
+        <v>208</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>77</v>
-      </c>
-      <c r="C13" s="0"/>
+        <v>91</v>
+      </c>
+      <c r="C13" s="0">
+        <v>30</v>
+      </c>
       <c r="D13" t="s">
-        <v>133</v>
+        <v>160</v>
       </c>
       <c r="E13" t="s">
-        <v>136</v>
+        <v>163</v>
       </c>
       <c r="F13" t="s">
-        <v>141</v>
+        <v>168</v>
       </c>
       <c r="G13" t="s">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="H13" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
       <c r="I13" t="s">
-        <v>148</v>
-      </c>
-      <c r="J13" s="0"/>
+        <v>183</v>
+      </c>
+      <c r="J13" s="0">
+        <v>8</v>
+      </c>
       <c r="K13" t="s">
-        <v>148</v>
+        <v>182</v>
       </c>
       <c r="L13" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="M13" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="N13" s="0">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O13" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="P13" t="s">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="Q13" t="s">
-        <v>171</v>
+        <v>205</v>
       </c>
       <c r="R13" t="s">
-        <v>175</v>
-      </c>
-      <c r="S13" s="0"/>
+        <v>208</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>78</v>
-      </c>
-      <c r="C14" s="0">
-        <v>30</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="C14" s="0"/>
       <c r="D14" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="E14" t="s">
-        <v>135</v>
+        <v>164</v>
       </c>
       <c r="F14" t="s">
-        <v>139</v>
+        <v>169</v>
       </c>
       <c r="G14" t="s">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="H14" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
       <c r="I14" t="s">
-        <v>150</v>
-      </c>
-      <c r="J14" s="0">
-        <v>7</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="J14" s="0"/>
       <c r="K14" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="L14" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="M14" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="N14" s="0">
         <v>3</v>
       </c>
       <c r="O14" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="P14" t="s">
-        <v>149</v>
+        <v>181</v>
       </c>
       <c r="Q14" t="s">
-        <v>171</v>
+        <v>205</v>
       </c>
       <c r="R14" t="s">
-        <v>174</v>
-      </c>
-      <c r="S14" s="0"/>
+        <v>209</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>79</v>
-      </c>
-      <c r="C15" s="0"/>
+        <v>93</v>
+      </c>
+      <c r="C15" s="0">
+        <v>60</v>
+      </c>
       <c r="D15" t="s">
-        <v>133</v>
+        <v>161</v>
       </c>
       <c r="E15" t="s">
-        <v>137</v>
+        <v>165</v>
       </c>
       <c r="F15" t="s">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="G15" t="s">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="H15" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
       <c r="I15" t="s">
-        <v>150</v>
+        <v>181</v>
       </c>
       <c r="J15" s="0">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K15" t="s">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="L15" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="M15" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="N15" s="0">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="O15" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="P15" t="s">
-        <v>148</v>
+        <v>182</v>
       </c>
       <c r="Q15" t="s">
-        <v>172</v>
+        <v>205</v>
       </c>
       <c r="R15" t="s">
-        <v>174</v>
-      </c>
-      <c r="S15" s="0"/>
+        <v>209</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>80</v>
-      </c>
-      <c r="C16" s="0">
-        <v>55</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="C16" s="0"/>
       <c r="D16" t="s">
-        <v>133</v>
+        <v>161</v>
       </c>
       <c r="E16" t="s">
-        <v>135</v>
+        <v>164</v>
       </c>
       <c r="F16" t="s">
-        <v>142</v>
+        <v>171</v>
       </c>
       <c r="G16" t="s">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="H16" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
       <c r="I16" t="s">
-        <v>150</v>
-      </c>
-      <c r="J16" s="0">
-        <v>6</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="J16" s="0"/>
       <c r="K16" t="s">
-        <v>149</v>
+        <v>181</v>
       </c>
       <c r="L16" t="s">
-        <v>148</v>
+        <v>182</v>
       </c>
       <c r="M16" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="N16" s="0">
         <v>7</v>
       </c>
       <c r="O16" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="P16" t="s">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="Q16" t="s">
-        <v>171</v>
+        <v>205</v>
       </c>
       <c r="R16" t="s">
-        <v>174</v>
-      </c>
-      <c r="S16" s="0"/>
+        <v>209</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="C17" s="0">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="D17" t="s">
-        <v>132</v>
+        <v>160</v>
       </c>
       <c r="E17" t="s">
-        <v>136</v>
+        <v>163</v>
       </c>
       <c r="F17" t="s">
-        <v>145</v>
+        <v>168</v>
       </c>
       <c r="G17" t="s">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="H17" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
       <c r="I17" t="s">
-        <v>148</v>
-      </c>
-      <c r="J17" s="0"/>
+        <v>183</v>
+      </c>
+      <c r="J17" s="0">
+        <v>7</v>
+      </c>
       <c r="K17" t="s">
-        <v>150</v>
+        <v>182</v>
       </c>
       <c r="L17" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="M17" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="N17" s="0">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="O17" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="P17" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="Q17" t="s">
-        <v>171</v>
+        <v>205</v>
       </c>
       <c r="R17" t="s">
-        <v>175</v>
-      </c>
-      <c r="S17" s="0"/>
+        <v>208</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="C18" s="0">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="D18" t="s">
-        <v>133</v>
+        <v>161</v>
       </c>
       <c r="E18" t="s">
-        <v>135</v>
+        <v>165</v>
       </c>
       <c r="F18" t="s">
-        <v>142</v>
+        <v>170</v>
       </c>
       <c r="G18" t="s">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="H18" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
       <c r="I18" t="s">
-        <v>150</v>
+        <v>181</v>
       </c>
       <c r="J18" s="0">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="K18" t="s">
-        <v>149</v>
+        <v>181</v>
       </c>
       <c r="L18" t="s">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="M18" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="N18" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O18" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="P18" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="Q18" t="s">
-        <v>171</v>
+        <v>205</v>
       </c>
       <c r="R18" t="s">
-        <v>174</v>
-      </c>
-      <c r="S18" s="0"/>
+        <v>209</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>83</v>
-      </c>
-      <c r="C19" s="0">
-        <v>39</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="C19" s="0"/>
       <c r="D19" t="s">
-        <v>133</v>
+        <v>161</v>
       </c>
       <c r="E19" t="s">
-        <v>136</v>
+        <v>166</v>
       </c>
       <c r="F19" t="s">
-        <v>140</v>
+        <v>174</v>
       </c>
       <c r="G19" t="s">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="H19" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
       <c r="I19" t="s">
-        <v>148</v>
-      </c>
-      <c r="J19" s="0"/>
+        <v>183</v>
+      </c>
+      <c r="J19" s="0">
+        <v>7</v>
+      </c>
       <c r="K19" t="s">
-        <v>149</v>
+        <v>181</v>
       </c>
       <c r="L19" t="s">
-        <v>148</v>
+        <v>182</v>
       </c>
       <c r="M19" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="N19" s="0">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="O19" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="P19" t="s">
-        <v>148</v>
+        <v>183</v>
       </c>
       <c r="Q19" t="s">
-        <v>171</v>
+        <v>206</v>
       </c>
       <c r="R19" t="s">
-        <v>175</v>
-      </c>
-      <c r="S19" s="0"/>
+        <v>208</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="C20" s="0">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="D20" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="E20" t="s">
-        <v>136</v>
+        <v>165</v>
       </c>
       <c r="F20" t="s">
-        <v>145</v>
+        <v>175</v>
       </c>
       <c r="G20" t="s">
-        <v>149</v>
+        <v>181</v>
       </c>
       <c r="H20" t="s">
-        <v>153</v>
+        <v>183</v>
       </c>
       <c r="I20" t="s">
-        <v>149</v>
-      </c>
-      <c r="J20" s="0"/>
+        <v>181</v>
+      </c>
+      <c r="J20" s="0">
+        <v>5</v>
+      </c>
       <c r="K20" t="s">
-        <v>150</v>
+        <v>181</v>
       </c>
       <c r="L20" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="M20" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="N20" s="0">
         <v>6</v>
       </c>
       <c r="O20" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="P20" t="s">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="Q20" t="s">
-        <v>171</v>
+        <v>205</v>
       </c>
       <c r="R20" t="s">
-        <v>175</v>
-      </c>
-      <c r="S20" s="0"/>
+        <v>209</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="C21" s="0">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D21" t="s">
-        <v>133</v>
+        <v>161</v>
       </c>
       <c r="E21" t="s">
-        <v>135</v>
+        <v>163</v>
       </c>
       <c r="F21" t="s">
-        <v>142</v>
+        <v>172</v>
       </c>
       <c r="G21" t="s">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="H21" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
       <c r="I21" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
       <c r="J21" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K21" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="L21" t="s">
-        <v>149</v>
+        <v>181</v>
       </c>
       <c r="M21" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="N21" s="0">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="O21" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="P21" t="s">
-        <v>148</v>
+        <v>182</v>
       </c>
       <c r="Q21" t="s">
-        <v>171</v>
+        <v>205</v>
       </c>
       <c r="R21" t="s">
-        <v>174</v>
-      </c>
-      <c r="S21" s="0"/>
+        <v>208</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="C22" s="0">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="D22" t="s">
-        <v>133</v>
+        <v>161</v>
       </c>
       <c r="E22" t="s">
-        <v>136</v>
+        <v>165</v>
       </c>
       <c r="F22" t="s">
-        <v>141</v>
+        <v>175</v>
       </c>
       <c r="G22" t="s">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="H22" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
       <c r="I22" t="s">
-        <v>148</v>
-      </c>
-      <c r="J22" s="0"/>
+        <v>181</v>
+      </c>
+      <c r="J22" s="0">
+        <v>5</v>
+      </c>
       <c r="K22" t="s">
-        <v>149</v>
+        <v>181</v>
       </c>
       <c r="L22" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="M22" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="N22" s="0">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O22" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="P22" t="s">
-        <v>150</v>
+        <v>182</v>
       </c>
       <c r="Q22" t="s">
-        <v>172</v>
+        <v>205</v>
       </c>
       <c r="R22" t="s">
-        <v>175</v>
-      </c>
-      <c r="S22" s="0"/>
+        <v>209</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="C23" s="0">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="D23" t="s">
-        <v>132</v>
+        <v>160</v>
       </c>
       <c r="E23" t="s">
-        <v>137</v>
+        <v>164</v>
       </c>
       <c r="F23" t="s">
-        <v>143</v>
+        <v>176</v>
       </c>
       <c r="G23" t="s">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="H23" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
       <c r="I23" t="s">
-        <v>150</v>
-      </c>
-      <c r="J23" s="0">
-        <v>8</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="J23" s="0"/>
       <c r="K23" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="L23" t="s">
-        <v>148</v>
+        <v>182</v>
       </c>
       <c r="M23" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="N23" s="0">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="O23" t="s">
-        <v>150</v>
+        <v>182</v>
       </c>
       <c r="P23" t="s">
-        <v>150</v>
+        <v>181</v>
       </c>
       <c r="Q23" t="s">
-        <v>171</v>
+        <v>205</v>
       </c>
       <c r="R23" t="s">
-        <v>174</v>
-      </c>
-      <c r="S23" s="0"/>
+        <v>209</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>88</v>
-      </c>
-      <c r="C24" s="0">
-        <v>43</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="C24" s="0"/>
       <c r="D24" t="s">
-        <v>133</v>
+        <v>161</v>
       </c>
       <c r="E24" t="s">
-        <v>135</v>
+        <v>165</v>
       </c>
       <c r="F24" t="s">
-        <v>142</v>
+        <v>175</v>
       </c>
       <c r="G24" t="s">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="H24" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
       <c r="I24" t="s">
-        <v>150</v>
+        <v>181</v>
       </c>
       <c r="J24" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K24" t="s">
-        <v>149</v>
+        <v>181</v>
       </c>
       <c r="L24" t="s">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="M24" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="N24" s="0">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O24" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="P24" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="Q24" t="s">
-        <v>171</v>
+        <v>205</v>
       </c>
       <c r="R24" t="s">
-        <v>174</v>
-      </c>
-      <c r="S24" s="0"/>
+        <v>209</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>89</v>
-      </c>
-      <c r="C25" s="0"/>
+        <v>103</v>
+      </c>
+      <c r="C25" s="0">
+        <v>69</v>
+      </c>
       <c r="D25" t="s">
-        <v>133</v>
+        <v>161</v>
       </c>
       <c r="E25" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="F25" t="s">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="G25" t="s">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="H25" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
       <c r="I25" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
       <c r="J25" s="0">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K25" t="s">
-        <v>148</v>
+        <v>182</v>
       </c>
       <c r="L25" t="s">
-        <v>149</v>
+        <v>181</v>
       </c>
       <c r="M25" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="N25" s="0">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O25" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="P25" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="Q25" t="s">
-        <v>171</v>
+        <v>205</v>
       </c>
       <c r="R25" t="s">
-        <v>174</v>
-      </c>
-      <c r="S25" s="0"/>
+        <v>208</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="C26" s="0">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D26" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="E26" t="s">
-        <v>136</v>
+        <v>164</v>
       </c>
       <c r="F26" t="s">
-        <v>146</v>
+        <v>169</v>
       </c>
       <c r="G26" t="s">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="H26" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
       <c r="I26" t="s">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="J26" s="0"/>
       <c r="K26" t="s">
-        <v>150</v>
+        <v>182</v>
       </c>
       <c r="L26" t="s">
-        <v>149</v>
+        <v>181</v>
       </c>
       <c r="M26" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="N26" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O26" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="P26" t="s">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="Q26" t="s">
-        <v>171</v>
+        <v>205</v>
       </c>
       <c r="R26" t="s">
-        <v>175</v>
-      </c>
-      <c r="S26" s="0"/>
+        <v>209</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="C27" s="0">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="D27" t="s">
-        <v>132</v>
+        <v>160</v>
       </c>
       <c r="E27" t="s">
-        <v>136</v>
+        <v>164</v>
       </c>
       <c r="F27" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="G27" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="H27" t="s">
-        <v>154</v>
+        <v>186</v>
       </c>
       <c r="I27" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="J27" s="0"/>
       <c r="K27" t="s">
-        <v>148</v>
+        <v>183</v>
       </c>
       <c r="L27" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="M27" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="N27" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O27" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="P27" t="s">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="Q27" t="s">
-        <v>171</v>
+        <v>205</v>
       </c>
       <c r="R27" t="s">
-        <v>175</v>
-      </c>
-      <c r="S27" s="0"/>
+        <v>209</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="C28" s="0">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D28" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="E28" t="s">
-        <v>136</v>
+        <v>163</v>
       </c>
       <c r="F28" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="G28" t="s">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="H28" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
       <c r="I28" t="s">
-        <v>148</v>
-      </c>
-      <c r="J28" s="0"/>
+        <v>183</v>
+      </c>
+      <c r="J28" s="0">
+        <v>5</v>
+      </c>
       <c r="K28" t="s">
-        <v>150</v>
+        <v>182</v>
       </c>
       <c r="L28" t="s">
-        <v>150</v>
+        <v>182</v>
       </c>
       <c r="M28" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="N28" s="0">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O28" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="P28" t="s">
-        <v>149</v>
+        <v>181</v>
       </c>
       <c r="Q28" t="s">
-        <v>171</v>
+        <v>205</v>
       </c>
       <c r="R28" t="s">
-        <v>175</v>
-      </c>
-      <c r="S28" s="0"/>
+        <v>208</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="C29" s="0">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="D29" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="E29" t="s">
-        <v>137</v>
+        <v>165</v>
       </c>
       <c r="F29" t="s">
-        <v>143</v>
+        <v>175</v>
       </c>
       <c r="G29" t="s">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="H29" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
       <c r="I29" t="s">
-        <v>150</v>
+        <v>182</v>
       </c>
       <c r="J29" s="0">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K29" t="s">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="L29" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="M29" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="N29" s="0">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O29" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="P29" t="s">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="Q29" t="s">
-        <v>171</v>
+        <v>205</v>
       </c>
       <c r="R29" t="s">
-        <v>174</v>
-      </c>
-      <c r="S29" s="0"/>
+        <v>209</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>94</v>
-      </c>
-      <c r="C30" s="0"/>
+        <v>108</v>
+      </c>
+      <c r="C30" s="0">
+        <v>20</v>
+      </c>
       <c r="D30" t="s">
-        <v>133</v>
+        <v>161</v>
       </c>
       <c r="E30" t="s">
-        <v>136</v>
+        <v>164</v>
       </c>
       <c r="F30" t="s">
-        <v>140</v>
+        <v>171</v>
       </c>
       <c r="G30" t="s">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="H30" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
       <c r="I30" t="s">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="J30" s="0"/>
       <c r="K30" t="s">
-        <v>148</v>
+        <v>182</v>
       </c>
       <c r="L30" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="M30" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="N30" s="0">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="O30" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="P30" t="s">
-        <v>148</v>
+        <v>182</v>
       </c>
       <c r="Q30" t="s">
-        <v>172</v>
+        <v>205</v>
       </c>
       <c r="R30" t="s">
-        <v>175</v>
-      </c>
-      <c r="S30" s="0"/>
+        <v>209</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="C31" s="0">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="D31" t="s">
-        <v>133</v>
+        <v>160</v>
       </c>
       <c r="E31" t="s">
-        <v>136</v>
+        <v>166</v>
       </c>
       <c r="F31" t="s">
-        <v>141</v>
+        <v>173</v>
       </c>
       <c r="G31" t="s">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="H31" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
       <c r="I31" t="s">
-        <v>148</v>
-      </c>
-      <c r="J31" s="0"/>
+        <v>183</v>
+      </c>
+      <c r="J31" s="0">
+        <v>8</v>
+      </c>
       <c r="K31" t="s">
-        <v>148</v>
+        <v>182</v>
       </c>
       <c r="L31" t="s">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="M31" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="N31" s="0">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O31" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="P31" t="s">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="Q31" t="s">
-        <v>171</v>
+        <v>205</v>
       </c>
       <c r="R31" t="s">
-        <v>175</v>
-      </c>
-      <c r="S31" s="0"/>
+        <v>208</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>96</v>
-      </c>
-      <c r="C32" s="0"/>
+        <v>110</v>
+      </c>
+      <c r="C32" s="0">
+        <v>43</v>
+      </c>
       <c r="D32" t="s">
-        <v>133</v>
+        <v>161</v>
       </c>
       <c r="E32" t="s">
-        <v>135</v>
+        <v>163</v>
       </c>
       <c r="F32" t="s">
-        <v>142</v>
+        <v>172</v>
       </c>
       <c r="G32" t="s">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="H32" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
       <c r="I32" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
       <c r="J32" s="0">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K32" t="s">
-        <v>148</v>
+        <v>182</v>
       </c>
       <c r="L32" t="s">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="M32" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="N32" s="0">
         <v>7</v>
       </c>
       <c r="O32" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="P32" t="s">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="Q32" t="s">
-        <v>171</v>
+        <v>205</v>
       </c>
       <c r="R32" t="s">
-        <v>174</v>
-      </c>
-      <c r="S32" s="0"/>
+        <v>208</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>97</v>
-      </c>
-      <c r="C33" s="0">
-        <v>23</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="C33" s="0"/>
       <c r="D33" t="s">
-        <v>133</v>
+        <v>161</v>
       </c>
       <c r="E33" t="s">
-        <v>137</v>
+        <v>166</v>
       </c>
       <c r="F33" t="s">
-        <v>144</v>
+        <v>174</v>
       </c>
       <c r="G33" t="s">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="H33" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
       <c r="I33" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
       <c r="J33" s="0">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K33" t="s">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="L33" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="M33" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="N33" s="0">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O33" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="P33" t="s">
-        <v>149</v>
+        <v>181</v>
       </c>
       <c r="Q33" t="s">
-        <v>171</v>
+        <v>205</v>
       </c>
       <c r="R33" t="s">
-        <v>174</v>
-      </c>
-      <c r="S33" s="0"/>
+        <v>208</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>98</v>
-      </c>
-      <c r="C34" s="0"/>
+        <v>112</v>
+      </c>
+      <c r="C34" s="0">
+        <v>46</v>
+      </c>
       <c r="D34" t="s">
-        <v>133</v>
+        <v>160</v>
       </c>
       <c r="E34" t="s">
-        <v>135</v>
+        <v>164</v>
       </c>
       <c r="F34" t="s">
-        <v>142</v>
+        <v>177</v>
       </c>
       <c r="G34" t="s">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="H34" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
       <c r="I34" t="s">
-        <v>150</v>
-      </c>
-      <c r="J34" s="0">
-        <v>3</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="J34" s="0"/>
       <c r="K34" t="s">
-        <v>148</v>
+        <v>183</v>
       </c>
       <c r="L34" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="M34" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="N34" s="0">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O34" t="s">
-        <v>150</v>
+        <v>181</v>
       </c>
       <c r="P34" t="s">
-        <v>150</v>
+        <v>181</v>
       </c>
       <c r="Q34" t="s">
-        <v>171</v>
+        <v>205</v>
       </c>
       <c r="R34" t="s">
-        <v>174</v>
-      </c>
-      <c r="S34" s="0"/>
+        <v>209</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="C35" s="0">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D35" t="s">
-        <v>132</v>
+        <v>160</v>
       </c>
       <c r="E35" t="s">
-        <v>136</v>
+        <v>164</v>
       </c>
       <c r="F35" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="G35" t="s">
-        <v>150</v>
+        <v>182</v>
       </c>
       <c r="H35" t="s">
-        <v>150</v>
+        <v>187</v>
       </c>
       <c r="I35" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="J35" s="0"/>
       <c r="K35" t="s">
-        <v>150</v>
+        <v>181</v>
       </c>
       <c r="L35" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="M35" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="N35" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O35" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="P35" t="s">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="Q35" t="s">
-        <v>171</v>
+        <v>205</v>
       </c>
       <c r="R35" t="s">
-        <v>175</v>
-      </c>
-      <c r="S35" s="0"/>
+        <v>209</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>100</v>
-      </c>
-      <c r="C36" s="0"/>
+        <v>114</v>
+      </c>
+      <c r="C36" s="0">
+        <v>52</v>
+      </c>
       <c r="D36" t="s">
-        <v>133</v>
+        <v>160</v>
       </c>
       <c r="E36" t="s">
-        <v>136</v>
+        <v>164</v>
       </c>
       <c r="F36" t="s">
-        <v>141</v>
+        <v>177</v>
       </c>
       <c r="G36" t="s">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="H36" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
       <c r="I36" t="s">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="J36" s="0"/>
       <c r="K36" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="L36" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="M36" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="N36" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O36" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="P36" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
       <c r="Q36" t="s">
-        <v>172</v>
+        <v>205</v>
       </c>
       <c r="R36" t="s">
-        <v>175</v>
-      </c>
-      <c r="S36" s="0"/>
+        <v>209</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="C37" s="0">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="D37" t="s">
-        <v>132</v>
+        <v>160</v>
       </c>
       <c r="E37" t="s">
-        <v>136</v>
+        <v>166</v>
       </c>
       <c r="F37" t="s">
-        <v>146</v>
+        <v>173</v>
       </c>
       <c r="G37" t="s">
-        <v>149</v>
+        <v>181</v>
       </c>
       <c r="H37" t="s">
-        <v>155</v>
+        <v>183</v>
       </c>
       <c r="I37" t="s">
-        <v>148</v>
-      </c>
-      <c r="J37" s="0"/>
+        <v>183</v>
+      </c>
+      <c r="J37" s="0">
+        <v>7</v>
+      </c>
       <c r="K37" t="s">
-        <v>149</v>
+        <v>181</v>
       </c>
       <c r="L37" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="M37" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="N37" s="0">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O37" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="P37" t="s">
-        <v>149</v>
+        <v>181</v>
       </c>
       <c r="Q37" t="s">
-        <v>171</v>
+        <v>205</v>
       </c>
       <c r="R37" t="s">
-        <v>175</v>
-      </c>
-      <c r="S37" s="0"/>
+        <v>208</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="C38" s="0"/>
       <c r="D38" t="s">
-        <v>133</v>
+        <v>161</v>
       </c>
       <c r="E38" t="s">
-        <v>136</v>
+        <v>164</v>
       </c>
       <c r="F38" t="s">
-        <v>140</v>
+        <v>169</v>
       </c>
       <c r="G38" t="s">
-        <v>149</v>
+        <v>181</v>
       </c>
       <c r="H38" t="s">
-        <v>156</v>
+        <v>183</v>
       </c>
       <c r="I38" t="s">
-        <v>149</v>
-      </c>
-      <c r="J38" s="0">
-        <v>5</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="J38" s="0"/>
       <c r="K38" t="s">
-        <v>149</v>
+        <v>181</v>
       </c>
       <c r="L38" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="M38" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="N38" s="0">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="O38" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="P38" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="Q38" t="s">
-        <v>171</v>
+        <v>205</v>
       </c>
       <c r="R38" t="s">
-        <v>175</v>
-      </c>
-      <c r="S38" s="0"/>
+        <v>209</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>103</v>
-      </c>
-      <c r="C39" s="0"/>
+        <v>117</v>
+      </c>
+      <c r="C39" s="0">
+        <v>50</v>
+      </c>
       <c r="D39" t="s">
-        <v>133</v>
+        <v>161</v>
       </c>
       <c r="E39" t="s">
-        <v>135</v>
+        <v>164</v>
       </c>
       <c r="F39" t="s">
-        <v>142</v>
+        <v>169</v>
       </c>
       <c r="G39" t="s">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="H39" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
       <c r="I39" t="s">
-        <v>150</v>
-      </c>
-      <c r="J39" s="0">
-        <v>6</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="J39" s="0"/>
       <c r="K39" t="s">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="L39" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="M39" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="N39" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O39" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="P39" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="Q39" t="s">
-        <v>172</v>
+        <v>205</v>
       </c>
       <c r="R39" t="s">
-        <v>174</v>
-      </c>
-      <c r="S39" s="0"/>
+        <v>209</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>104</v>
-      </c>
-      <c r="C40" s="0">
-        <v>49</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="C40" s="0"/>
       <c r="D40" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="E40" t="s">
-        <v>136</v>
+        <v>163</v>
       </c>
       <c r="F40" t="s">
-        <v>145</v>
+        <v>172</v>
       </c>
       <c r="G40" t="s">
-        <v>149</v>
+        <v>181</v>
       </c>
       <c r="H40" t="s">
-        <v>157</v>
+        <v>183</v>
       </c>
       <c r="I40" t="s">
-        <v>149</v>
-      </c>
-      <c r="J40" s="0"/>
+        <v>183</v>
+      </c>
+      <c r="J40" s="0">
+        <v>5</v>
+      </c>
       <c r="K40" t="s">
-        <v>150</v>
+        <v>181</v>
       </c>
       <c r="L40" t="s">
-        <v>149</v>
+        <v>181</v>
       </c>
       <c r="M40" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="N40" s="0">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="O40" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="P40" t="s">
-        <v>149</v>
+        <v>181</v>
       </c>
       <c r="Q40" t="s">
-        <v>171</v>
+        <v>205</v>
       </c>
       <c r="R40" t="s">
-        <v>175</v>
-      </c>
-      <c r="S40" s="0"/>
+        <v>208</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>105</v>
-      </c>
-      <c r="C41" s="0"/>
+        <v>119</v>
+      </c>
+      <c r="C41" s="0">
+        <v>23</v>
+      </c>
       <c r="D41" t="s">
-        <v>133</v>
+        <v>161</v>
       </c>
       <c r="E41" t="s">
-        <v>137</v>
+        <v>166</v>
       </c>
       <c r="F41" t="s">
-        <v>144</v>
+        <v>174</v>
       </c>
       <c r="G41" t="s">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="H41" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
       <c r="I41" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
       <c r="J41" s="0">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K41" t="s">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="L41" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="M41" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="N41" s="0">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O41" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="P41" t="s">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="Q41" t="s">
-        <v>171</v>
+        <v>205</v>
       </c>
       <c r="R41" t="s">
-        <v>174</v>
-      </c>
-      <c r="S41" s="0"/>
+        <v>208</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>106</v>
-      </c>
-      <c r="C42" s="0">
-        <v>27</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="C42" s="0"/>
       <c r="D42" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="E42" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="F42" t="s">
-        <v>143</v>
+        <v>172</v>
       </c>
       <c r="G42" t="s">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="H42" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
       <c r="I42" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
       <c r="J42" s="0">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K42" t="s">
-        <v>149</v>
+        <v>181</v>
       </c>
       <c r="L42" t="s">
-        <v>148</v>
+        <v>182</v>
       </c>
       <c r="M42" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="N42" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O42" t="s">
-        <v>150</v>
+        <v>182</v>
       </c>
       <c r="P42" t="s">
-        <v>150</v>
+        <v>181</v>
       </c>
       <c r="Q42" t="s">
-        <v>171</v>
+        <v>205</v>
       </c>
       <c r="R42" t="s">
-        <v>174</v>
-      </c>
-      <c r="S42" s="0"/>
+        <v>208</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="C43" s="0">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="D43" t="s">
-        <v>132</v>
+        <v>160</v>
       </c>
       <c r="E43" t="s">
-        <v>137</v>
+        <v>164</v>
       </c>
       <c r="F43" t="s">
-        <v>143</v>
+        <v>176</v>
       </c>
       <c r="G43" t="s">
-        <v>148</v>
+        <v>183</v>
       </c>
       <c r="H43" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
       <c r="I43" t="s">
-        <v>150</v>
-      </c>
-      <c r="J43" s="0">
-        <v>5</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="J43" s="0"/>
       <c r="K43" t="s">
-        <v>148</v>
+        <v>183</v>
       </c>
       <c r="L43" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="M43" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="N43" s="0">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="O43" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="P43" t="s">
-        <v>148</v>
+        <v>183</v>
       </c>
       <c r="Q43" t="s">
-        <v>171</v>
+        <v>205</v>
       </c>
       <c r="R43" t="s">
-        <v>174</v>
-      </c>
-      <c r="S43" s="0"/>
+        <v>209</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>108</v>
-      </c>
-      <c r="C44" s="0">
-        <v>55</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="C44" s="0"/>
       <c r="D44" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="E44" t="s">
-        <v>136</v>
+        <v>164</v>
       </c>
       <c r="F44" t="s">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="G44" t="s">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="H44" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
       <c r="I44" t="s">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="J44" s="0"/>
       <c r="K44" t="s">
-        <v>150</v>
+        <v>182</v>
       </c>
       <c r="L44" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="M44" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="N44" s="0">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O44" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="P44" t="s">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="Q44" t="s">
-        <v>171</v>
+        <v>205</v>
       </c>
       <c r="R44" t="s">
-        <v>175</v>
-      </c>
-      <c r="S44" s="0"/>
+        <v>209</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="C45" s="0">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D45" t="s">
-        <v>133</v>
+        <v>160</v>
       </c>
       <c r="E45" t="s">
-        <v>136</v>
+        <v>164</v>
       </c>
       <c r="F45" t="s">
-        <v>141</v>
+        <v>177</v>
       </c>
       <c r="G45" t="s">
-        <v>148</v>
+        <v>182</v>
       </c>
       <c r="H45" t="s">
-        <v>150</v>
+        <v>188</v>
       </c>
       <c r="I45" t="s">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="J45" s="0"/>
       <c r="K45" t="s">
-        <v>148</v>
+        <v>182</v>
       </c>
       <c r="L45" t="s">
-        <v>148</v>
+        <v>182</v>
       </c>
       <c r="M45" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="N45" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O45" t="s">
-        <v>150</v>
+        <v>182</v>
       </c>
       <c r="P45" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
       <c r="Q45" t="s">
-        <v>171</v>
+        <v>205</v>
       </c>
       <c r="R45" t="s">
-        <v>175</v>
-      </c>
-      <c r="S45" s="0"/>
+        <v>209</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>110</v>
-      </c>
-      <c r="C46" s="0"/>
+        <v>124</v>
+      </c>
+      <c r="C46" s="0">
+        <v>24</v>
+      </c>
       <c r="D46" t="s">
-        <v>133</v>
+        <v>161</v>
       </c>
       <c r="E46" t="s">
-        <v>137</v>
+        <v>165</v>
       </c>
       <c r="F46" t="s">
-        <v>144</v>
+        <v>170</v>
       </c>
       <c r="G46" t="s">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="H46" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
       <c r="I46" t="s">
-        <v>150</v>
+        <v>181</v>
       </c>
       <c r="J46" s="0">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K46" t="s">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="L46" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="M46" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="N46" s="0">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O46" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="P46" t="s">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="Q46" t="s">
-        <v>171</v>
+        <v>205</v>
       </c>
       <c r="R46" t="s">
-        <v>174</v>
-      </c>
-      <c r="S46" s="0"/>
+        <v>209</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>111</v>
-      </c>
-      <c r="C47" s="0">
-        <v>38</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="C47" s="0"/>
       <c r="D47" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="E47" t="s">
-        <v>136</v>
+        <v>164</v>
       </c>
       <c r="F47" t="s">
-        <v>145</v>
+        <v>169</v>
       </c>
       <c r="G47" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="H47" t="s">
-        <v>158</v>
+        <v>189</v>
       </c>
       <c r="I47" t="s">
-        <v>149</v>
-      </c>
-      <c r="J47" s="0"/>
+        <v>182</v>
+      </c>
+      <c r="J47" s="0">
+        <v>5</v>
+      </c>
       <c r="K47" t="s">
-        <v>150</v>
+        <v>182</v>
       </c>
       <c r="L47" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="M47" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="N47" s="0">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O47" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="P47" t="s">
-        <v>150</v>
+        <v>181</v>
       </c>
       <c r="Q47" t="s">
-        <v>171</v>
+        <v>205</v>
       </c>
       <c r="R47" t="s">
-        <v>175</v>
-      </c>
-      <c r="S47" s="0"/>
+        <v>209</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>112</v>
-      </c>
-      <c r="C48" s="0">
-        <v>20</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="C48" s="0"/>
       <c r="D48" t="s">
-        <v>133</v>
+        <v>161</v>
       </c>
       <c r="E48" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="F48" t="s">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="G48" t="s">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="H48" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
       <c r="I48" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
       <c r="J48" s="0">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K48" t="s">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="L48" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="M48" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="N48" s="0">
         <v>8</v>
       </c>
       <c r="O48" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
       <c r="P48" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
       <c r="Q48" t="s">
-        <v>172</v>
+        <v>205</v>
       </c>
       <c r="R48" t="s">
-        <v>174</v>
-      </c>
-      <c r="S48" s="0"/>
+        <v>208</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="C49" s="0">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D49" t="s">
-        <v>133</v>
+        <v>160</v>
       </c>
       <c r="E49" t="s">
-        <v>136</v>
+        <v>164</v>
       </c>
       <c r="F49" t="s">
-        <v>141</v>
+        <v>176</v>
       </c>
       <c r="G49" t="s">
-        <v>148</v>
+        <v>182</v>
       </c>
       <c r="H49" t="s">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="I49" t="s">
-        <v>149</v>
-      </c>
-      <c r="J49" s="0">
+        <v>182</v>
+      </c>
+      <c r="J49" s="0"/>
+      <c r="K49" t="s">
+        <v>183</v>
+      </c>
+      <c r="L49" t="s">
+        <v>182</v>
+      </c>
+      <c r="M49" t="s">
+        <v>182</v>
+      </c>
+      <c r="N49" s="0">
         <v>5</v>
       </c>
-      <c r="K49" t="s">
-        <v>149</v>
-      </c>
-      <c r="L49" t="s">
-        <v>148</v>
-      </c>
-      <c r="M49" t="s">
-        <v>149</v>
-      </c>
-      <c r="N49" s="0">
-        <v>1</v>
-      </c>
       <c r="O49" t="s">
-        <v>150</v>
+        <v>182</v>
       </c>
       <c r="P49" t="s">
-        <v>150</v>
+        <v>181</v>
       </c>
       <c r="Q49" t="s">
-        <v>171</v>
+        <v>205</v>
       </c>
       <c r="R49" t="s">
-        <v>175</v>
-      </c>
-      <c r="S49" s="0"/>
+        <v>209</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>114</v>
-      </c>
-      <c r="C50" s="0">
-        <v>52</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="C50" s="0"/>
       <c r="D50" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="E50" t="s">
-        <v>136</v>
+        <v>166</v>
       </c>
       <c r="F50" t="s">
-        <v>145</v>
+        <v>174</v>
       </c>
       <c r="G50" t="s">
-        <v>149</v>
+        <v>181</v>
       </c>
       <c r="H50" t="s">
-        <v>159</v>
+        <v>183</v>
       </c>
       <c r="I50" t="s">
-        <v>148</v>
-      </c>
-      <c r="J50" s="0"/>
+        <v>183</v>
+      </c>
+      <c r="J50" s="0">
+        <v>4</v>
+      </c>
       <c r="K50" t="s">
-        <v>150</v>
+        <v>181</v>
       </c>
       <c r="L50" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="M50" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="N50" s="0">
         <v>6</v>
       </c>
       <c r="O50" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="P50" t="s">
-        <v>148</v>
+        <v>182</v>
       </c>
       <c r="Q50" t="s">
-        <v>171</v>
+        <v>205</v>
       </c>
       <c r="R50" t="s">
-        <v>175</v>
-      </c>
-      <c r="S50" s="0"/>
+        <v>208</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="C51" s="0">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="D51" t="s">
-        <v>132</v>
+        <v>160</v>
       </c>
       <c r="E51" t="s">
-        <v>136</v>
+        <v>165</v>
       </c>
       <c r="F51" t="s">
-        <v>146</v>
+        <v>178</v>
       </c>
       <c r="G51" t="s">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="H51" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
       <c r="I51" t="s">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="J51" s="0"/>
       <c r="K51" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
       <c r="L51" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="M51" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="N51" s="0">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O51" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="P51" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="Q51" t="s">
-        <v>171</v>
+        <v>205</v>
       </c>
       <c r="R51" t="s">
-        <v>175</v>
-      </c>
-      <c r="S51" s="0"/>
+        <v>209</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="C52" s="0">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="D52" t="s">
-        <v>132</v>
+        <v>160</v>
       </c>
       <c r="E52" t="s">
-        <v>135</v>
+        <v>166</v>
       </c>
       <c r="F52" t="s">
-        <v>139</v>
+        <v>173</v>
       </c>
       <c r="G52" t="s">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="H52" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
       <c r="I52" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
       <c r="J52" s="0">
         <v>6</v>
       </c>
       <c r="K52" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="L52" t="s">
-        <v>149</v>
+        <v>181</v>
       </c>
       <c r="M52" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="N52" s="0">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O52" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="P52" t="s">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="Q52" t="s">
-        <v>171</v>
+        <v>205</v>
       </c>
       <c r="R52" t="s">
-        <v>174</v>
-      </c>
-      <c r="S52" s="0"/>
+        <v>208</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="C53" s="0">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="D53" t="s">
-        <v>132</v>
+        <v>160</v>
       </c>
       <c r="E53" t="s">
-        <v>137</v>
+        <v>166</v>
       </c>
       <c r="F53" t="s">
-        <v>143</v>
+        <v>173</v>
       </c>
       <c r="G53" t="s">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="H53" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
       <c r="I53" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
       <c r="J53" s="0">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K53" t="s">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="L53" t="s">
-        <v>148</v>
+        <v>182</v>
       </c>
       <c r="M53" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="N53" s="0">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="O53" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="P53" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="Q53" t="s">
-        <v>171</v>
+        <v>205</v>
       </c>
       <c r="R53" t="s">
-        <v>174</v>
-      </c>
-      <c r="S53" s="0"/>
+        <v>208</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="C54" s="0">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="D54" t="s">
-        <v>132</v>
+        <v>160</v>
       </c>
       <c r="E54" t="s">
-        <v>137</v>
+        <v>164</v>
       </c>
       <c r="F54" t="s">
-        <v>143</v>
+        <v>176</v>
       </c>
       <c r="G54" t="s">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="H54" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
       <c r="I54" t="s">
-        <v>150</v>
-      </c>
-      <c r="J54" s="0">
-        <v>5</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="J54" s="0"/>
       <c r="K54" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="L54" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="M54" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="N54" s="0">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="O54" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="P54" t="s">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="Q54" t="s">
-        <v>171</v>
+        <v>205</v>
       </c>
       <c r="R54" t="s">
-        <v>174</v>
-      </c>
-      <c r="S54" s="0"/>
+        <v>209</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="C55" s="0">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="D55" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="E55" t="s">
-        <v>135</v>
+        <v>165</v>
       </c>
       <c r="F55" t="s">
-        <v>139</v>
+        <v>175</v>
       </c>
       <c r="G55" t="s">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="H55" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
       <c r="I55" t="s">
-        <v>150</v>
+        <v>182</v>
       </c>
       <c r="J55" s="0">
         <v>5</v>
       </c>
       <c r="K55" t="s">
-        <v>149</v>
+        <v>181</v>
       </c>
       <c r="L55" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="M55" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="N55" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O55" t="s">
-        <v>150</v>
+        <v>182</v>
       </c>
       <c r="P55" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
       <c r="Q55" t="s">
-        <v>171</v>
+        <v>205</v>
       </c>
       <c r="R55" t="s">
-        <v>174</v>
-      </c>
-      <c r="S55" s="0"/>
+        <v>209</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>120</v>
-      </c>
-      <c r="C56" s="0"/>
+        <v>134</v>
+      </c>
+      <c r="C56" s="0">
+        <v>25</v>
+      </c>
       <c r="D56" t="s">
-        <v>133</v>
+        <v>161</v>
       </c>
       <c r="E56" t="s">
-        <v>136</v>
+        <v>164</v>
       </c>
       <c r="F56" t="s">
-        <v>141</v>
+        <v>171</v>
       </c>
       <c r="G56" t="s">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="H56" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
       <c r="I56" t="s">
-        <v>149</v>
-      </c>
-      <c r="J56" s="0">
-        <v>5</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="J56" s="0"/>
       <c r="K56" t="s">
-        <v>149</v>
+        <v>181</v>
       </c>
       <c r="L56" t="s">
-        <v>149</v>
+        <v>181</v>
       </c>
       <c r="M56" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="N56" s="0">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="O56" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="P56" t="s">
-        <v>148</v>
+        <v>183</v>
       </c>
       <c r="Q56" t="s">
-        <v>171</v>
+        <v>205</v>
       </c>
       <c r="R56" t="s">
-        <v>175</v>
-      </c>
-      <c r="S56" s="0"/>
+        <v>209</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>121</v>
-      </c>
-      <c r="C57" s="0">
-        <v>24</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="C57" s="0"/>
       <c r="D57" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="E57" t="s">
-        <v>137</v>
+        <v>166</v>
       </c>
       <c r="F57" t="s">
-        <v>143</v>
+        <v>174</v>
       </c>
       <c r="G57" t="s">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="H57" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
       <c r="I57" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
       <c r="J57" s="0">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K57" t="s">
-        <v>149</v>
+        <v>181</v>
       </c>
       <c r="L57" t="s">
-        <v>148</v>
+        <v>182</v>
       </c>
       <c r="M57" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="N57" s="0">
         <v>4</v>
       </c>
       <c r="O57" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="P57" t="s">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="Q57" t="s">
-        <v>172</v>
+        <v>205</v>
       </c>
       <c r="R57" t="s">
-        <v>174</v>
-      </c>
-      <c r="S57" s="0"/>
+        <v>208</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="C58" s="0">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D58" t="s">
-        <v>133</v>
+        <v>160</v>
       </c>
       <c r="E58" t="s">
-        <v>136</v>
+        <v>164</v>
       </c>
       <c r="F58" t="s">
-        <v>140</v>
+        <v>176</v>
       </c>
       <c r="G58" t="s">
-        <v>148</v>
+        <v>182</v>
       </c>
       <c r="H58" t="s">
-        <v>150</v>
+        <v>191</v>
       </c>
       <c r="I58" t="s">
-        <v>148</v>
+        <v>182</v>
       </c>
       <c r="J58" s="0"/>
       <c r="K58" t="s">
-        <v>148</v>
+        <v>183</v>
       </c>
       <c r="L58" t="s">
-        <v>148</v>
+        <v>182</v>
       </c>
       <c r="M58" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="N58" s="0">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O58" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="P58" t="s">
-        <v>150</v>
+        <v>181</v>
       </c>
       <c r="Q58" t="s">
-        <v>171</v>
+        <v>205</v>
       </c>
       <c r="R58" t="s">
-        <v>175</v>
-      </c>
-      <c r="S58" s="0"/>
+        <v>209</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="C59" s="0">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D59" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="E59" t="s">
-        <v>135</v>
+        <v>166</v>
       </c>
       <c r="F59" t="s">
-        <v>139</v>
+        <v>174</v>
       </c>
       <c r="G59" t="s">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="H59" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
       <c r="I59" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
       <c r="J59" s="0">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K59" t="s">
-        <v>149</v>
+        <v>181</v>
       </c>
       <c r="L59" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="M59" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="N59" s="0">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O59" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="P59" t="s">
-        <v>148</v>
+        <v>182</v>
       </c>
       <c r="Q59" t="s">
-        <v>171</v>
+        <v>206</v>
       </c>
       <c r="R59" t="s">
-        <v>174</v>
-      </c>
-      <c r="S59" s="0"/>
+        <v>208</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="C60" s="0">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="D60" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="E60" t="s">
-        <v>137</v>
+        <v>164</v>
       </c>
       <c r="F60" t="s">
-        <v>143</v>
+        <v>171</v>
       </c>
       <c r="G60" t="s">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="H60" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
       <c r="I60" t="s">
-        <v>150</v>
+        <v>182</v>
       </c>
       <c r="J60" s="0">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K60" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="L60" t="s">
-        <v>149</v>
+        <v>181</v>
       </c>
       <c r="M60" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="N60" s="0">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O60" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="P60" t="s">
-        <v>149</v>
+        <v>181</v>
       </c>
       <c r="Q60" t="s">
-        <v>171</v>
+        <v>205</v>
       </c>
       <c r="R60" t="s">
-        <v>174</v>
-      </c>
-      <c r="S60" s="0"/>
+        <v>209</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="C61" s="0">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="D61" t="s">
-        <v>133</v>
+        <v>160</v>
       </c>
       <c r="E61" t="s">
-        <v>137</v>
+        <v>164</v>
       </c>
       <c r="F61" t="s">
-        <v>144</v>
+        <v>176</v>
       </c>
       <c r="G61" t="s">
-        <v>148</v>
+        <v>182</v>
       </c>
       <c r="H61" t="s">
-        <v>150</v>
+        <v>192</v>
       </c>
       <c r="I61" t="s">
-        <v>150</v>
-      </c>
-      <c r="J61" s="0">
-        <v>3</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="J61" s="0"/>
       <c r="K61" t="s">
-        <v>148</v>
+        <v>183</v>
       </c>
       <c r="L61" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="M61" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="N61" s="0">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O61" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="P61" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="Q61" t="s">
-        <v>171</v>
+        <v>205</v>
       </c>
       <c r="R61" t="s">
-        <v>174</v>
-      </c>
-      <c r="S61" s="0"/>
+        <v>209</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="C62" s="0">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D62" t="s">
-        <v>132</v>
+        <v>160</v>
       </c>
       <c r="E62" t="s">
-        <v>135</v>
+        <v>164</v>
       </c>
       <c r="F62" t="s">
-        <v>139</v>
+        <v>177</v>
       </c>
       <c r="G62" t="s">
-        <v>149</v>
+        <v>181</v>
       </c>
       <c r="H62" t="s">
-        <v>160</v>
+        <v>183</v>
       </c>
       <c r="I62" t="s">
-        <v>150</v>
-      </c>
-      <c r="J62" s="0">
+        <v>181</v>
+      </c>
+      <c r="J62" s="0"/>
+      <c r="K62" t="s">
+        <v>183</v>
+      </c>
+      <c r="L62" t="s">
+        <v>182</v>
+      </c>
+      <c r="M62" t="s">
+        <v>182</v>
+      </c>
+      <c r="N62" s="0">
         <v>1</v>
       </c>
-      <c r="K62" t="s">
-        <v>149</v>
-      </c>
-      <c r="L62" t="s">
-        <v>149</v>
-      </c>
-      <c r="M62" t="s">
-        <v>149</v>
-      </c>
-      <c r="N62" s="0">
-        <v>5</v>
-      </c>
       <c r="O62" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="P62" t="s">
-        <v>148</v>
+        <v>183</v>
       </c>
       <c r="Q62" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="R62" t="s">
-        <v>174</v>
-      </c>
-      <c r="S62" s="0"/>
+        <v>209</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="C63" s="0">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D63" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="E63" t="s">
-        <v>135</v>
+        <v>165</v>
       </c>
       <c r="F63" t="s">
-        <v>139</v>
+        <v>175</v>
       </c>
       <c r="G63" t="s">
-        <v>148</v>
+        <v>182</v>
       </c>
       <c r="H63" t="s">
-        <v>150</v>
+        <v>193</v>
       </c>
       <c r="I63" t="s">
-        <v>150</v>
+        <v>181</v>
       </c>
       <c r="J63" s="0">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K63" t="s">
-        <v>149</v>
+        <v>181</v>
       </c>
       <c r="L63" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="M63" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="N63" s="0">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O63" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="P63" t="s">
-        <v>148</v>
+        <v>183</v>
       </c>
       <c r="Q63" t="s">
-        <v>171</v>
+        <v>205</v>
       </c>
       <c r="R63" t="s">
-        <v>174</v>
-      </c>
-      <c r="S63" s="0"/>
+        <v>209</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="C64" s="0">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="D64" t="s">
-        <v>132</v>
+        <v>160</v>
       </c>
       <c r="E64" t="s">
-        <v>136</v>
+        <v>163</v>
       </c>
       <c r="F64" t="s">
-        <v>145</v>
+        <v>168</v>
       </c>
       <c r="G64" t="s">
-        <v>149</v>
+        <v>181</v>
       </c>
       <c r="H64" t="s">
-        <v>161</v>
+        <v>183</v>
       </c>
       <c r="I64" t="s">
-        <v>148</v>
-      </c>
-      <c r="J64" s="0"/>
+        <v>183</v>
+      </c>
+      <c r="J64" s="0">
+        <v>6</v>
+      </c>
       <c r="K64" t="s">
-        <v>150</v>
+        <v>182</v>
       </c>
       <c r="L64" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="M64" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="N64" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O64" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="P64" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
       <c r="Q64" t="s">
-        <v>171</v>
+        <v>205</v>
       </c>
       <c r="R64" t="s">
-        <v>175</v>
-      </c>
-      <c r="S64" s="0"/>
+        <v>208</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="C65" s="0">
+        <v>44</v>
+      </c>
+      <c r="D65" t="s">
+        <v>160</v>
+      </c>
+      <c r="E65" t="s">
+        <v>166</v>
+      </c>
+      <c r="F65" t="s">
+        <v>173</v>
+      </c>
+      <c r="G65" t="s">
+        <v>181</v>
+      </c>
+      <c r="H65" t="s">
+        <v>183</v>
+      </c>
+      <c r="I65" t="s">
+        <v>183</v>
+      </c>
+      <c r="J65" s="0">
+        <v>6</v>
+      </c>
+      <c r="K65" t="s">
+        <v>181</v>
+      </c>
+      <c r="L65" t="s">
+        <v>181</v>
+      </c>
+      <c r="M65" t="s">
+        <v>182</v>
+      </c>
+      <c r="N65" s="0">
+        <v>8</v>
+      </c>
+      <c r="O65" t="s">
+        <v>183</v>
+      </c>
+      <c r="P65" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>205</v>
+      </c>
+      <c r="R65" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>144</v>
+      </c>
+      <c r="C66" s="0">
+        <v>37</v>
+      </c>
+      <c r="D66" t="s">
+        <v>160</v>
+      </c>
+      <c r="E66" t="s">
+        <v>166</v>
+      </c>
+      <c r="F66" t="s">
+        <v>173</v>
+      </c>
+      <c r="G66" t="s">
+        <v>181</v>
+      </c>
+      <c r="H66" t="s">
+        <v>183</v>
+      </c>
+      <c r="I66" t="s">
+        <v>183</v>
+      </c>
+      <c r="J66" s="0">
+        <v>5</v>
+      </c>
+      <c r="K66" t="s">
+        <v>182</v>
+      </c>
+      <c r="L66" t="s">
+        <v>182</v>
+      </c>
+      <c r="M66" t="s">
+        <v>182</v>
+      </c>
+      <c r="N66" s="0">
+        <v>7</v>
+      </c>
+      <c r="O66" t="s">
+        <v>182</v>
+      </c>
+      <c r="P66" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>205</v>
+      </c>
+      <c r="R66" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>145</v>
+      </c>
+      <c r="C67" s="0">
+        <v>30</v>
+      </c>
+      <c r="D67" t="s">
+        <v>160</v>
+      </c>
+      <c r="E67" t="s">
+        <v>163</v>
+      </c>
+      <c r="F67" t="s">
+        <v>168</v>
+      </c>
+      <c r="G67" t="s">
+        <v>181</v>
+      </c>
+      <c r="H67" t="s">
+        <v>183</v>
+      </c>
+      <c r="I67" t="s">
+        <v>183</v>
+      </c>
+      <c r="J67" s="0">
+        <v>5</v>
+      </c>
+      <c r="K67" t="s">
+        <v>182</v>
+      </c>
+      <c r="L67" t="s">
+        <v>182</v>
+      </c>
+      <c r="M67" t="s">
+        <v>182</v>
+      </c>
+      <c r="N67" s="0">
+        <v>2</v>
+      </c>
+      <c r="O67" t="s">
+        <v>182</v>
+      </c>
+      <c r="P67" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>205</v>
+      </c>
+      <c r="R67" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>146</v>
+      </c>
+      <c r="C68" s="0"/>
+      <c r="D68" t="s">
+        <v>161</v>
+      </c>
+      <c r="E68" t="s">
+        <v>164</v>
+      </c>
+      <c r="F68" t="s">
+        <v>171</v>
+      </c>
+      <c r="G68" t="s">
+        <v>181</v>
+      </c>
+      <c r="H68" t="s">
+        <v>183</v>
+      </c>
+      <c r="I68" t="s">
+        <v>182</v>
+      </c>
+      <c r="J68" s="0">
+        <v>5</v>
+      </c>
+      <c r="K68" t="s">
+        <v>182</v>
+      </c>
+      <c r="L68" t="s">
+        <v>182</v>
+      </c>
+      <c r="M68" t="s">
+        <v>182</v>
+      </c>
+      <c r="N68" s="0">
+        <v>5</v>
+      </c>
+      <c r="O68" t="s">
+        <v>182</v>
+      </c>
+      <c r="P68" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>205</v>
+      </c>
+      <c r="R68" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>147</v>
+      </c>
+      <c r="C69" s="0">
+        <v>24</v>
+      </c>
+      <c r="D69" t="s">
+        <v>160</v>
+      </c>
+      <c r="E69" t="s">
+        <v>166</v>
+      </c>
+      <c r="F69" t="s">
+        <v>173</v>
+      </c>
+      <c r="G69" t="s">
+        <v>181</v>
+      </c>
+      <c r="H69" t="s">
+        <v>183</v>
+      </c>
+      <c r="I69" t="s">
+        <v>183</v>
+      </c>
+      <c r="J69" s="0">
+        <v>4</v>
+      </c>
+      <c r="K69" t="s">
+        <v>182</v>
+      </c>
+      <c r="L69" t="s">
+        <v>181</v>
+      </c>
+      <c r="M69" t="s">
+        <v>182</v>
+      </c>
+      <c r="N69" s="0">
+        <v>1</v>
+      </c>
+      <c r="O69" t="s">
+        <v>183</v>
+      </c>
+      <c r="P69" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>206</v>
+      </c>
+      <c r="R69" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>148</v>
+      </c>
+      <c r="C70" s="0">
+        <v>30</v>
+      </c>
+      <c r="D70" t="s">
+        <v>160</v>
+      </c>
+      <c r="E70" t="s">
+        <v>165</v>
+      </c>
+      <c r="F70" t="s">
+        <v>179</v>
+      </c>
+      <c r="G70" t="s">
+        <v>181</v>
+      </c>
+      <c r="H70" t="s">
+        <v>183</v>
+      </c>
+      <c r="I70" t="s">
+        <v>182</v>
+      </c>
+      <c r="J70" s="0"/>
+      <c r="K70" t="s">
+        <v>183</v>
+      </c>
+      <c r="L70" t="s">
+        <v>182</v>
+      </c>
+      <c r="M70" t="s">
+        <v>182</v>
+      </c>
+      <c r="N70" s="0">
+        <v>5</v>
+      </c>
+      <c r="O70" t="s">
+        <v>182</v>
+      </c>
+      <c r="P70" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>205</v>
+      </c>
+      <c r="R70" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>149</v>
+      </c>
+      <c r="C71" s="0">
+        <v>40</v>
+      </c>
+      <c r="D71" t="s">
+        <v>161</v>
+      </c>
+      <c r="E71" t="s">
+        <v>164</v>
+      </c>
+      <c r="F71" t="s">
+        <v>169</v>
+      </c>
+      <c r="G71" t="s">
+        <v>181</v>
+      </c>
+      <c r="H71" t="s">
+        <v>183</v>
+      </c>
+      <c r="I71" t="s">
+        <v>181</v>
+      </c>
+      <c r="J71" s="0"/>
+      <c r="K71" t="s">
+        <v>181</v>
+      </c>
+      <c r="L71" t="s">
+        <v>181</v>
+      </c>
+      <c r="M71" t="s">
+        <v>182</v>
+      </c>
+      <c r="N71" s="0">
+        <v>4</v>
+      </c>
+      <c r="O71" t="s">
+        <v>182</v>
+      </c>
+      <c r="P71" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>205</v>
+      </c>
+      <c r="R71" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>150</v>
+      </c>
+      <c r="C72" s="0">
+        <v>23</v>
+      </c>
+      <c r="D72" t="s">
+        <v>160</v>
+      </c>
+      <c r="E72" t="s">
+        <v>163</v>
+      </c>
+      <c r="F72" t="s">
+        <v>168</v>
+      </c>
+      <c r="G72" t="s">
+        <v>181</v>
+      </c>
+      <c r="H72" t="s">
+        <v>183</v>
+      </c>
+      <c r="I72" t="s">
+        <v>183</v>
+      </c>
+      <c r="J72" s="0">
+        <v>8</v>
+      </c>
+      <c r="K72" t="s">
+        <v>182</v>
+      </c>
+      <c r="L72" t="s">
+        <v>182</v>
+      </c>
+      <c r="M72" t="s">
+        <v>182</v>
+      </c>
+      <c r="N72" s="0">
+        <v>1</v>
+      </c>
+      <c r="O72" t="s">
+        <v>183</v>
+      </c>
+      <c r="P72" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>205</v>
+      </c>
+      <c r="R72" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>151</v>
+      </c>
+      <c r="C73" s="0">
+        <v>24</v>
+      </c>
+      <c r="D73" t="s">
+        <v>160</v>
+      </c>
+      <c r="E73" t="s">
+        <v>166</v>
+      </c>
+      <c r="F73" t="s">
+        <v>173</v>
+      </c>
+      <c r="G73" t="s">
+        <v>181</v>
+      </c>
+      <c r="H73" t="s">
+        <v>183</v>
+      </c>
+      <c r="I73" t="s">
+        <v>183</v>
+      </c>
+      <c r="J73" s="0">
+        <v>4</v>
+      </c>
+      <c r="K73" t="s">
+        <v>182</v>
+      </c>
+      <c r="L73" t="s">
+        <v>182</v>
+      </c>
+      <c r="M73" t="s">
+        <v>182</v>
+      </c>
+      <c r="N73" s="0">
+        <v>5</v>
+      </c>
+      <c r="O73" t="s">
+        <v>182</v>
+      </c>
+      <c r="P73" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>205</v>
+      </c>
+      <c r="R73" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>152</v>
+      </c>
+      <c r="C74" s="0">
+        <v>39</v>
+      </c>
+      <c r="D74" t="s">
+        <v>161</v>
+      </c>
+      <c r="E74" t="s">
+        <v>166</v>
+      </c>
+      <c r="F74" t="s">
+        <v>174</v>
+      </c>
+      <c r="G74" t="s">
+        <v>181</v>
+      </c>
+      <c r="H74" t="s">
+        <v>183</v>
+      </c>
+      <c r="I74" t="s">
+        <v>183</v>
+      </c>
+      <c r="J74" s="0">
+        <v>3</v>
+      </c>
+      <c r="K74" t="s">
+        <v>181</v>
+      </c>
+      <c r="L74" t="s">
+        <v>182</v>
+      </c>
+      <c r="M74" t="s">
+        <v>182</v>
+      </c>
+      <c r="N74" s="0">
+        <v>8</v>
+      </c>
+      <c r="O74" t="s">
+        <v>183</v>
+      </c>
+      <c r="P74" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>205</v>
+      </c>
+      <c r="R74" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>153</v>
+      </c>
+      <c r="C75" s="0">
+        <v>52</v>
+      </c>
+      <c r="D75" t="s">
+        <v>160</v>
+      </c>
+      <c r="E75" t="s">
+        <v>163</v>
+      </c>
+      <c r="F75" t="s">
+        <v>168</v>
+      </c>
+      <c r="G75" t="s">
+        <v>182</v>
+      </c>
+      <c r="H75" t="s">
+        <v>194</v>
+      </c>
+      <c r="I75" t="s">
+        <v>183</v>
+      </c>
+      <c r="J75" s="0">
+        <v>1</v>
+      </c>
+      <c r="K75" t="s">
+        <v>182</v>
+      </c>
+      <c r="L75" t="s">
+        <v>182</v>
+      </c>
+      <c r="M75" t="s">
+        <v>182</v>
+      </c>
+      <c r="N75" s="0">
+        <v>6</v>
+      </c>
+      <c r="O75" t="s">
+        <v>182</v>
+      </c>
+      <c r="P75" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>205</v>
+      </c>
+      <c r="R75" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>154</v>
+      </c>
+      <c r="C76" s="0">
+        <v>40</v>
+      </c>
+      <c r="D76" t="s">
+        <v>161</v>
+      </c>
+      <c r="E76" t="s">
+        <v>165</v>
+      </c>
+      <c r="F76" t="s">
+        <v>170</v>
+      </c>
+      <c r="G76" t="s">
+        <v>181</v>
+      </c>
+      <c r="H76" t="s">
+        <v>183</v>
+      </c>
+      <c r="I76" t="s">
+        <v>181</v>
+      </c>
+      <c r="J76" s="0">
+        <v>4</v>
+      </c>
+      <c r="K76" t="s">
+        <v>181</v>
+      </c>
+      <c r="L76" t="s">
+        <v>181</v>
+      </c>
+      <c r="M76" t="s">
+        <v>182</v>
+      </c>
+      <c r="N76" s="0">
+        <v>6</v>
+      </c>
+      <c r="O76" t="s">
+        <v>182</v>
+      </c>
+      <c r="P76" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>205</v>
+      </c>
+      <c r="R76" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>155</v>
+      </c>
+      <c r="C77" s="0">
+        <v>71</v>
+      </c>
+      <c r="D77" t="s">
+        <v>160</v>
+      </c>
+      <c r="E77" t="s">
+        <v>163</v>
+      </c>
+      <c r="F77" t="s">
+        <v>168</v>
+      </c>
+      <c r="G77" t="s">
+        <v>181</v>
+      </c>
+      <c r="H77" t="s">
+        <v>183</v>
+      </c>
+      <c r="I77" t="s">
+        <v>183</v>
+      </c>
+      <c r="J77" s="0">
+        <v>4</v>
+      </c>
+      <c r="K77" t="s">
+        <v>182</v>
+      </c>
+      <c r="L77" t="s">
+        <v>182</v>
+      </c>
+      <c r="M77" t="s">
+        <v>182</v>
+      </c>
+      <c r="N77" s="0">
+        <v>4</v>
+      </c>
+      <c r="O77" t="s">
+        <v>182</v>
+      </c>
+      <c r="P77" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>206</v>
+      </c>
+      <c r="R77" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>156</v>
+      </c>
+      <c r="C78" s="0">
+        <v>57</v>
+      </c>
+      <c r="D78" t="s">
+        <v>160</v>
+      </c>
+      <c r="E78" t="s">
+        <v>164</v>
+      </c>
+      <c r="F78" t="s">
+        <v>176</v>
+      </c>
+      <c r="G78" t="s">
+        <v>182</v>
+      </c>
+      <c r="H78" t="s">
+        <v>195</v>
+      </c>
+      <c r="I78" t="s">
+        <v>181</v>
+      </c>
+      <c r="J78" s="0"/>
+      <c r="K78" t="s">
+        <v>183</v>
+      </c>
+      <c r="L78" t="s">
+        <v>182</v>
+      </c>
+      <c r="M78" t="s">
+        <v>182</v>
+      </c>
+      <c r="N78" s="0">
+        <v>4</v>
+      </c>
+      <c r="O78" t="s">
+        <v>182</v>
+      </c>
+      <c r="P78" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>205</v>
+      </c>
+      <c r="R78" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>157</v>
+      </c>
+      <c r="C79" s="0">
         <v>22</v>
       </c>
-      <c r="D65" t="s">
-        <v>132</v>
-      </c>
-      <c r="E65" t="s">
-        <v>137</v>
-      </c>
-      <c r="F65" t="s">
-        <v>143</v>
-      </c>
-      <c r="G65" t="s">
-        <v>148</v>
-      </c>
-      <c r="H65" t="s">
-        <v>150</v>
-      </c>
-      <c r="I65" t="s">
-        <v>150</v>
-      </c>
-      <c r="J65" s="0">
+      <c r="D79" t="s">
+        <v>160</v>
+      </c>
+      <c r="E79" t="s">
+        <v>166</v>
+      </c>
+      <c r="F79" t="s">
+        <v>173</v>
+      </c>
+      <c r="G79" t="s">
+        <v>181</v>
+      </c>
+      <c r="H79" t="s">
+        <v>183</v>
+      </c>
+      <c r="I79" t="s">
+        <v>183</v>
+      </c>
+      <c r="J79" s="0">
         <v>5</v>
       </c>
-      <c r="K65" t="s">
-        <v>148</v>
-      </c>
-      <c r="L65" t="s">
-        <v>149</v>
-      </c>
-      <c r="M65" t="s">
-        <v>149</v>
-      </c>
-      <c r="N65" s="0">
-        <v>5</v>
-      </c>
-      <c r="O65" t="s">
-        <v>149</v>
-      </c>
-      <c r="P65" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q65" t="s">
-        <v>171</v>
-      </c>
-      <c r="R65" t="s">
-        <v>174</v>
-      </c>
-      <c r="S65" s="0"/>
+      <c r="K79" t="s">
+        <v>181</v>
+      </c>
+      <c r="L79" t="s">
+        <v>182</v>
+      </c>
+      <c r="M79" t="s">
+        <v>182</v>
+      </c>
+      <c r="N79" s="0">
+        <v>1</v>
+      </c>
+      <c r="O79" t="s">
+        <v>183</v>
+      </c>
+      <c r="P79" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>206</v>
+      </c>
+      <c r="R79" t="s">
+        <v>208</v>
+      </c>
     </row>
   </sheetData>
 </worksheet>

--- a/sempre_Presentes.xlsx
+++ b/sempre_Presentes.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="154">
   <si>
     <t>ID</t>
   </si>
@@ -48,9 +48,15 @@
     <t>C_1021</t>
   </si>
   <si>
+    <t>C_1078</t>
+  </si>
+  <si>
     <t>C_1022</t>
   </si>
   <si>
+    <t>C_1071</t>
+  </si>
+  <si>
     <t>C_1023</t>
   </si>
   <si>
@@ -63,6 +69,15 @@
     <t>C_1007</t>
   </si>
   <si>
+    <t>C_1116</t>
+  </si>
+  <si>
+    <t>C_1075</t>
+  </si>
+  <si>
+    <t>C_1115</t>
+  </si>
+  <si>
     <t>C_2000</t>
   </si>
   <si>
@@ -78,9 +93,18 @@
     <t>C_1027</t>
   </si>
   <si>
+    <t>C_1084</t>
+  </si>
+  <si>
+    <t>C_1122</t>
+  </si>
+  <si>
     <t>C_1028</t>
   </si>
   <si>
+    <t>C_1080</t>
+  </si>
+  <si>
     <t>C_1009</t>
   </si>
   <si>
@@ -93,12 +117,24 @@
     <t>C_1039</t>
   </si>
   <si>
+    <t>C_1073</t>
+  </si>
+  <si>
     <t>C_1015</t>
   </si>
   <si>
+    <t>C_1085</t>
+  </si>
+  <si>
     <t>C_1010</t>
   </si>
   <si>
+    <t>C_1082</t>
+  </si>
+  <si>
+    <t>C_1117</t>
+  </si>
+  <si>
     <t>C_1064</t>
   </si>
   <si>
@@ -132,6 +168,9 @@
     <t>C_1070</t>
   </si>
   <si>
+    <t>C_1081</t>
+  </si>
+  <si>
     <t>C_1049</t>
   </si>
   <si>
@@ -168,9 +207,15 @@
     <t>DIONIZIA AIRONE CHAPO</t>
   </si>
   <si>
+    <t>ELIAS JULAI</t>
+  </si>
+  <si>
     <t>FATIANCA PAULINHO</t>
   </si>
   <si>
+    <t>FERNANDO MURIRO</t>
+  </si>
+  <si>
     <t>FLORIANA RANDINHO</t>
   </si>
   <si>
@@ -183,6 +228,15 @@
     <t>JIMAEDA HORACIO</t>
   </si>
   <si>
+    <t>JOAO OLIVEIRA SAVECA</t>
+  </si>
+  <si>
+    <t>JOAO PENICELA</t>
+  </si>
+  <si>
+    <t>JOAQUIM SAIZE</t>
+  </si>
+  <si>
     <t>LANGUITONE ZUZE</t>
   </si>
   <si>
@@ -198,9 +252,18 @@
     <t>LUCIA SEIS</t>
   </si>
   <si>
+    <t>MANUEL BENJAMIM</t>
+  </si>
+  <si>
+    <t>MARIO FERNANDO</t>
+  </si>
+  <si>
     <t>MELENIA PITA</t>
   </si>
   <si>
+    <t>MEMBA MABONE</t>
+  </si>
+  <si>
     <t>MERECINA FROMA</t>
   </si>
   <si>
@@ -213,12 +276,24 @@
     <t>MOISES MOLIONE</t>
   </si>
   <si>
+    <t>MOISES TAUNDE</t>
+  </si>
+  <si>
     <t>NORINDA FRANCISCO</t>
   </si>
   <si>
+    <t>PAULO MASTIQUE</t>
+  </si>
+  <si>
     <t>RAQUEL ARMANDO</t>
   </si>
   <si>
+    <t>ROBATE TAUNDE CHIGOROGORO</t>
+  </si>
+  <si>
+    <t>ROBERTO SABAO</t>
+  </si>
+  <si>
     <t>ROSARIO CHICO</t>
   </si>
   <si>
@@ -252,6 +327,9 @@
     <t>VICTOR LAZENE</t>
   </si>
   <si>
+    <t>ZACARIA BAHERA</t>
+  </si>
+  <si>
     <t>ZATULA ARMANDO</t>
   </si>
   <si>
@@ -297,6 +375,12 @@
     <t>M_1</t>
   </si>
   <si>
+    <t>AP-5</t>
+  </si>
+  <si>
+    <t>AP-6</t>
+  </si>
+  <si>
     <t>AP-1</t>
   </si>
   <si>
@@ -315,16 +399,37 @@
     <t>SIM</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>Tipo_influencia</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>MEDICA TRADICIONAL</t>
   </si>
   <si>
+    <t>PONTO DE REFERENCIA DA CASA DO MEL</t>
+  </si>
+  <si>
+    <t>CARPINTEIRO E MECANICO DE BICICLETA</t>
+  </si>
+  <si>
+    <t>FACILITADOR DO PARQUE</t>
+  </si>
+  <si>
+    <t>LIDER RELIGIOSO E DE CERIMONIAS TRADICIONAIS</t>
+  </si>
+  <si>
+    <t>LIDER RELIGIOSO</t>
+  </si>
+  <si>
+    <t>CHEFE DE 10 CASAS</t>
+  </si>
+  <si>
     <t>MEDICO TRADICIONAL</t>
+  </si>
+  <si>
+    <t>PRODUTOR DE PENEIRAS DE BAMBU</t>
   </si>
   <si>
     <t>ProdutorLider</t>
@@ -413,7 +518,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S40"/>
+  <dimension ref="A1:S53"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -421,58 +526,58 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="C1" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="D1" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="E1" t="s">
-        <v>84</v>
+        <v>110</v>
       </c>
       <c r="F1" t="s">
-        <v>89</v>
+        <v>115</v>
       </c>
       <c r="G1" t="s">
-        <v>97</v>
+        <v>125</v>
       </c>
       <c r="H1" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="I1" t="s">
-        <v>104</v>
+        <v>139</v>
       </c>
       <c r="J1" t="s">
-        <v>105</v>
+        <v>140</v>
       </c>
       <c r="K1" t="s">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="L1" t="s">
-        <v>107</v>
+        <v>142</v>
       </c>
       <c r="M1" t="s">
-        <v>108</v>
+        <v>143</v>
       </c>
       <c r="N1" t="s">
-        <v>109</v>
+        <v>144</v>
       </c>
       <c r="O1" t="s">
-        <v>110</v>
+        <v>145</v>
       </c>
       <c r="P1" t="s">
-        <v>111</v>
+        <v>146</v>
       </c>
       <c r="Q1" t="s">
-        <v>112</v>
+        <v>147</v>
       </c>
       <c r="R1" t="s">
-        <v>115</v>
+        <v>150</v>
       </c>
       <c r="S1" t="s">
-        <v>118</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2">
@@ -480,58 +585,58 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="C2" s="0">
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="E2" t="s">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="F2" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="G2" t="s">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="H2" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="I2" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="J2" s="0">
         <v>6</v>
       </c>
       <c r="K2" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="L2" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="M2" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="N2" s="0">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="O2" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="P2" t="s">
-        <v>98</v>
+        <v>128</v>
       </c>
       <c r="Q2" t="s">
-        <v>113</v>
+        <v>148</v>
       </c>
       <c r="R2" t="s">
-        <v>116</v>
+        <v>151</v>
       </c>
       <c r="S2" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3">
@@ -539,58 +644,58 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="C3" s="0">
         <v>62</v>
       </c>
       <c r="D3" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="E3" t="s">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="F3" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="G3" t="s">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="H3" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="I3" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="J3" s="0">
         <v>1</v>
       </c>
       <c r="K3" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="L3" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="M3" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="N3" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O3" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="P3" t="s">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c r="Q3" t="s">
-        <v>113</v>
+        <v>148</v>
       </c>
       <c r="R3" t="s">
-        <v>116</v>
+        <v>151</v>
       </c>
       <c r="S3" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4">
@@ -598,56 +703,56 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="C4" s="0"/>
       <c r="D4" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="E4" t="s">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="F4" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="G4" t="s">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="H4" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="I4" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="J4" s="0">
         <v>4</v>
       </c>
       <c r="K4" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="L4" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="M4" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="N4" s="0">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="O4" t="s">
-        <v>101</v>
+        <v>127</v>
       </c>
       <c r="P4" t="s">
-        <v>101</v>
+        <v>127</v>
       </c>
       <c r="Q4" t="s">
-        <v>113</v>
+        <v>148</v>
       </c>
       <c r="R4" t="s">
-        <v>116</v>
+        <v>151</v>
       </c>
       <c r="S4" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5">
@@ -655,56 +760,56 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="C5" s="0"/>
       <c r="D5" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="E5" t="s">
-        <v>86</v>
+        <v>112</v>
       </c>
       <c r="F5" t="s">
-        <v>91</v>
+        <v>117</v>
       </c>
       <c r="G5" t="s">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="H5" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="I5" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="J5" s="0">
         <v>7</v>
       </c>
       <c r="K5" t="s">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="L5" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="M5" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="N5" s="0">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O5" t="s">
-        <v>101</v>
+        <v>127</v>
       </c>
       <c r="P5" t="s">
-        <v>101</v>
+        <v>127</v>
       </c>
       <c r="Q5" t="s">
-        <v>114</v>
+        <v>148</v>
       </c>
       <c r="R5" t="s">
-        <v>116</v>
+        <v>151</v>
       </c>
       <c r="S5" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6">
@@ -712,58 +817,58 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="C6" s="0">
         <v>77</v>
       </c>
       <c r="D6" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="E6" t="s">
-        <v>86</v>
+        <v>112</v>
       </c>
       <c r="F6" t="s">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="G6" t="s">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="H6" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="I6" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="J6" s="0">
         <v>6</v>
       </c>
       <c r="K6" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="L6" t="s">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="M6" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="N6" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O6" t="s">
-        <v>101</v>
+        <v>127</v>
       </c>
       <c r="P6" t="s">
-        <v>101</v>
+        <v>127</v>
       </c>
       <c r="Q6" t="s">
-        <v>113</v>
+        <v>148</v>
       </c>
       <c r="R6" t="s">
-        <v>116</v>
+        <v>151</v>
       </c>
       <c r="S6" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7">
@@ -771,56 +876,56 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="C7" s="0"/>
       <c r="D7" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="E7" t="s">
-        <v>86</v>
+        <v>112</v>
       </c>
       <c r="F7" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="G7" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="H7" t="s">
-        <v>102</v>
+        <v>130</v>
       </c>
       <c r="I7" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="J7" s="0">
         <v>2</v>
       </c>
       <c r="K7" t="s">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="L7" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="M7" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="N7" s="0">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O7" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="P7" t="s">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c r="Q7" t="s">
-        <v>113</v>
+        <v>148</v>
       </c>
       <c r="R7" t="s">
-        <v>116</v>
+        <v>151</v>
       </c>
       <c r="S7" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8">
@@ -828,58 +933,58 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="C8" s="0">
         <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="E8" t="s">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="F8" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="G8" t="s">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="H8" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="I8" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="J8" s="0">
         <v>8</v>
       </c>
       <c r="K8" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="L8" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="M8" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="N8" s="0">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="O8" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="P8" t="s">
-        <v>98</v>
+        <v>128</v>
       </c>
       <c r="Q8" t="s">
-        <v>113</v>
+        <v>148</v>
       </c>
       <c r="R8" t="s">
-        <v>116</v>
+        <v>151</v>
       </c>
       <c r="S8" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9">
@@ -887,58 +992,58 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="C9" s="0">
         <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="E9" t="s">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="F9" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="G9" t="s">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="H9" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="I9" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="J9" s="0">
         <v>7</v>
       </c>
       <c r="K9" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="L9" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="M9" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="N9" s="0">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="O9" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="P9" t="s">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c r="Q9" t="s">
-        <v>113</v>
+        <v>148</v>
       </c>
       <c r="R9" t="s">
-        <v>116</v>
+        <v>151</v>
       </c>
       <c r="S9" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10">
@@ -946,56 +1051,56 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="C10" s="0"/>
       <c r="D10" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="E10" t="s">
-        <v>86</v>
+        <v>112</v>
       </c>
       <c r="F10" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="G10" t="s">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="H10" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="I10" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="J10" s="0">
         <v>7</v>
       </c>
       <c r="K10" t="s">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="L10" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="M10" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="N10" s="0">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O10" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="P10" t="s">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="Q10" t="s">
-        <v>113</v>
+        <v>149</v>
       </c>
       <c r="R10" t="s">
-        <v>116</v>
+        <v>151</v>
       </c>
       <c r="S10" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11">
@@ -1003,58 +1108,58 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="C11" s="0">
         <v>55</v>
       </c>
       <c r="D11" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="E11" t="s">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="F11" t="s">
-        <v>91</v>
+        <v>117</v>
       </c>
       <c r="G11" t="s">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="H11" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="I11" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="J11" s="0">
         <v>6</v>
       </c>
       <c r="K11" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="L11" t="s">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="M11" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="N11" s="0">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="O11" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="P11" t="s">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="Q11" t="s">
-        <v>113</v>
+        <v>148</v>
       </c>
       <c r="R11" t="s">
-        <v>116</v>
+        <v>151</v>
       </c>
       <c r="S11" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12">
@@ -1062,58 +1167,56 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="C12" s="0">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="D12" t="s">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="E12" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="F12" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="G12" t="s">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="H12" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="I12" t="s">
-        <v>101</v>
-      </c>
-      <c r="J12" s="0">
-        <v>8</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="J12" s="0"/>
       <c r="K12" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="L12" t="s">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c r="M12" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="N12" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O12" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="P12" t="s">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c r="Q12" t="s">
-        <v>114</v>
+        <v>148</v>
       </c>
       <c r="R12" t="s">
-        <v>116</v>
+        <v>152</v>
       </c>
       <c r="S12" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13">
@@ -1121,58 +1224,58 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="C13" s="0">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="D13" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="E13" t="s">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="F13" t="s">
-        <v>91</v>
+        <v>117</v>
       </c>
       <c r="G13" t="s">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="H13" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="I13" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="J13" s="0">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K13" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="L13" t="s">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="M13" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="N13" s="0">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="O13" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="P13" t="s">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="Q13" t="s">
-        <v>113</v>
+        <v>148</v>
       </c>
       <c r="R13" t="s">
-        <v>116</v>
+        <v>151</v>
       </c>
       <c r="S13" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14">
@@ -1180,58 +1283,56 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="C14" s="0">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="D14" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="E14" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="F14" t="s">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="G14" t="s">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c r="H14" t="s">
-        <v>101</v>
+        <v>131</v>
       </c>
       <c r="I14" t="s">
-        <v>101</v>
-      </c>
-      <c r="J14" s="0">
-        <v>8</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="J14" s="0"/>
       <c r="K14" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="L14" t="s">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c r="M14" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="N14" s="0">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="O14" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="P14" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="Q14" t="s">
-        <v>113</v>
+        <v>148</v>
       </c>
       <c r="R14" t="s">
-        <v>116</v>
+        <v>152</v>
       </c>
       <c r="S14" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15">
@@ -1239,58 +1340,58 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="0">
         <v>54</v>
       </c>
-      <c r="C15" s="0">
-        <v>43</v>
-      </c>
       <c r="D15" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="E15" t="s">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="F15" t="s">
-        <v>91</v>
+        <v>117</v>
       </c>
       <c r="G15" t="s">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="H15" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="I15" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="J15" s="0">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K15" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="L15" t="s">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c r="M15" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="N15" s="0">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="O15" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="P15" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="Q15" t="s">
-        <v>113</v>
+        <v>148</v>
       </c>
       <c r="R15" t="s">
-        <v>116</v>
+        <v>151</v>
       </c>
       <c r="S15" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16">
@@ -1298,56 +1399,58 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" s="0"/>
+        <v>68</v>
+      </c>
+      <c r="C16" s="0">
+        <v>25</v>
+      </c>
       <c r="D16" t="s">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="E16" t="s">
-        <v>86</v>
+        <v>112</v>
       </c>
       <c r="F16" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="G16" t="s">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="H16" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="I16" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="J16" s="0">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K16" t="s">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c r="L16" t="s">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="M16" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="N16" s="0">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="O16" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="P16" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="Q16" t="s">
-        <v>113</v>
+        <v>148</v>
       </c>
       <c r="R16" t="s">
-        <v>116</v>
+        <v>151</v>
       </c>
       <c r="S16" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17">
@@ -1355,58 +1458,58 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="C17" s="0">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="D17" t="s">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="E17" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
       <c r="F17" t="s">
-        <v>92</v>
+        <v>117</v>
       </c>
       <c r="G17" t="s">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="H17" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="I17" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="J17" s="0">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K17" t="s">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c r="L17" t="s">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="M17" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="N17" s="0">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="O17" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="P17" t="s">
-        <v>98</v>
+        <v>128</v>
       </c>
       <c r="Q17" t="s">
-        <v>113</v>
+        <v>148</v>
       </c>
       <c r="R17" t="s">
-        <v>116</v>
+        <v>151</v>
       </c>
       <c r="S17" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18">
@@ -1414,56 +1517,56 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>57</v>
-      </c>
-      <c r="C18" s="0">
-        <v>50</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="C18" s="0"/>
       <c r="D18" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="E18" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="F18" t="s">
-        <v>94</v>
+        <v>119</v>
       </c>
       <c r="G18" t="s">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="H18" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="I18" t="s">
-        <v>98</v>
-      </c>
-      <c r="J18" s="0"/>
+        <v>128</v>
+      </c>
+      <c r="J18" s="0">
+        <v>2</v>
+      </c>
       <c r="K18" t="s">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="L18" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="M18" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="N18" s="0">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="O18" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="P18" t="s">
-        <v>98</v>
+        <v>128</v>
       </c>
       <c r="Q18" t="s">
-        <v>113</v>
+        <v>148</v>
       </c>
       <c r="R18" t="s">
-        <v>117</v>
+        <v>151</v>
       </c>
       <c r="S18" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19">
@@ -1471,56 +1574,56 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>58</v>
-      </c>
-      <c r="C19" s="0"/>
+        <v>71</v>
+      </c>
+      <c r="C19" s="0">
+        <v>46</v>
+      </c>
       <c r="D19" t="s">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="E19" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="F19" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="G19" t="s">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="H19" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="I19" t="s">
-        <v>101</v>
-      </c>
-      <c r="J19" s="0">
-        <v>5</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="J19" s="0"/>
       <c r="K19" t="s">
-        <v>98</v>
+        <v>128</v>
       </c>
       <c r="L19" t="s">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c r="M19" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="N19" s="0">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O19" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="P19" t="s">
-        <v>98</v>
+        <v>128</v>
       </c>
       <c r="Q19" t="s">
-        <v>113</v>
+        <v>148</v>
       </c>
       <c r="R19" t="s">
-        <v>116</v>
+        <v>152</v>
       </c>
       <c r="S19" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20">
@@ -1528,58 +1631,56 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="C20" s="0">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="D20" t="s">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="E20" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="F20" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="G20" t="s">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c r="H20" t="s">
-        <v>101</v>
+        <v>132</v>
       </c>
       <c r="I20" t="s">
-        <v>101</v>
-      </c>
-      <c r="J20" s="0">
-        <v>5</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="J20" s="0"/>
       <c r="K20" t="s">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="L20" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="M20" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="N20" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O20" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="P20" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="Q20" t="s">
-        <v>114</v>
+        <v>148</v>
       </c>
       <c r="R20" t="s">
-        <v>116</v>
+        <v>152</v>
       </c>
       <c r="S20" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21">
@@ -1587,56 +1688,56 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>60</v>
-      </c>
-      <c r="C21" s="0"/>
+        <v>73</v>
+      </c>
+      <c r="C21" s="0">
+        <v>52</v>
+      </c>
       <c r="D21" t="s">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="E21" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="F21" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="G21" t="s">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="H21" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="I21" t="s">
-        <v>101</v>
-      </c>
-      <c r="J21" s="0">
+        <v>126</v>
+      </c>
+      <c r="J21" s="0"/>
+      <c r="K21" t="s">
+        <v>128</v>
+      </c>
+      <c r="L21" t="s">
+        <v>128</v>
+      </c>
+      <c r="M21" t="s">
+        <v>127</v>
+      </c>
+      <c r="N21" s="0">
         <v>3</v>
       </c>
-      <c r="K21" t="s">
-        <v>98</v>
-      </c>
-      <c r="L21" t="s">
-        <v>99</v>
-      </c>
-      <c r="M21" t="s">
-        <v>99</v>
-      </c>
-      <c r="N21" s="0">
-        <v>4</v>
-      </c>
       <c r="O21" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="P21" t="s">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="Q21" t="s">
-        <v>113</v>
+        <v>148</v>
       </c>
       <c r="R21" t="s">
-        <v>116</v>
+        <v>152</v>
       </c>
       <c r="S21" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22">
@@ -1644,56 +1745,58 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>61</v>
-      </c>
-      <c r="C22" s="0"/>
+        <v>74</v>
+      </c>
+      <c r="C22" s="0">
+        <v>60</v>
+      </c>
       <c r="D22" t="s">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="E22" t="s">
-        <v>85</v>
+        <v>112</v>
       </c>
       <c r="F22" t="s">
-        <v>91</v>
+        <v>118</v>
       </c>
       <c r="G22" t="s">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="H22" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="I22" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="J22" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K22" t="s">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="L22" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="M22" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="N22" s="0">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="O22" t="s">
-        <v>101</v>
+        <v>127</v>
       </c>
       <c r="P22" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="Q22" t="s">
-        <v>113</v>
+        <v>148</v>
       </c>
       <c r="R22" t="s">
-        <v>116</v>
+        <v>151</v>
       </c>
       <c r="S22" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23">
@@ -1701,56 +1804,56 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>62</v>
-      </c>
-      <c r="C23" s="0"/>
+        <v>75</v>
+      </c>
+      <c r="C23" s="0">
+        <v>50</v>
+      </c>
       <c r="D23" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="E23" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="F23" t="s">
-        <v>93</v>
+        <v>122</v>
       </c>
       <c r="G23" t="s">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="H23" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="I23" t="s">
-        <v>101</v>
-      </c>
-      <c r="J23" s="0">
-        <v>4</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="J23" s="0"/>
       <c r="K23" t="s">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="L23" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="M23" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="N23" s="0">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O23" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="P23" t="s">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="Q23" t="s">
-        <v>113</v>
+        <v>148</v>
       </c>
       <c r="R23" t="s">
-        <v>116</v>
+        <v>152</v>
       </c>
       <c r="S23" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
     </row>
     <row r="24">
@@ -1758,56 +1861,56 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>63</v>
-      </c>
-      <c r="C24" s="0">
-        <v>65</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="C24" s="0"/>
       <c r="D24" t="s">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="E24" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="F24" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="G24" t="s">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="H24" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="I24" t="s">
-        <v>98</v>
-      </c>
-      <c r="J24" s="0"/>
+        <v>128</v>
+      </c>
+      <c r="J24" s="0">
+        <v>5</v>
+      </c>
       <c r="K24" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="L24" t="s">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="M24" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="N24" s="0">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="O24" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="P24" t="s">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="Q24" t="s">
-        <v>113</v>
+        <v>148</v>
       </c>
       <c r="R24" t="s">
-        <v>117</v>
+        <v>151</v>
       </c>
       <c r="S24" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
     </row>
     <row r="25">
@@ -1815,58 +1918,58 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="C25" s="0">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D25" t="s">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="E25" t="s">
-        <v>86</v>
+        <v>112</v>
       </c>
       <c r="F25" t="s">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="G25" t="s">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="H25" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="I25" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="J25" s="0">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K25" t="s">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="L25" t="s">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c r="M25" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="N25" s="0">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="O25" t="s">
-        <v>101</v>
+        <v>127</v>
       </c>
       <c r="P25" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="Q25" t="s">
-        <v>113</v>
+        <v>149</v>
       </c>
       <c r="R25" t="s">
-        <v>116</v>
+        <v>151</v>
       </c>
       <c r="S25" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
     </row>
     <row r="26">
@@ -1874,58 +1977,56 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>65</v>
-      </c>
-      <c r="C26" s="0">
-        <v>58</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="C26" s="0"/>
       <c r="D26" t="s">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="E26" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
       <c r="F26" t="s">
-        <v>92</v>
+        <v>117</v>
       </c>
       <c r="G26" t="s">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="H26" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="I26" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="J26" s="0">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K26" t="s">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="L26" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="M26" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="N26" s="0">
         <v>3</v>
       </c>
       <c r="O26" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="P26" t="s">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="Q26" t="s">
-        <v>113</v>
+        <v>148</v>
       </c>
       <c r="R26" t="s">
-        <v>116</v>
+        <v>151</v>
       </c>
       <c r="S26" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
     </row>
     <row r="27">
@@ -1933,56 +2034,56 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>66</v>
-      </c>
-      <c r="C27" s="0"/>
+        <v>79</v>
+      </c>
+      <c r="C27" s="0">
+        <v>42</v>
+      </c>
       <c r="D27" t="s">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="E27" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="F27" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="G27" t="s">
-        <v>98</v>
+        <v>128</v>
       </c>
       <c r="H27" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="I27" t="s">
-        <v>101</v>
-      </c>
-      <c r="J27" s="0">
-        <v>5</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="J27" s="0"/>
       <c r="K27" t="s">
-        <v>98</v>
+        <v>128</v>
       </c>
       <c r="L27" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="M27" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="N27" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O27" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="P27" t="s">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c r="Q27" t="s">
-        <v>113</v>
+        <v>148</v>
       </c>
       <c r="R27" t="s">
-        <v>116</v>
+        <v>152</v>
       </c>
       <c r="S27" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
     </row>
     <row r="28">
@@ -1990,58 +2091,56 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="C28" s="0">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D28" t="s">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="E28" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="F28" t="s">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="G28" t="s">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c r="H28" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="I28" t="s">
-        <v>101</v>
-      </c>
-      <c r="J28" s="0">
-        <v>2</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="J28" s="0"/>
       <c r="K28" t="s">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c r="L28" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="M28" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="N28" s="0">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="O28" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="P28" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="Q28" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="R28" t="s">
-        <v>116</v>
+        <v>152</v>
       </c>
       <c r="S28" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
     </row>
     <row r="29">
@@ -2049,58 +2148,56 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>68</v>
-      </c>
-      <c r="C29" s="0">
-        <v>42</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="C29" s="0"/>
       <c r="D29" t="s">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="E29" t="s">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="F29" t="s">
-        <v>90</v>
+        <v>117</v>
       </c>
       <c r="G29" t="s">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="H29" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="I29" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="J29" s="0">
         <v>6</v>
       </c>
       <c r="K29" t="s">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="L29" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="M29" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="N29" s="0">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="O29" t="s">
-        <v>101</v>
+        <v>127</v>
       </c>
       <c r="P29" t="s">
-        <v>101</v>
+        <v>127</v>
       </c>
       <c r="Q29" t="s">
-        <v>113</v>
+        <v>148</v>
       </c>
       <c r="R29" t="s">
-        <v>116</v>
+        <v>151</v>
       </c>
       <c r="S29" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
     </row>
     <row r="30">
@@ -2108,58 +2205,56 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="C30" s="0">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D30" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="E30" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="F30" t="s">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="G30" t="s">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c r="H30" t="s">
-        <v>101</v>
+        <v>134</v>
       </c>
       <c r="I30" t="s">
-        <v>101</v>
-      </c>
-      <c r="J30" s="0">
-        <v>6</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="J30" s="0"/>
       <c r="K30" t="s">
-        <v>98</v>
+        <v>128</v>
       </c>
       <c r="L30" t="s">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c r="M30" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="N30" s="0">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="O30" t="s">
-        <v>101</v>
+        <v>127</v>
       </c>
       <c r="P30" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="Q30" t="s">
-        <v>113</v>
+        <v>148</v>
       </c>
       <c r="R30" t="s">
-        <v>116</v>
+        <v>152</v>
       </c>
       <c r="S30" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
     </row>
     <row r="31">
@@ -2167,58 +2262,56 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>70</v>
-      </c>
-      <c r="C31" s="0">
-        <v>37</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="C31" s="0"/>
       <c r="D31" t="s">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="E31" t="s">
-        <v>86</v>
+        <v>112</v>
       </c>
       <c r="F31" t="s">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="G31" t="s">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="H31" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="I31" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="J31" s="0">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K31" t="s">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="L31" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="M31" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="N31" s="0">
         <v>7</v>
       </c>
       <c r="O31" t="s">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="P31" t="s">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="Q31" t="s">
-        <v>113</v>
+        <v>148</v>
       </c>
       <c r="R31" t="s">
-        <v>116</v>
+        <v>151</v>
       </c>
       <c r="S31" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
     </row>
     <row r="32">
@@ -2226,58 +2319,56 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="C32" s="0">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="D32" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="E32" t="s">
-        <v>85</v>
+        <v>114</v>
       </c>
       <c r="F32" t="s">
-        <v>90</v>
+        <v>123</v>
       </c>
       <c r="G32" t="s">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="H32" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="I32" t="s">
-        <v>101</v>
-      </c>
-      <c r="J32" s="0">
-        <v>5</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="J32" s="0"/>
       <c r="K32" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="L32" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="M32" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="N32" s="0">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="O32" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="P32" t="s">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="Q32" t="s">
-        <v>113</v>
+        <v>148</v>
       </c>
       <c r="R32" t="s">
-        <v>116</v>
+        <v>152</v>
       </c>
       <c r="S32" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
     </row>
     <row r="33">
@@ -2285,58 +2376,58 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="C33" s="0">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D33" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="E33" t="s">
-        <v>86</v>
+        <v>112</v>
       </c>
       <c r="F33" t="s">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="G33" t="s">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="H33" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="I33" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="J33" s="0">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K33" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="L33" t="s">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="M33" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="N33" s="0">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O33" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="P33" t="s">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="Q33" t="s">
-        <v>113</v>
+        <v>148</v>
       </c>
       <c r="R33" t="s">
-        <v>116</v>
+        <v>151</v>
       </c>
       <c r="S33" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
     </row>
     <row r="34">
@@ -2344,56 +2435,58 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="C34" s="0">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="D34" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="E34" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="F34" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="G34" t="s">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="H34" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="I34" t="s">
-        <v>99</v>
-      </c>
-      <c r="J34" s="0"/>
+        <v>128</v>
+      </c>
+      <c r="J34" s="0">
+        <v>5</v>
+      </c>
       <c r="K34" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="L34" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="M34" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="N34" s="0">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O34" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="P34" t="s">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="Q34" t="s">
-        <v>113</v>
+        <v>148</v>
       </c>
       <c r="R34" t="s">
-        <v>117</v>
+        <v>151</v>
       </c>
       <c r="S34" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
     </row>
     <row r="35">
@@ -2401,58 +2494,56 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="C35" s="0">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="D35" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="E35" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="F35" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="G35" t="s">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="H35" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="I35" t="s">
-        <v>101</v>
-      </c>
-      <c r="J35" s="0">
-        <v>8</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="J35" s="0"/>
       <c r="K35" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="L35" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="M35" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="N35" s="0">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="O35" t="s">
-        <v>101</v>
+        <v>127</v>
       </c>
       <c r="P35" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="Q35" t="s">
-        <v>113</v>
+        <v>148</v>
       </c>
       <c r="R35" t="s">
-        <v>116</v>
+        <v>152</v>
       </c>
       <c r="S35" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
     </row>
     <row r="36">
@@ -2460,58 +2551,56 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>75</v>
-      </c>
-      <c r="C36" s="0">
-        <v>24</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="C36" s="0"/>
       <c r="D36" t="s">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="E36" t="s">
-        <v>86</v>
+        <v>112</v>
       </c>
       <c r="F36" t="s">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="G36" t="s">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="H36" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="I36" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="J36" s="0">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K36" t="s">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="L36" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="M36" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="N36" s="0">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O36" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="P36" t="s">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="Q36" t="s">
-        <v>113</v>
+        <v>148</v>
       </c>
       <c r="R36" t="s">
-        <v>116</v>
+        <v>151</v>
       </c>
       <c r="S36" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
     </row>
     <row r="37">
@@ -2519,58 +2608,56 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="C37" s="0">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D37" t="s">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="E37" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="F37" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="G37" t="s">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c r="H37" t="s">
-        <v>101</v>
+        <v>135</v>
       </c>
       <c r="I37" t="s">
-        <v>101</v>
-      </c>
-      <c r="J37" s="0">
-        <v>3</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="J37" s="0"/>
       <c r="K37" t="s">
-        <v>98</v>
+        <v>128</v>
       </c>
       <c r="L37" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="M37" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="N37" s="0">
         <v>8</v>
       </c>
       <c r="O37" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="P37" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="Q37" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="R37" t="s">
-        <v>116</v>
+        <v>152</v>
       </c>
       <c r="S37" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
     </row>
     <row r="38">
@@ -2578,58 +2665,58 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="C38" s="0">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="D38" t="s">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="E38" t="s">
-        <v>85</v>
+        <v>112</v>
       </c>
       <c r="F38" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="G38" t="s">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="H38" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="I38" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="J38" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K38" t="s">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="L38" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="M38" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="N38" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O38" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="P38" t="s">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="Q38" t="s">
-        <v>113</v>
+        <v>149</v>
       </c>
       <c r="R38" t="s">
-        <v>116</v>
+        <v>151</v>
       </c>
       <c r="S38" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
     </row>
     <row r="39">
@@ -2637,58 +2724,56 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="C39" s="0">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="D39" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="E39" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="F39" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="G39" t="s">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c r="H39" t="s">
-        <v>101</v>
+        <v>136</v>
       </c>
       <c r="I39" t="s">
-        <v>101</v>
-      </c>
-      <c r="J39" s="0">
-        <v>4</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="J39" s="0"/>
       <c r="K39" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="L39" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="M39" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="N39" s="0">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O39" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="P39" t="s">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="Q39" t="s">
-        <v>113</v>
+        <v>148</v>
       </c>
       <c r="R39" t="s">
-        <v>116</v>
+        <v>152</v>
       </c>
       <c r="S39" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
     </row>
     <row r="40">
@@ -2696,58 +2781,819 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="C40" s="0">
+        <v>49</v>
+      </c>
+      <c r="D40" t="s">
+        <v>108</v>
+      </c>
+      <c r="E40" t="s">
+        <v>113</v>
+      </c>
+      <c r="F40" t="s">
+        <v>121</v>
+      </c>
+      <c r="G40" t="s">
+        <v>126</v>
+      </c>
+      <c r="H40" t="s">
+        <v>128</v>
+      </c>
+      <c r="I40" t="s">
+        <v>126</v>
+      </c>
+      <c r="J40" s="0"/>
+      <c r="K40" t="s">
+        <v>128</v>
+      </c>
+      <c r="L40" t="s">
+        <v>127</v>
+      </c>
+      <c r="M40" t="s">
+        <v>127</v>
+      </c>
+      <c r="N40" s="0">
+        <v>8</v>
+      </c>
+      <c r="O40" t="s">
+        <v>128</v>
+      </c>
+      <c r="P40" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>128</v>
+      </c>
+      <c r="R40" t="s">
+        <v>152</v>
+      </c>
+      <c r="S40" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>93</v>
+      </c>
+      <c r="C41" s="0">
+        <v>42</v>
+      </c>
+      <c r="D41" t="s">
+        <v>108</v>
+      </c>
+      <c r="E41" t="s">
+        <v>111</v>
+      </c>
+      <c r="F41" t="s">
+        <v>116</v>
+      </c>
+      <c r="G41" t="s">
+        <v>126</v>
+      </c>
+      <c r="H41" t="s">
+        <v>128</v>
+      </c>
+      <c r="I41" t="s">
+        <v>128</v>
+      </c>
+      <c r="J41" s="0">
+        <v>6</v>
+      </c>
+      <c r="K41" t="s">
+        <v>127</v>
+      </c>
+      <c r="L41" t="s">
+        <v>127</v>
+      </c>
+      <c r="M41" t="s">
+        <v>127</v>
+      </c>
+      <c r="N41" s="0">
+        <v>5</v>
+      </c>
+      <c r="O41" t="s">
+        <v>127</v>
+      </c>
+      <c r="P41" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>148</v>
+      </c>
+      <c r="R41" t="s">
+        <v>151</v>
+      </c>
+      <c r="S41" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>94</v>
+      </c>
+      <c r="C42" s="0">
+        <v>44</v>
+      </c>
+      <c r="D42" t="s">
+        <v>108</v>
+      </c>
+      <c r="E42" t="s">
+        <v>112</v>
+      </c>
+      <c r="F42" t="s">
+        <v>118</v>
+      </c>
+      <c r="G42" t="s">
+        <v>126</v>
+      </c>
+      <c r="H42" t="s">
+        <v>128</v>
+      </c>
+      <c r="I42" t="s">
+        <v>128</v>
+      </c>
+      <c r="J42" s="0">
+        <v>6</v>
+      </c>
+      <c r="K42" t="s">
+        <v>126</v>
+      </c>
+      <c r="L42" t="s">
+        <v>126</v>
+      </c>
+      <c r="M42" t="s">
+        <v>127</v>
+      </c>
+      <c r="N42" s="0">
+        <v>6</v>
+      </c>
+      <c r="O42" t="s">
+        <v>127</v>
+      </c>
+      <c r="P42" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>148</v>
+      </c>
+      <c r="R42" t="s">
+        <v>151</v>
+      </c>
+      <c r="S42" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>95</v>
+      </c>
+      <c r="C43" s="0">
+        <v>37</v>
+      </c>
+      <c r="D43" t="s">
+        <v>108</v>
+      </c>
+      <c r="E43" t="s">
+        <v>112</v>
+      </c>
+      <c r="F43" t="s">
+        <v>118</v>
+      </c>
+      <c r="G43" t="s">
+        <v>126</v>
+      </c>
+      <c r="H43" t="s">
+        <v>128</v>
+      </c>
+      <c r="I43" t="s">
+        <v>128</v>
+      </c>
+      <c r="J43" s="0">
+        <v>5</v>
+      </c>
+      <c r="K43" t="s">
+        <v>127</v>
+      </c>
+      <c r="L43" t="s">
+        <v>127</v>
+      </c>
+      <c r="M43" t="s">
+        <v>127</v>
+      </c>
+      <c r="N43" s="0">
+        <v>1</v>
+      </c>
+      <c r="O43" t="s">
+        <v>128</v>
+      </c>
+      <c r="P43" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>149</v>
+      </c>
+      <c r="R43" t="s">
+        <v>151</v>
+      </c>
+      <c r="S43" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>96</v>
+      </c>
+      <c r="C44" s="0">
+        <v>30</v>
+      </c>
+      <c r="D44" t="s">
+        <v>108</v>
+      </c>
+      <c r="E44" t="s">
+        <v>111</v>
+      </c>
+      <c r="F44" t="s">
+        <v>116</v>
+      </c>
+      <c r="G44" t="s">
+        <v>126</v>
+      </c>
+      <c r="H44" t="s">
+        <v>128</v>
+      </c>
+      <c r="I44" t="s">
+        <v>128</v>
+      </c>
+      <c r="J44" s="0">
+        <v>5</v>
+      </c>
+      <c r="K44" t="s">
+        <v>127</v>
+      </c>
+      <c r="L44" t="s">
+        <v>127</v>
+      </c>
+      <c r="M44" t="s">
+        <v>127</v>
+      </c>
+      <c r="N44" s="0">
+        <v>6</v>
+      </c>
+      <c r="O44" t="s">
+        <v>127</v>
+      </c>
+      <c r="P44" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>148</v>
+      </c>
+      <c r="R44" t="s">
+        <v>151</v>
+      </c>
+      <c r="S44" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>97</v>
+      </c>
+      <c r="C45" s="0">
+        <v>24</v>
+      </c>
+      <c r="D45" t="s">
+        <v>108</v>
+      </c>
+      <c r="E45" t="s">
+        <v>112</v>
+      </c>
+      <c r="F45" t="s">
+        <v>118</v>
+      </c>
+      <c r="G45" t="s">
+        <v>126</v>
+      </c>
+      <c r="H45" t="s">
+        <v>128</v>
+      </c>
+      <c r="I45" t="s">
+        <v>128</v>
+      </c>
+      <c r="J45" s="0">
+        <v>4</v>
+      </c>
+      <c r="K45" t="s">
+        <v>127</v>
+      </c>
+      <c r="L45" t="s">
+        <v>126</v>
+      </c>
+      <c r="M45" t="s">
+        <v>127</v>
+      </c>
+      <c r="N45" s="0">
+        <v>8</v>
+      </c>
+      <c r="O45" t="s">
+        <v>128</v>
+      </c>
+      <c r="P45" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>148</v>
+      </c>
+      <c r="R45" t="s">
+        <v>151</v>
+      </c>
+      <c r="S45" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>98</v>
+      </c>
+      <c r="C46" s="0">
+        <v>30</v>
+      </c>
+      <c r="D46" t="s">
+        <v>108</v>
+      </c>
+      <c r="E46" t="s">
+        <v>114</v>
+      </c>
+      <c r="F46" t="s">
+        <v>124</v>
+      </c>
+      <c r="G46" t="s">
+        <v>126</v>
+      </c>
+      <c r="H46" t="s">
+        <v>128</v>
+      </c>
+      <c r="I46" t="s">
+        <v>127</v>
+      </c>
+      <c r="J46" s="0"/>
+      <c r="K46" t="s">
+        <v>128</v>
+      </c>
+      <c r="L46" t="s">
+        <v>127</v>
+      </c>
+      <c r="M46" t="s">
+        <v>127</v>
+      </c>
+      <c r="N46" s="0">
+        <v>4</v>
+      </c>
+      <c r="O46" t="s">
+        <v>127</v>
+      </c>
+      <c r="P46" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>148</v>
+      </c>
+      <c r="R46" t="s">
+        <v>152</v>
+      </c>
+      <c r="S46" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>99</v>
+      </c>
+      <c r="C47" s="0">
+        <v>23</v>
+      </c>
+      <c r="D47" t="s">
+        <v>108</v>
+      </c>
+      <c r="E47" t="s">
+        <v>111</v>
+      </c>
+      <c r="F47" t="s">
+        <v>116</v>
+      </c>
+      <c r="G47" t="s">
+        <v>126</v>
+      </c>
+      <c r="H47" t="s">
+        <v>128</v>
+      </c>
+      <c r="I47" t="s">
+        <v>128</v>
+      </c>
+      <c r="J47" s="0">
+        <v>8</v>
+      </c>
+      <c r="K47" t="s">
+        <v>127</v>
+      </c>
+      <c r="L47" t="s">
+        <v>127</v>
+      </c>
+      <c r="M47" t="s">
+        <v>127</v>
+      </c>
+      <c r="N47" s="0">
+        <v>7</v>
+      </c>
+      <c r="O47" t="s">
+        <v>127</v>
+      </c>
+      <c r="P47" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>148</v>
+      </c>
+      <c r="R47" t="s">
+        <v>151</v>
+      </c>
+      <c r="S47" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>100</v>
+      </c>
+      <c r="C48" s="0">
+        <v>24</v>
+      </c>
+      <c r="D48" t="s">
+        <v>108</v>
+      </c>
+      <c r="E48" t="s">
+        <v>112</v>
+      </c>
+      <c r="F48" t="s">
+        <v>118</v>
+      </c>
+      <c r="G48" t="s">
+        <v>126</v>
+      </c>
+      <c r="H48" t="s">
+        <v>128</v>
+      </c>
+      <c r="I48" t="s">
+        <v>128</v>
+      </c>
+      <c r="J48" s="0">
+        <v>4</v>
+      </c>
+      <c r="K48" t="s">
+        <v>127</v>
+      </c>
+      <c r="L48" t="s">
+        <v>127</v>
+      </c>
+      <c r="M48" t="s">
+        <v>127</v>
+      </c>
+      <c r="N48" s="0">
+        <v>7</v>
+      </c>
+      <c r="O48" t="s">
+        <v>127</v>
+      </c>
+      <c r="P48" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>148</v>
+      </c>
+      <c r="R48" t="s">
+        <v>151</v>
+      </c>
+      <c r="S48" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>101</v>
+      </c>
+      <c r="C49" s="0">
+        <v>39</v>
+      </c>
+      <c r="D49" t="s">
+        <v>109</v>
+      </c>
+      <c r="E49" t="s">
+        <v>112</v>
+      </c>
+      <c r="F49" t="s">
+        <v>119</v>
+      </c>
+      <c r="G49" t="s">
+        <v>126</v>
+      </c>
+      <c r="H49" t="s">
+        <v>128</v>
+      </c>
+      <c r="I49" t="s">
+        <v>128</v>
+      </c>
+      <c r="J49" s="0">
+        <v>3</v>
+      </c>
+      <c r="K49" t="s">
+        <v>126</v>
+      </c>
+      <c r="L49" t="s">
+        <v>127</v>
+      </c>
+      <c r="M49" t="s">
+        <v>127</v>
+      </c>
+      <c r="N49" s="0">
+        <v>5</v>
+      </c>
+      <c r="O49" t="s">
+        <v>127</v>
+      </c>
+      <c r="P49" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>148</v>
+      </c>
+      <c r="R49" t="s">
+        <v>151</v>
+      </c>
+      <c r="S49" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>102</v>
+      </c>
+      <c r="C50" s="0">
+        <v>52</v>
+      </c>
+      <c r="D50" t="s">
+        <v>108</v>
+      </c>
+      <c r="E50" t="s">
+        <v>111</v>
+      </c>
+      <c r="F50" t="s">
+        <v>116</v>
+      </c>
+      <c r="G50" t="s">
+        <v>127</v>
+      </c>
+      <c r="H50" t="s">
+        <v>137</v>
+      </c>
+      <c r="I50" t="s">
+        <v>128</v>
+      </c>
+      <c r="J50" s="0">
+        <v>1</v>
+      </c>
+      <c r="K50" t="s">
+        <v>127</v>
+      </c>
+      <c r="L50" t="s">
+        <v>127</v>
+      </c>
+      <c r="M50" t="s">
+        <v>127</v>
+      </c>
+      <c r="N50" s="0">
+        <v>4</v>
+      </c>
+      <c r="O50" t="s">
+        <v>127</v>
+      </c>
+      <c r="P50" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>148</v>
+      </c>
+      <c r="R50" t="s">
+        <v>151</v>
+      </c>
+      <c r="S50" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>103</v>
+      </c>
+      <c r="C51" s="0">
+        <v>71</v>
+      </c>
+      <c r="D51" t="s">
+        <v>108</v>
+      </c>
+      <c r="E51" t="s">
+        <v>111</v>
+      </c>
+      <c r="F51" t="s">
+        <v>116</v>
+      </c>
+      <c r="G51" t="s">
+        <v>126</v>
+      </c>
+      <c r="H51" t="s">
+        <v>128</v>
+      </c>
+      <c r="I51" t="s">
+        <v>128</v>
+      </c>
+      <c r="J51" s="0">
+        <v>4</v>
+      </c>
+      <c r="K51" t="s">
+        <v>127</v>
+      </c>
+      <c r="L51" t="s">
+        <v>127</v>
+      </c>
+      <c r="M51" t="s">
+        <v>127</v>
+      </c>
+      <c r="N51" s="0">
+        <v>4</v>
+      </c>
+      <c r="O51" t="s">
+        <v>127</v>
+      </c>
+      <c r="P51" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>149</v>
+      </c>
+      <c r="R51" t="s">
+        <v>151</v>
+      </c>
+      <c r="S51" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>104</v>
+      </c>
+      <c r="C52" s="0">
+        <v>57</v>
+      </c>
+      <c r="D52" t="s">
+        <v>108</v>
+      </c>
+      <c r="E52" t="s">
+        <v>113</v>
+      </c>
+      <c r="F52" t="s">
+        <v>120</v>
+      </c>
+      <c r="G52" t="s">
+        <v>127</v>
+      </c>
+      <c r="H52" t="s">
+        <v>138</v>
+      </c>
+      <c r="I52" t="s">
+        <v>126</v>
+      </c>
+      <c r="J52" s="0"/>
+      <c r="K52" t="s">
+        <v>128</v>
+      </c>
+      <c r="L52" t="s">
+        <v>127</v>
+      </c>
+      <c r="M52" t="s">
+        <v>127</v>
+      </c>
+      <c r="N52" s="0">
+        <v>3</v>
+      </c>
+      <c r="O52" t="s">
+        <v>127</v>
+      </c>
+      <c r="P52" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>148</v>
+      </c>
+      <c r="R52" t="s">
+        <v>152</v>
+      </c>
+      <c r="S52" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>105</v>
+      </c>
+      <c r="C53" s="0">
         <v>22</v>
       </c>
-      <c r="D40" t="s">
-        <v>82</v>
-      </c>
-      <c r="E40" t="s">
-        <v>86</v>
-      </c>
-      <c r="F40" t="s">
-        <v>92</v>
-      </c>
-      <c r="G40" t="s">
-        <v>98</v>
-      </c>
-      <c r="H40" t="s">
-        <v>101</v>
-      </c>
-      <c r="I40" t="s">
-        <v>101</v>
-      </c>
-      <c r="J40" s="0">
+      <c r="D53" t="s">
+        <v>108</v>
+      </c>
+      <c r="E53" t="s">
+        <v>112</v>
+      </c>
+      <c r="F53" t="s">
+        <v>118</v>
+      </c>
+      <c r="G53" t="s">
+        <v>126</v>
+      </c>
+      <c r="H53" t="s">
+        <v>128</v>
+      </c>
+      <c r="I53" t="s">
+        <v>128</v>
+      </c>
+      <c r="J53" s="0">
         <v>5</v>
       </c>
-      <c r="K40" t="s">
-        <v>98</v>
-      </c>
-      <c r="L40" t="s">
-        <v>99</v>
-      </c>
-      <c r="M40" t="s">
-        <v>99</v>
-      </c>
-      <c r="N40" s="0">
-        <v>7</v>
-      </c>
-      <c r="O40" t="s">
-        <v>99</v>
-      </c>
-      <c r="P40" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q40" t="s">
-        <v>113</v>
-      </c>
-      <c r="R40" t="s">
-        <v>116</v>
-      </c>
-      <c r="S40" t="s">
-        <v>101</v>
+      <c r="K53" t="s">
+        <v>126</v>
+      </c>
+      <c r="L53" t="s">
+        <v>127</v>
+      </c>
+      <c r="M53" t="s">
+        <v>127</v>
+      </c>
+      <c r="N53" s="0">
+        <v>3</v>
+      </c>
+      <c r="O53" t="s">
+        <v>127</v>
+      </c>
+      <c r="P53" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>148</v>
+      </c>
+      <c r="R53" t="s">
+        <v>151</v>
+      </c>
+      <c r="S53" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/sempre_Presentes.xlsx
+++ b/sempre_Presentes.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1251" uniqueCount="209">
   <si>
     <t>ID</t>
   </si>
@@ -21,12 +21,24 @@
     <t>C_1051</t>
   </si>
   <si>
+    <t>C_1097</t>
+  </si>
+  <si>
+    <t>C_1169</t>
+  </si>
+  <si>
     <t>C_1053</t>
   </si>
   <si>
     <t>C_1054</t>
   </si>
   <si>
+    <t>C_1105</t>
+  </si>
+  <si>
+    <t>C_1090</t>
+  </si>
+  <si>
     <t>C_1019</t>
   </si>
   <si>
@@ -39,27 +51,57 @@
     <t>C_1057</t>
   </si>
   <si>
+    <t>C_1102</t>
+  </si>
+  <si>
+    <t>C_1156</t>
+  </si>
+  <si>
+    <t>C_1106</t>
+  </si>
+  <si>
     <t>C_1058</t>
   </si>
   <si>
+    <t>C_1167</t>
+  </si>
+  <si>
     <t>C_1004</t>
   </si>
   <si>
+    <t>C_1154</t>
+  </si>
+  <si>
     <t>C_1021</t>
   </si>
   <si>
+    <t>C_1140</t>
+  </si>
+  <si>
     <t>C_1078</t>
   </si>
   <si>
+    <t>C_1159</t>
+  </si>
+  <si>
     <t>C_1022</t>
   </si>
   <si>
+    <t>C_1088</t>
+  </si>
+  <si>
     <t>C_1071</t>
   </si>
   <si>
     <t>C_1023</t>
   </si>
   <si>
+    <t>C_1137</t>
+  </si>
+  <si>
+    <t>C_1108</t>
+  </si>
+  <si>
     <t>C_1035</t>
   </si>
   <si>
@@ -81,6 +123,9 @@
     <t>C_2000</t>
   </si>
   <si>
+    <t>C_1099</t>
+  </si>
+  <si>
     <t>C_1074</t>
   </si>
   <si>
@@ -96,9 +141,18 @@
     <t>C_1084</t>
   </si>
   <si>
+    <t>C_3001</t>
+  </si>
+  <si>
     <t>C_1122</t>
   </si>
   <si>
+    <t>C_1170</t>
+  </si>
+  <si>
+    <t>C_1087</t>
+  </si>
+  <si>
     <t>C_1028</t>
   </si>
   <si>
@@ -120,6 +174,12 @@
     <t>C_1073</t>
   </si>
   <si>
+    <t>C_1138</t>
+  </si>
+  <si>
+    <t>C_1107</t>
+  </si>
+  <si>
     <t>C_1015</t>
   </si>
   <si>
@@ -129,12 +189,18 @@
     <t>C_1010</t>
   </si>
   <si>
+    <t>C_3000</t>
+  </si>
+  <si>
     <t>C_1082</t>
   </si>
   <si>
     <t>C_1117</t>
   </si>
   <si>
+    <t>C_1136</t>
+  </si>
+  <si>
     <t>C_1064</t>
   </si>
   <si>
@@ -147,12 +213,18 @@
     <t>C_1065</t>
   </si>
   <si>
+    <t>C_3002</t>
+  </si>
+  <si>
     <t>C_1046</t>
   </si>
   <si>
     <t>C_1153</t>
   </si>
   <si>
+    <t>C_1072</t>
+  </si>
+  <si>
     <t>C_1067</t>
   </si>
   <si>
@@ -165,6 +237,9 @@
     <t>C_1068</t>
   </si>
   <si>
+    <t>C_1172</t>
+  </si>
+  <si>
     <t>C_1070</t>
   </si>
   <si>
@@ -180,12 +255,24 @@
     <t>ADAMO CAINDE</t>
   </si>
   <si>
+    <t>ADELIA MANUEL</t>
+  </si>
+  <si>
+    <t>AIRINE ANDRE</t>
+  </si>
+  <si>
     <t>AMADEU FURAI</t>
   </si>
   <si>
     <t>AMADEU TOMO</t>
   </si>
   <si>
+    <t>AMELIA DAVID BANDO</t>
+  </si>
+  <si>
+    <t>ANA MANGUIZA</t>
+  </si>
+  <si>
     <t>ANITA ARMANDO</t>
   </si>
   <si>
@@ -198,27 +285,57 @@
     <t>CANSSALO FELIZ</t>
   </si>
   <si>
+    <t>CATARINA ALBERTO</t>
+  </si>
+  <si>
+    <t>CATARINA SIMBISSONE</t>
+  </si>
+  <si>
+    <t>CECILIA CHAMUSSE</t>
+  </si>
+  <si>
     <t>CHADE BASTO</t>
   </si>
   <si>
+    <t>CRISTINA TAPARATSI</t>
+  </si>
+  <si>
     <t>DESTA ARMANDO</t>
   </si>
   <si>
+    <t>DIOLINDA DAVID</t>
+  </si>
+  <si>
     <t>DIONIZIA AIRONE CHAPO</t>
   </si>
   <si>
+    <t>DOCA ELIAS</t>
+  </si>
+  <si>
     <t>ELIAS JULAI</t>
   </si>
   <si>
+    <t>ESTA MATANDA</t>
+  </si>
+  <si>
     <t>FATIANCA PAULINHO</t>
   </si>
   <si>
+    <t>FATIMA SAIZE</t>
+  </si>
+  <si>
     <t>FERNANDO MURIRO</t>
   </si>
   <si>
     <t>FLORIANA RANDINHO</t>
   </si>
   <si>
+    <t>GLEDISSE PEDRO</t>
+  </si>
+  <si>
+    <t>GRECE ALBERTO SAIZE</t>
+  </si>
+  <si>
     <t>IBRAIMO JOSE</t>
   </si>
   <si>
@@ -240,6 +357,9 @@
     <t>LANGUITONE ZUZE</t>
   </si>
   <si>
+    <t>LAURINDA MATEUS SABONETE</t>
+  </si>
+  <si>
     <t>LAURINDA SABAO</t>
   </si>
   <si>
@@ -255,9 +375,18 @@
     <t>MANUEL BENJAMIM</t>
   </si>
   <si>
+    <t>MARIA SIMBULANE</t>
+  </si>
+  <si>
     <t>MARIO FERNANDO</t>
   </si>
   <si>
+    <t>MARTA ANDRE</t>
+  </si>
+  <si>
+    <t>MARTA BRAUNDE</t>
+  </si>
+  <si>
     <t>MELENIA PITA</t>
   </si>
   <si>
@@ -279,6 +408,12 @@
     <t>MOISES TAUNDE</t>
   </si>
   <si>
+    <t>NEIVES SIMBISSON</t>
+  </si>
+  <si>
+    <t>NORA JOAO</t>
+  </si>
+  <si>
     <t>NORINDA FRANCISCO</t>
   </si>
   <si>
@@ -288,12 +423,18 @@
     <t>RAQUEL ARMANDO</t>
   </si>
   <si>
+    <t>REGINA JEQUE</t>
+  </si>
+  <si>
     <t>ROBATE TAUNDE CHIGOROGORO</t>
   </si>
   <si>
     <t>ROBERTO SABAO</t>
   </si>
   <si>
+    <t>ROSA ROBETY</t>
+  </si>
+  <si>
     <t>ROSARIO CHICO</t>
   </si>
   <si>
@@ -306,12 +447,18 @@
     <t>SANTINHO TOMO</t>
   </si>
   <si>
+    <t>SARA SEDA</t>
+  </si>
+  <si>
     <t>SIMONE JOSE</t>
   </si>
   <si>
     <t>SITEN FILIPE</t>
   </si>
   <si>
+    <t>SOFIA ARMANDO</t>
+  </si>
+  <si>
     <t>TEMBO MOGUENE</t>
   </si>
   <si>
@@ -324,6 +471,9 @@
     <t>VENANCIO BASTO</t>
   </si>
   <si>
+    <t>VERONICA MOISES</t>
+  </si>
+  <si>
     <t>VICTOR LAZENE</t>
   </si>
   <si>
@@ -351,21 +501,30 @@
     <t>GORONGOSA-NHANGUCO</t>
   </si>
   <si>
+    <t>CHIMANIMANI-MPUNGA</t>
+  </si>
+  <si>
+    <t>CHIMANIMANI-MUSSAPA</t>
+  </si>
+  <si>
     <t>GORONGOSA-NHAMU</t>
   </si>
   <si>
-    <t>CHIMANIMANI-MPUNGA</t>
-  </si>
-  <si>
-    <t>CHIMANIMANI-MUSSAPA</t>
-  </si>
-  <si>
     <t>Turma</t>
   </si>
   <si>
     <t>H_2</t>
   </si>
   <si>
+    <t>AP-1</t>
+  </si>
+  <si>
+    <t>AP-4</t>
+  </si>
+  <si>
+    <t>AP-2</t>
+  </si>
+  <si>
     <t>M_2</t>
   </si>
   <si>
@@ -375,15 +534,15 @@
     <t>M_1</t>
   </si>
   <si>
+    <t>AP-3</t>
+  </si>
+  <si>
     <t>AP-5</t>
   </si>
   <si>
     <t>AP-6</t>
   </si>
   <si>
-    <t>AP-1</t>
-  </si>
-  <si>
     <t>AP-7</t>
   </si>
   <si>
@@ -417,6 +576,9 @@
     <t>FACILITADOR DO PARQUE</t>
   </si>
   <si>
+    <t>MEMBRO DA OMM</t>
+  </si>
+  <si>
     <t>LIDER RELIGIOSO E DE CERIMONIAS TRADICIONAIS</t>
   </si>
   <si>
@@ -424,6 +586,9 @@
   </si>
   <si>
     <t>CHEFE DE 10 CASAS</t>
+  </si>
+  <si>
+    <t>CHEFE DE 15 CASAS</t>
   </si>
   <si>
     <t>MEDICO TRADICIONAL</t>
@@ -518,7 +683,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S53"/>
+  <dimension ref="A1:S78"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -526,58 +691,58 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="C1" t="s">
-        <v>106</v>
+        <v>156</v>
       </c>
       <c r="D1" t="s">
-        <v>107</v>
+        <v>157</v>
       </c>
       <c r="E1" t="s">
-        <v>110</v>
+        <v>160</v>
       </c>
       <c r="F1" t="s">
-        <v>115</v>
+        <v>165</v>
       </c>
       <c r="G1" t="s">
-        <v>125</v>
+        <v>178</v>
       </c>
       <c r="H1" t="s">
-        <v>129</v>
+        <v>182</v>
       </c>
       <c r="I1" t="s">
-        <v>139</v>
+        <v>194</v>
       </c>
       <c r="J1" t="s">
-        <v>140</v>
+        <v>195</v>
       </c>
       <c r="K1" t="s">
-        <v>141</v>
+        <v>196</v>
       </c>
       <c r="L1" t="s">
-        <v>142</v>
+        <v>197</v>
       </c>
       <c r="M1" t="s">
-        <v>143</v>
+        <v>198</v>
       </c>
       <c r="N1" t="s">
-        <v>144</v>
+        <v>199</v>
       </c>
       <c r="O1" t="s">
-        <v>145</v>
+        <v>200</v>
       </c>
       <c r="P1" t="s">
-        <v>146</v>
+        <v>201</v>
       </c>
       <c r="Q1" t="s">
-        <v>147</v>
+        <v>202</v>
       </c>
       <c r="R1" t="s">
-        <v>150</v>
+        <v>205</v>
       </c>
       <c r="S1" t="s">
-        <v>153</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2">
@@ -585,58 +750,58 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="C2" s="0">
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>108</v>
+        <v>158</v>
       </c>
       <c r="E2" t="s">
-        <v>111</v>
+        <v>161</v>
       </c>
       <c r="F2" t="s">
-        <v>116</v>
+        <v>166</v>
       </c>
       <c r="G2" t="s">
-        <v>126</v>
+        <v>179</v>
       </c>
       <c r="H2" t="s">
-        <v>128</v>
+        <v>181</v>
       </c>
       <c r="I2" t="s">
-        <v>128</v>
+        <v>181</v>
       </c>
       <c r="J2" s="0">
         <v>6</v>
       </c>
       <c r="K2" t="s">
-        <v>127</v>
+        <v>180</v>
       </c>
       <c r="L2" t="s">
-        <v>127</v>
+        <v>180</v>
       </c>
       <c r="M2" t="s">
-        <v>127</v>
+        <v>180</v>
       </c>
       <c r="N2" s="0">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O2" t="s">
-        <v>128</v>
+        <v>180</v>
       </c>
       <c r="P2" t="s">
-        <v>128</v>
+        <v>180</v>
       </c>
       <c r="Q2" t="s">
-        <v>148</v>
+        <v>203</v>
       </c>
       <c r="R2" t="s">
-        <v>151</v>
+        <v>206</v>
       </c>
       <c r="S2" t="s">
-        <v>128</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3">
@@ -644,58 +809,54 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" s="0">
-        <v>62</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="C3" s="0"/>
       <c r="D3" t="s">
-        <v>108</v>
+        <v>159</v>
       </c>
       <c r="E3" t="s">
-        <v>111</v>
+        <v>162</v>
       </c>
       <c r="F3" t="s">
-        <v>116</v>
+        <v>167</v>
       </c>
       <c r="G3" t="s">
-        <v>126</v>
+        <v>179</v>
       </c>
       <c r="H3" t="s">
-        <v>128</v>
+        <v>181</v>
       </c>
       <c r="I3" t="s">
-        <v>128</v>
-      </c>
-      <c r="J3" s="0">
-        <v>1</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="J3" s="0"/>
       <c r="K3" t="s">
-        <v>127</v>
+        <v>180</v>
       </c>
       <c r="L3" t="s">
-        <v>127</v>
+        <v>180</v>
       </c>
       <c r="M3" t="s">
-        <v>127</v>
+        <v>180</v>
       </c>
       <c r="N3" s="0">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O3" t="s">
-        <v>127</v>
+        <v>180</v>
       </c>
       <c r="P3" t="s">
-        <v>127</v>
+        <v>179</v>
       </c>
       <c r="Q3" t="s">
-        <v>148</v>
+        <v>203</v>
       </c>
       <c r="R3" t="s">
-        <v>151</v>
+        <v>207</v>
       </c>
       <c r="S3" t="s">
-        <v>128</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4">
@@ -703,56 +864,58 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C4" s="0"/>
+        <v>81</v>
+      </c>
+      <c r="C4" s="0">
+        <v>37</v>
+      </c>
       <c r="D4" t="s">
-        <v>108</v>
+        <v>159</v>
       </c>
       <c r="E4" t="s">
-        <v>111</v>
+        <v>163</v>
       </c>
       <c r="F4" t="s">
-        <v>116</v>
+        <v>168</v>
       </c>
       <c r="G4" t="s">
-        <v>126</v>
+        <v>179</v>
       </c>
       <c r="H4" t="s">
-        <v>128</v>
+        <v>181</v>
       </c>
       <c r="I4" t="s">
-        <v>128</v>
+        <v>179</v>
       </c>
       <c r="J4" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>127</v>
+        <v>179</v>
       </c>
       <c r="L4" t="s">
-        <v>127</v>
+        <v>180</v>
       </c>
       <c r="M4" t="s">
-        <v>127</v>
+        <v>180</v>
       </c>
       <c r="N4" s="0">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="O4" t="s">
-        <v>127</v>
+        <v>180</v>
       </c>
       <c r="P4" t="s">
-        <v>127</v>
+        <v>180</v>
       </c>
       <c r="Q4" t="s">
-        <v>148</v>
+        <v>203</v>
       </c>
       <c r="R4" t="s">
-        <v>151</v>
+        <v>207</v>
       </c>
       <c r="S4" t="s">
-        <v>128</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5">
@@ -760,56 +923,58 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5" s="0"/>
+        <v>82</v>
+      </c>
+      <c r="C5" s="0">
+        <v>62</v>
+      </c>
       <c r="D5" t="s">
-        <v>109</v>
+        <v>158</v>
       </c>
       <c r="E5" t="s">
-        <v>112</v>
+        <v>161</v>
       </c>
       <c r="F5" t="s">
-        <v>117</v>
+        <v>166</v>
       </c>
       <c r="G5" t="s">
-        <v>126</v>
+        <v>179</v>
       </c>
       <c r="H5" t="s">
-        <v>128</v>
+        <v>181</v>
       </c>
       <c r="I5" t="s">
-        <v>128</v>
+        <v>181</v>
       </c>
       <c r="J5" s="0">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>126</v>
+        <v>180</v>
       </c>
       <c r="L5" t="s">
-        <v>127</v>
+        <v>180</v>
       </c>
       <c r="M5" t="s">
-        <v>127</v>
+        <v>180</v>
       </c>
       <c r="N5" s="0">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="O5" t="s">
-        <v>127</v>
+        <v>180</v>
       </c>
       <c r="P5" t="s">
-        <v>127</v>
+        <v>179</v>
       </c>
       <c r="Q5" t="s">
-        <v>148</v>
+        <v>203</v>
       </c>
       <c r="R5" t="s">
-        <v>151</v>
+        <v>206</v>
       </c>
       <c r="S5" t="s">
-        <v>128</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6">
@@ -817,58 +982,56 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C6" s="0">
-        <v>77</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="C6" s="0"/>
       <c r="D6" t="s">
-        <v>108</v>
+        <v>158</v>
       </c>
       <c r="E6" t="s">
-        <v>112</v>
+        <v>161</v>
       </c>
       <c r="F6" t="s">
-        <v>118</v>
+        <v>166</v>
       </c>
       <c r="G6" t="s">
-        <v>126</v>
+        <v>179</v>
       </c>
       <c r="H6" t="s">
-        <v>128</v>
+        <v>181</v>
       </c>
       <c r="I6" t="s">
-        <v>128</v>
+        <v>181</v>
       </c>
       <c r="J6" s="0">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K6" t="s">
-        <v>127</v>
+        <v>180</v>
       </c>
       <c r="L6" t="s">
-        <v>126</v>
+        <v>180</v>
       </c>
       <c r="M6" t="s">
-        <v>127</v>
+        <v>180</v>
       </c>
       <c r="N6" s="0">
         <v>3</v>
       </c>
       <c r="O6" t="s">
-        <v>127</v>
+        <v>180</v>
       </c>
       <c r="P6" t="s">
-        <v>127</v>
+        <v>179</v>
       </c>
       <c r="Q6" t="s">
-        <v>148</v>
+        <v>203</v>
       </c>
       <c r="R6" t="s">
-        <v>151</v>
+        <v>206</v>
       </c>
       <c r="S6" t="s">
-        <v>128</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7">
@@ -876,56 +1039,56 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C7" s="0"/>
+        <v>84</v>
+      </c>
+      <c r="C7" s="0">
+        <v>44</v>
+      </c>
       <c r="D7" t="s">
-        <v>109</v>
+        <v>159</v>
       </c>
       <c r="E7" t="s">
-        <v>112</v>
+        <v>162</v>
       </c>
       <c r="F7" t="s">
-        <v>119</v>
+        <v>169</v>
       </c>
       <c r="G7" t="s">
-        <v>127</v>
+        <v>179</v>
       </c>
       <c r="H7" t="s">
-        <v>130</v>
+        <v>181</v>
       </c>
       <c r="I7" t="s">
-        <v>128</v>
-      </c>
-      <c r="J7" s="0">
-        <v>2</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="J7" s="0"/>
       <c r="K7" t="s">
-        <v>126</v>
+        <v>179</v>
       </c>
       <c r="L7" t="s">
-        <v>127</v>
+        <v>179</v>
       </c>
       <c r="M7" t="s">
-        <v>127</v>
+        <v>180</v>
       </c>
       <c r="N7" s="0">
         <v>3</v>
       </c>
       <c r="O7" t="s">
-        <v>127</v>
+        <v>180</v>
       </c>
       <c r="P7" t="s">
-        <v>127</v>
+        <v>179</v>
       </c>
       <c r="Q7" t="s">
-        <v>148</v>
+        <v>203</v>
       </c>
       <c r="R7" t="s">
-        <v>151</v>
+        <v>207</v>
       </c>
       <c r="S7" t="s">
-        <v>128</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8">
@@ -933,58 +1096,54 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C8" s="0">
-        <v>30</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="C8" s="0"/>
       <c r="D8" t="s">
-        <v>108</v>
+        <v>159</v>
       </c>
       <c r="E8" t="s">
-        <v>111</v>
+        <v>162</v>
       </c>
       <c r="F8" t="s">
-        <v>116</v>
+        <v>167</v>
       </c>
       <c r="G8" t="s">
-        <v>126</v>
+        <v>179</v>
       </c>
       <c r="H8" t="s">
-        <v>128</v>
+        <v>181</v>
       </c>
       <c r="I8" t="s">
-        <v>128</v>
-      </c>
-      <c r="J8" s="0">
-        <v>8</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="J8" s="0"/>
       <c r="K8" t="s">
-        <v>127</v>
+        <v>179</v>
       </c>
       <c r="L8" t="s">
-        <v>127</v>
+        <v>179</v>
       </c>
       <c r="M8" t="s">
-        <v>127</v>
+        <v>180</v>
       </c>
       <c r="N8" s="0">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O8" t="s">
-        <v>128</v>
+        <v>180</v>
       </c>
       <c r="P8" t="s">
-        <v>128</v>
+        <v>180</v>
       </c>
       <c r="Q8" t="s">
-        <v>148</v>
+        <v>203</v>
       </c>
       <c r="R8" t="s">
-        <v>151</v>
+        <v>207</v>
       </c>
       <c r="S8" t="s">
-        <v>128</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9">
@@ -992,58 +1151,56 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C9" s="0">
-        <v>30</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="C9" s="0"/>
       <c r="D9" t="s">
-        <v>108</v>
+        <v>159</v>
       </c>
       <c r="E9" t="s">
-        <v>111</v>
+        <v>164</v>
       </c>
       <c r="F9" t="s">
-        <v>116</v>
+        <v>170</v>
       </c>
       <c r="G9" t="s">
-        <v>126</v>
+        <v>179</v>
       </c>
       <c r="H9" t="s">
-        <v>128</v>
+        <v>181</v>
       </c>
       <c r="I9" t="s">
-        <v>128</v>
+        <v>181</v>
       </c>
       <c r="J9" s="0">
         <v>7</v>
       </c>
       <c r="K9" t="s">
-        <v>127</v>
+        <v>179</v>
       </c>
       <c r="L9" t="s">
-        <v>127</v>
+        <v>180</v>
       </c>
       <c r="M9" t="s">
-        <v>127</v>
+        <v>180</v>
       </c>
       <c r="N9" s="0">
         <v>3</v>
       </c>
       <c r="O9" t="s">
-        <v>127</v>
+        <v>180</v>
       </c>
       <c r="P9" t="s">
-        <v>127</v>
+        <v>180</v>
       </c>
       <c r="Q9" t="s">
-        <v>148</v>
+        <v>203</v>
       </c>
       <c r="R9" t="s">
-        <v>151</v>
+        <v>206</v>
       </c>
       <c r="S9" t="s">
-        <v>128</v>
+        <v>181</v>
       </c>
     </row>
     <row r="10">
@@ -1051,56 +1208,58 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>62</v>
-      </c>
-      <c r="C10" s="0"/>
+        <v>87</v>
+      </c>
+      <c r="C10" s="0">
+        <v>77</v>
+      </c>
       <c r="D10" t="s">
-        <v>109</v>
+        <v>158</v>
       </c>
       <c r="E10" t="s">
-        <v>112</v>
+        <v>164</v>
       </c>
       <c r="F10" t="s">
-        <v>119</v>
+        <v>171</v>
       </c>
       <c r="G10" t="s">
-        <v>126</v>
+        <v>179</v>
       </c>
       <c r="H10" t="s">
-        <v>128</v>
+        <v>181</v>
       </c>
       <c r="I10" t="s">
-        <v>128</v>
+        <v>181</v>
       </c>
       <c r="J10" s="0">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K10" t="s">
-        <v>126</v>
+        <v>180</v>
       </c>
       <c r="L10" t="s">
-        <v>127</v>
+        <v>179</v>
       </c>
       <c r="M10" t="s">
-        <v>127</v>
+        <v>180</v>
       </c>
       <c r="N10" s="0">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O10" t="s">
-        <v>127</v>
+        <v>180</v>
       </c>
       <c r="P10" t="s">
-        <v>126</v>
+        <v>179</v>
       </c>
       <c r="Q10" t="s">
-        <v>149</v>
+        <v>203</v>
       </c>
       <c r="R10" t="s">
-        <v>151</v>
+        <v>206</v>
       </c>
       <c r="S10" t="s">
-        <v>128</v>
+        <v>181</v>
       </c>
     </row>
     <row r="11">
@@ -1108,58 +1267,56 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>63</v>
-      </c>
-      <c r="C11" s="0">
-        <v>55</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="C11" s="0"/>
       <c r="D11" t="s">
-        <v>109</v>
+        <v>159</v>
       </c>
       <c r="E11" t="s">
-        <v>111</v>
+        <v>164</v>
       </c>
       <c r="F11" t="s">
-        <v>117</v>
+        <v>172</v>
       </c>
       <c r="G11" t="s">
-        <v>126</v>
+        <v>180</v>
       </c>
       <c r="H11" t="s">
-        <v>128</v>
+        <v>183</v>
       </c>
       <c r="I11" t="s">
-        <v>128</v>
+        <v>181</v>
       </c>
       <c r="J11" s="0">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K11" t="s">
-        <v>127</v>
+        <v>179</v>
       </c>
       <c r="L11" t="s">
-        <v>126</v>
+        <v>180</v>
       </c>
       <c r="M11" t="s">
-        <v>127</v>
+        <v>180</v>
       </c>
       <c r="N11" s="0">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="O11" t="s">
-        <v>127</v>
+        <v>180</v>
       </c>
       <c r="P11" t="s">
-        <v>126</v>
+        <v>180</v>
       </c>
       <c r="Q11" t="s">
-        <v>148</v>
+        <v>203</v>
       </c>
       <c r="R11" t="s">
-        <v>151</v>
+        <v>206</v>
       </c>
       <c r="S11" t="s">
-        <v>128</v>
+        <v>181</v>
       </c>
     </row>
     <row r="12">
@@ -1167,56 +1324,58 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="C12" s="0">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="D12" t="s">
-        <v>108</v>
+        <v>158</v>
       </c>
       <c r="E12" t="s">
-        <v>113</v>
+        <v>161</v>
       </c>
       <c r="F12" t="s">
-        <v>120</v>
+        <v>166</v>
       </c>
       <c r="G12" t="s">
-        <v>126</v>
+        <v>179</v>
       </c>
       <c r="H12" t="s">
-        <v>128</v>
+        <v>181</v>
       </c>
       <c r="I12" t="s">
-        <v>126</v>
-      </c>
-      <c r="J12" s="0"/>
+        <v>181</v>
+      </c>
+      <c r="J12" s="0">
+        <v>8</v>
+      </c>
       <c r="K12" t="s">
-        <v>128</v>
+        <v>180</v>
       </c>
       <c r="L12" t="s">
-        <v>127</v>
+        <v>180</v>
       </c>
       <c r="M12" t="s">
-        <v>127</v>
+        <v>180</v>
       </c>
       <c r="N12" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O12" t="s">
-        <v>127</v>
+        <v>180</v>
       </c>
       <c r="P12" t="s">
-        <v>127</v>
+        <v>179</v>
       </c>
       <c r="Q12" t="s">
-        <v>148</v>
+        <v>203</v>
       </c>
       <c r="R12" t="s">
-        <v>152</v>
+        <v>206</v>
       </c>
       <c r="S12" t="s">
-        <v>128</v>
+        <v>181</v>
       </c>
     </row>
     <row r="13">
@@ -1224,58 +1383,54 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>65</v>
-      </c>
-      <c r="C13" s="0">
-        <v>69</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="C13" s="0"/>
       <c r="D13" t="s">
-        <v>109</v>
+        <v>159</v>
       </c>
       <c r="E13" t="s">
-        <v>111</v>
+        <v>162</v>
       </c>
       <c r="F13" t="s">
-        <v>117</v>
+        <v>167</v>
       </c>
       <c r="G13" t="s">
-        <v>126</v>
+        <v>179</v>
       </c>
       <c r="H13" t="s">
-        <v>128</v>
+        <v>181</v>
       </c>
       <c r="I13" t="s">
-        <v>128</v>
-      </c>
-      <c r="J13" s="0">
+        <v>179</v>
+      </c>
+      <c r="J13" s="0"/>
+      <c r="K13" t="s">
+        <v>180</v>
+      </c>
+      <c r="L13" t="s">
+        <v>180</v>
+      </c>
+      <c r="M13" t="s">
+        <v>180</v>
+      </c>
+      <c r="N13" s="0">
         <v>8</v>
       </c>
-      <c r="K13" t="s">
-        <v>127</v>
-      </c>
-      <c r="L13" t="s">
-        <v>126</v>
-      </c>
-      <c r="M13" t="s">
-        <v>127</v>
-      </c>
-      <c r="N13" s="0">
-        <v>7</v>
-      </c>
       <c r="O13" t="s">
-        <v>127</v>
+        <v>179</v>
       </c>
       <c r="P13" t="s">
-        <v>126</v>
+        <v>179</v>
       </c>
       <c r="Q13" t="s">
-        <v>148</v>
+        <v>203</v>
       </c>
       <c r="R13" t="s">
-        <v>151</v>
+        <v>207</v>
       </c>
       <c r="S13" t="s">
-        <v>128</v>
+        <v>181</v>
       </c>
     </row>
     <row r="14">
@@ -1283,56 +1438,58 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="C14" s="0">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D14" t="s">
-        <v>108</v>
+        <v>159</v>
       </c>
       <c r="E14" t="s">
-        <v>113</v>
+        <v>163</v>
       </c>
       <c r="F14" t="s">
-        <v>120</v>
+        <v>173</v>
       </c>
       <c r="G14" t="s">
-        <v>127</v>
+        <v>179</v>
       </c>
       <c r="H14" t="s">
-        <v>131</v>
+        <v>181</v>
       </c>
       <c r="I14" t="s">
-        <v>127</v>
-      </c>
-      <c r="J14" s="0"/>
+        <v>179</v>
+      </c>
+      <c r="J14" s="0">
+        <v>5</v>
+      </c>
       <c r="K14" t="s">
-        <v>128</v>
+        <v>179</v>
       </c>
       <c r="L14" t="s">
-        <v>127</v>
+        <v>180</v>
       </c>
       <c r="M14" t="s">
-        <v>127</v>
+        <v>180</v>
       </c>
       <c r="N14" s="0">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="O14" t="s">
-        <v>128</v>
+        <v>179</v>
       </c>
       <c r="P14" t="s">
-        <v>128</v>
+        <v>179</v>
       </c>
       <c r="Q14" t="s">
-        <v>148</v>
+        <v>203</v>
       </c>
       <c r="R14" t="s">
-        <v>152</v>
+        <v>207</v>
       </c>
       <c r="S14" t="s">
-        <v>128</v>
+        <v>181</v>
       </c>
     </row>
     <row r="15">
@@ -1340,58 +1497,54 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>67</v>
-      </c>
-      <c r="C15" s="0">
-        <v>54</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="C15" s="0"/>
       <c r="D15" t="s">
-        <v>109</v>
+        <v>159</v>
       </c>
       <c r="E15" t="s">
-        <v>111</v>
+        <v>162</v>
       </c>
       <c r="F15" t="s">
-        <v>117</v>
+        <v>169</v>
       </c>
       <c r="G15" t="s">
-        <v>126</v>
+        <v>179</v>
       </c>
       <c r="H15" t="s">
-        <v>128</v>
+        <v>181</v>
       </c>
       <c r="I15" t="s">
-        <v>128</v>
-      </c>
-      <c r="J15" s="0">
-        <v>5</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="J15" s="0"/>
       <c r="K15" t="s">
-        <v>127</v>
+        <v>179</v>
       </c>
       <c r="L15" t="s">
-        <v>127</v>
+        <v>180</v>
       </c>
       <c r="M15" t="s">
-        <v>127</v>
+        <v>180</v>
       </c>
       <c r="N15" s="0">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="O15" t="s">
-        <v>128</v>
+        <v>180</v>
       </c>
       <c r="P15" t="s">
-        <v>128</v>
+        <v>179</v>
       </c>
       <c r="Q15" t="s">
-        <v>148</v>
+        <v>203</v>
       </c>
       <c r="R15" t="s">
-        <v>151</v>
+        <v>207</v>
       </c>
       <c r="S15" t="s">
-        <v>128</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16">
@@ -1399,58 +1552,58 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="C16" s="0">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D16" t="s">
-        <v>108</v>
+        <v>158</v>
       </c>
       <c r="E16" t="s">
-        <v>112</v>
+        <v>161</v>
       </c>
       <c r="F16" t="s">
-        <v>118</v>
+        <v>166</v>
       </c>
       <c r="G16" t="s">
-        <v>126</v>
+        <v>179</v>
       </c>
       <c r="H16" t="s">
-        <v>128</v>
+        <v>181</v>
       </c>
       <c r="I16" t="s">
-        <v>128</v>
+        <v>181</v>
       </c>
       <c r="J16" s="0">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K16" t="s">
-        <v>127</v>
+        <v>180</v>
       </c>
       <c r="L16" t="s">
-        <v>126</v>
+        <v>180</v>
       </c>
       <c r="M16" t="s">
-        <v>127</v>
+        <v>180</v>
       </c>
       <c r="N16" s="0">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="O16" t="s">
-        <v>128</v>
+        <v>180</v>
       </c>
       <c r="P16" t="s">
-        <v>128</v>
+        <v>180</v>
       </c>
       <c r="Q16" t="s">
-        <v>148</v>
+        <v>203</v>
       </c>
       <c r="R16" t="s">
-        <v>151</v>
+        <v>206</v>
       </c>
       <c r="S16" t="s">
-        <v>128</v>
+        <v>181</v>
       </c>
     </row>
     <row r="17">
@@ -1458,58 +1611,58 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="C17" s="0">
         <v>43</v>
       </c>
       <c r="D17" t="s">
-        <v>109</v>
+        <v>159</v>
       </c>
       <c r="E17" t="s">
-        <v>111</v>
+        <v>163</v>
       </c>
       <c r="F17" t="s">
-        <v>117</v>
+        <v>168</v>
       </c>
       <c r="G17" t="s">
-        <v>126</v>
+        <v>179</v>
       </c>
       <c r="H17" t="s">
-        <v>128</v>
+        <v>181</v>
       </c>
       <c r="I17" t="s">
-        <v>128</v>
+        <v>179</v>
       </c>
       <c r="J17" s="0">
         <v>1</v>
       </c>
       <c r="K17" t="s">
-        <v>127</v>
+        <v>179</v>
       </c>
       <c r="L17" t="s">
-        <v>126</v>
+        <v>179</v>
       </c>
       <c r="M17" t="s">
-        <v>127</v>
+        <v>180</v>
       </c>
       <c r="N17" s="0">
         <v>8</v>
       </c>
       <c r="O17" t="s">
-        <v>128</v>
+        <v>179</v>
       </c>
       <c r="P17" t="s">
-        <v>128</v>
+        <v>179</v>
       </c>
       <c r="Q17" t="s">
-        <v>148</v>
+        <v>203</v>
       </c>
       <c r="R17" t="s">
-        <v>151</v>
+        <v>207</v>
       </c>
       <c r="S17" t="s">
-        <v>128</v>
+        <v>181</v>
       </c>
     </row>
     <row r="18">
@@ -1517,56 +1670,56 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="C18" s="0"/>
       <c r="D18" t="s">
-        <v>109</v>
+        <v>159</v>
       </c>
       <c r="E18" t="s">
-        <v>112</v>
+        <v>164</v>
       </c>
       <c r="F18" t="s">
-        <v>119</v>
+        <v>172</v>
       </c>
       <c r="G18" t="s">
-        <v>126</v>
+        <v>179</v>
       </c>
       <c r="H18" t="s">
-        <v>128</v>
+        <v>181</v>
       </c>
       <c r="I18" t="s">
-        <v>128</v>
+        <v>181</v>
       </c>
       <c r="J18" s="0">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K18" t="s">
-        <v>126</v>
+        <v>179</v>
       </c>
       <c r="L18" t="s">
-        <v>127</v>
+        <v>180</v>
       </c>
       <c r="M18" t="s">
-        <v>127</v>
+        <v>180</v>
       </c>
       <c r="N18" s="0">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="O18" t="s">
-        <v>128</v>
+        <v>180</v>
       </c>
       <c r="P18" t="s">
-        <v>128</v>
+        <v>179</v>
       </c>
       <c r="Q18" t="s">
-        <v>148</v>
+        <v>203</v>
       </c>
       <c r="R18" t="s">
-        <v>151</v>
+        <v>206</v>
       </c>
       <c r="S18" t="s">
-        <v>128</v>
+        <v>181</v>
       </c>
     </row>
     <row r="19">
@@ -1574,56 +1727,58 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="C19" s="0">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="D19" t="s">
-        <v>108</v>
+        <v>159</v>
       </c>
       <c r="E19" t="s">
-        <v>113</v>
+        <v>163</v>
       </c>
       <c r="F19" t="s">
-        <v>121</v>
+        <v>173</v>
       </c>
       <c r="G19" t="s">
-        <v>126</v>
+        <v>179</v>
       </c>
       <c r="H19" t="s">
-        <v>128</v>
+        <v>181</v>
       </c>
       <c r="I19" t="s">
-        <v>126</v>
-      </c>
-      <c r="J19" s="0"/>
+        <v>179</v>
+      </c>
+      <c r="J19" s="0">
+        <v>5</v>
+      </c>
       <c r="K19" t="s">
-        <v>128</v>
+        <v>179</v>
       </c>
       <c r="L19" t="s">
-        <v>127</v>
+        <v>180</v>
       </c>
       <c r="M19" t="s">
-        <v>127</v>
+        <v>180</v>
       </c>
       <c r="N19" s="0">
         <v>2</v>
       </c>
       <c r="O19" t="s">
-        <v>127</v>
+        <v>180</v>
       </c>
       <c r="P19" t="s">
-        <v>128</v>
+        <v>181</v>
       </c>
       <c r="Q19" t="s">
-        <v>148</v>
+        <v>203</v>
       </c>
       <c r="R19" t="s">
-        <v>152</v>
+        <v>207</v>
       </c>
       <c r="S19" t="s">
-        <v>128</v>
+        <v>181</v>
       </c>
     </row>
     <row r="20">
@@ -1631,56 +1786,58 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="C20" s="0">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="D20" t="s">
-        <v>108</v>
+        <v>159</v>
       </c>
       <c r="E20" t="s">
-        <v>113</v>
+        <v>161</v>
       </c>
       <c r="F20" t="s">
-        <v>120</v>
+        <v>170</v>
       </c>
       <c r="G20" t="s">
-        <v>127</v>
+        <v>179</v>
       </c>
       <c r="H20" t="s">
-        <v>132</v>
+        <v>181</v>
       </c>
       <c r="I20" t="s">
-        <v>127</v>
-      </c>
-      <c r="J20" s="0"/>
+        <v>181</v>
+      </c>
+      <c r="J20" s="0">
+        <v>6</v>
+      </c>
       <c r="K20" t="s">
-        <v>126</v>
+        <v>180</v>
       </c>
       <c r="L20" t="s">
-        <v>127</v>
+        <v>179</v>
       </c>
       <c r="M20" t="s">
-        <v>127</v>
+        <v>180</v>
       </c>
       <c r="N20" s="0">
         <v>1</v>
       </c>
       <c r="O20" t="s">
-        <v>128</v>
+        <v>181</v>
       </c>
       <c r="P20" t="s">
-        <v>128</v>
+        <v>181</v>
       </c>
       <c r="Q20" t="s">
-        <v>148</v>
+        <v>203</v>
       </c>
       <c r="R20" t="s">
-        <v>152</v>
+        <v>206</v>
       </c>
       <c r="S20" t="s">
-        <v>128</v>
+        <v>181</v>
       </c>
     </row>
     <row r="21">
@@ -1688,56 +1845,58 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="C21" s="0">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="D21" t="s">
-        <v>108</v>
+        <v>159</v>
       </c>
       <c r="E21" t="s">
-        <v>113</v>
+        <v>163</v>
       </c>
       <c r="F21" t="s">
-        <v>121</v>
+        <v>173</v>
       </c>
       <c r="G21" t="s">
-        <v>126</v>
+        <v>179</v>
       </c>
       <c r="H21" t="s">
-        <v>128</v>
+        <v>181</v>
       </c>
       <c r="I21" t="s">
-        <v>126</v>
-      </c>
-      <c r="J21" s="0"/>
+        <v>179</v>
+      </c>
+      <c r="J21" s="0">
+        <v>5</v>
+      </c>
       <c r="K21" t="s">
-        <v>128</v>
+        <v>179</v>
       </c>
       <c r="L21" t="s">
-        <v>128</v>
+        <v>180</v>
       </c>
       <c r="M21" t="s">
-        <v>127</v>
+        <v>180</v>
       </c>
       <c r="N21" s="0">
         <v>3</v>
       </c>
       <c r="O21" t="s">
-        <v>127</v>
+        <v>180</v>
       </c>
       <c r="P21" t="s">
-        <v>126</v>
+        <v>179</v>
       </c>
       <c r="Q21" t="s">
-        <v>148</v>
+        <v>203</v>
       </c>
       <c r="R21" t="s">
-        <v>152</v>
+        <v>207</v>
       </c>
       <c r="S21" t="s">
-        <v>128</v>
+        <v>181</v>
       </c>
     </row>
     <row r="22">
@@ -1745,58 +1904,56 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="C22" s="0">
         <v>60</v>
       </c>
       <c r="D22" t="s">
-        <v>108</v>
+        <v>158</v>
       </c>
       <c r="E22" t="s">
-        <v>112</v>
+        <v>162</v>
       </c>
       <c r="F22" t="s">
-        <v>118</v>
+        <v>174</v>
       </c>
       <c r="G22" t="s">
-        <v>126</v>
+        <v>179</v>
       </c>
       <c r="H22" t="s">
-        <v>128</v>
+        <v>181</v>
       </c>
       <c r="I22" t="s">
-        <v>128</v>
-      </c>
-      <c r="J22" s="0">
-        <v>7</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="J22" s="0"/>
       <c r="K22" t="s">
-        <v>126</v>
+        <v>181</v>
       </c>
       <c r="L22" t="s">
-        <v>127</v>
+        <v>180</v>
       </c>
       <c r="M22" t="s">
-        <v>127</v>
+        <v>180</v>
       </c>
       <c r="N22" s="0">
         <v>4</v>
       </c>
       <c r="O22" t="s">
-        <v>127</v>
+        <v>180</v>
       </c>
       <c r="P22" t="s">
-        <v>126</v>
+        <v>179</v>
       </c>
       <c r="Q22" t="s">
-        <v>148</v>
+        <v>203</v>
       </c>
       <c r="R22" t="s">
-        <v>151</v>
+        <v>207</v>
       </c>
       <c r="S22" t="s">
-        <v>128</v>
+        <v>181</v>
       </c>
     </row>
     <row r="23">
@@ -1804,56 +1961,56 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>75</v>
-      </c>
-      <c r="C23" s="0">
-        <v>50</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="C23" s="0"/>
       <c r="D23" t="s">
-        <v>109</v>
+        <v>159</v>
       </c>
       <c r="E23" t="s">
-        <v>113</v>
+        <v>163</v>
       </c>
       <c r="F23" t="s">
-        <v>122</v>
+        <v>173</v>
       </c>
       <c r="G23" t="s">
-        <v>126</v>
+        <v>179</v>
       </c>
       <c r="H23" t="s">
-        <v>128</v>
+        <v>181</v>
       </c>
       <c r="I23" t="s">
-        <v>126</v>
-      </c>
-      <c r="J23" s="0"/>
+        <v>179</v>
+      </c>
+      <c r="J23" s="0">
+        <v>3</v>
+      </c>
       <c r="K23" t="s">
-        <v>126</v>
+        <v>179</v>
       </c>
       <c r="L23" t="s">
-        <v>127</v>
+        <v>179</v>
       </c>
       <c r="M23" t="s">
-        <v>127</v>
+        <v>180</v>
       </c>
       <c r="N23" s="0">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O23" t="s">
-        <v>127</v>
+        <v>180</v>
       </c>
       <c r="P23" t="s">
-        <v>126</v>
+        <v>181</v>
       </c>
       <c r="Q23" t="s">
-        <v>148</v>
+        <v>203</v>
       </c>
       <c r="R23" t="s">
-        <v>152</v>
+        <v>207</v>
       </c>
       <c r="S23" t="s">
-        <v>128</v>
+        <v>181</v>
       </c>
     </row>
     <row r="24">
@@ -1861,56 +2018,58 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>76</v>
-      </c>
-      <c r="C24" s="0"/>
+        <v>101</v>
+      </c>
+      <c r="C24" s="0">
+        <v>69</v>
+      </c>
       <c r="D24" t="s">
-        <v>109</v>
+        <v>159</v>
       </c>
       <c r="E24" t="s">
-        <v>111</v>
+        <v>161</v>
       </c>
       <c r="F24" t="s">
-        <v>117</v>
+        <v>170</v>
       </c>
       <c r="G24" t="s">
-        <v>126</v>
+        <v>179</v>
       </c>
       <c r="H24" t="s">
-        <v>128</v>
+        <v>181</v>
       </c>
       <c r="I24" t="s">
-        <v>128</v>
+        <v>181</v>
       </c>
       <c r="J24" s="0">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K24" t="s">
-        <v>126</v>
+        <v>180</v>
       </c>
       <c r="L24" t="s">
-        <v>126</v>
+        <v>179</v>
       </c>
       <c r="M24" t="s">
-        <v>127</v>
+        <v>180</v>
       </c>
       <c r="N24" s="0">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O24" t="s">
-        <v>127</v>
+        <v>180</v>
       </c>
       <c r="P24" t="s">
-        <v>126</v>
+        <v>180</v>
       </c>
       <c r="Q24" t="s">
-        <v>148</v>
+        <v>203</v>
       </c>
       <c r="R24" t="s">
-        <v>151</v>
+        <v>206</v>
       </c>
       <c r="S24" t="s">
-        <v>128</v>
+        <v>181</v>
       </c>
     </row>
     <row r="25">
@@ -1918,58 +2077,56 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="C25" s="0">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="D25" t="s">
-        <v>109</v>
+        <v>159</v>
       </c>
       <c r="E25" t="s">
-        <v>112</v>
+        <v>162</v>
       </c>
       <c r="F25" t="s">
-        <v>119</v>
+        <v>167</v>
       </c>
       <c r="G25" t="s">
-        <v>126</v>
+        <v>179</v>
       </c>
       <c r="H25" t="s">
-        <v>128</v>
+        <v>181</v>
       </c>
       <c r="I25" t="s">
-        <v>128</v>
-      </c>
-      <c r="J25" s="0">
+        <v>179</v>
+      </c>
+      <c r="J25" s="0"/>
+      <c r="K25" t="s">
+        <v>180</v>
+      </c>
+      <c r="L25" t="s">
+        <v>179</v>
+      </c>
+      <c r="M25" t="s">
+        <v>180</v>
+      </c>
+      <c r="N25" s="0">
         <v>5</v>
       </c>
-      <c r="K25" t="s">
-        <v>126</v>
-      </c>
-      <c r="L25" t="s">
-        <v>127</v>
-      </c>
-      <c r="M25" t="s">
-        <v>127</v>
-      </c>
-      <c r="N25" s="0">
-        <v>3</v>
-      </c>
       <c r="O25" t="s">
-        <v>127</v>
+        <v>180</v>
       </c>
       <c r="P25" t="s">
-        <v>126</v>
+        <v>180</v>
       </c>
       <c r="Q25" t="s">
-        <v>149</v>
+        <v>203</v>
       </c>
       <c r="R25" t="s">
-        <v>151</v>
+        <v>207</v>
       </c>
       <c r="S25" t="s">
-        <v>128</v>
+        <v>181</v>
       </c>
     </row>
     <row r="26">
@@ -1977,56 +2134,56 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>78</v>
-      </c>
-      <c r="C26" s="0"/>
+        <v>103</v>
+      </c>
+      <c r="C26" s="0">
+        <v>62</v>
+      </c>
       <c r="D26" t="s">
-        <v>109</v>
+        <v>158</v>
       </c>
       <c r="E26" t="s">
-        <v>111</v>
+        <v>162</v>
       </c>
       <c r="F26" t="s">
-        <v>117</v>
+        <v>174</v>
       </c>
       <c r="G26" t="s">
-        <v>126</v>
+        <v>180</v>
       </c>
       <c r="H26" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="I26" t="s">
-        <v>128</v>
-      </c>
-      <c r="J26" s="0">
-        <v>3</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="J26" s="0"/>
       <c r="K26" t="s">
-        <v>126</v>
+        <v>181</v>
       </c>
       <c r="L26" t="s">
-        <v>127</v>
+        <v>180</v>
       </c>
       <c r="M26" t="s">
-        <v>127</v>
+        <v>180</v>
       </c>
       <c r="N26" s="0">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O26" t="s">
-        <v>127</v>
+        <v>181</v>
       </c>
       <c r="P26" t="s">
-        <v>126</v>
+        <v>181</v>
       </c>
       <c r="Q26" t="s">
-        <v>148</v>
+        <v>203</v>
       </c>
       <c r="R26" t="s">
-        <v>151</v>
+        <v>207</v>
       </c>
       <c r="S26" t="s">
-        <v>128</v>
+        <v>181</v>
       </c>
     </row>
     <row r="27">
@@ -2034,56 +2191,58 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="C27" s="0">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="D27" t="s">
-        <v>108</v>
+        <v>159</v>
       </c>
       <c r="E27" t="s">
-        <v>113</v>
+        <v>161</v>
       </c>
       <c r="F27" t="s">
-        <v>120</v>
+        <v>170</v>
       </c>
       <c r="G27" t="s">
-        <v>128</v>
+        <v>179</v>
       </c>
       <c r="H27" t="s">
-        <v>128</v>
+        <v>181</v>
       </c>
       <c r="I27" t="s">
-        <v>127</v>
-      </c>
-      <c r="J27" s="0"/>
+        <v>181</v>
+      </c>
+      <c r="J27" s="0">
+        <v>5</v>
+      </c>
       <c r="K27" t="s">
-        <v>128</v>
+        <v>180</v>
       </c>
       <c r="L27" t="s">
-        <v>127</v>
+        <v>180</v>
       </c>
       <c r="M27" t="s">
-        <v>127</v>
+        <v>180</v>
       </c>
       <c r="N27" s="0">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O27" t="s">
-        <v>127</v>
+        <v>180</v>
       </c>
       <c r="P27" t="s">
-        <v>127</v>
+        <v>179</v>
       </c>
       <c r="Q27" t="s">
-        <v>148</v>
+        <v>203</v>
       </c>
       <c r="R27" t="s">
-        <v>152</v>
+        <v>206</v>
       </c>
       <c r="S27" t="s">
-        <v>128</v>
+        <v>181</v>
       </c>
     </row>
     <row r="28">
@@ -2091,56 +2250,58 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="C28" s="0">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="D28" t="s">
-        <v>108</v>
+        <v>159</v>
       </c>
       <c r="E28" t="s">
-        <v>113</v>
+        <v>163</v>
       </c>
       <c r="F28" t="s">
-        <v>121</v>
+        <v>173</v>
       </c>
       <c r="G28" t="s">
-        <v>127</v>
+        <v>179</v>
       </c>
       <c r="H28" t="s">
-        <v>133</v>
+        <v>181</v>
       </c>
       <c r="I28" t="s">
-        <v>126</v>
-      </c>
-      <c r="J28" s="0"/>
+        <v>180</v>
+      </c>
+      <c r="J28" s="0">
+        <v>5</v>
+      </c>
       <c r="K28" t="s">
-        <v>127</v>
+        <v>179</v>
       </c>
       <c r="L28" t="s">
-        <v>127</v>
+        <v>180</v>
       </c>
       <c r="M28" t="s">
-        <v>127</v>
+        <v>180</v>
       </c>
       <c r="N28" s="0">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O28" t="s">
-        <v>128</v>
+        <v>180</v>
       </c>
       <c r="P28" t="s">
-        <v>128</v>
+        <v>179</v>
       </c>
       <c r="Q28" t="s">
-        <v>128</v>
+        <v>203</v>
       </c>
       <c r="R28" t="s">
-        <v>152</v>
+        <v>207</v>
       </c>
       <c r="S28" t="s">
-        <v>128</v>
+        <v>181</v>
       </c>
     </row>
     <row r="29">
@@ -2148,56 +2309,56 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>81</v>
-      </c>
-      <c r="C29" s="0"/>
+        <v>106</v>
+      </c>
+      <c r="C29" s="0">
+        <v>20</v>
+      </c>
       <c r="D29" t="s">
-        <v>109</v>
+        <v>159</v>
       </c>
       <c r="E29" t="s">
-        <v>111</v>
+        <v>162</v>
       </c>
       <c r="F29" t="s">
-        <v>117</v>
+        <v>169</v>
       </c>
       <c r="G29" t="s">
-        <v>126</v>
+        <v>179</v>
       </c>
       <c r="H29" t="s">
-        <v>128</v>
+        <v>181</v>
       </c>
       <c r="I29" t="s">
-        <v>128</v>
-      </c>
-      <c r="J29" s="0">
-        <v>6</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="J29" s="0"/>
       <c r="K29" t="s">
-        <v>126</v>
+        <v>180</v>
       </c>
       <c r="L29" t="s">
-        <v>127</v>
+        <v>180</v>
       </c>
       <c r="M29" t="s">
-        <v>127</v>
+        <v>180</v>
       </c>
       <c r="N29" s="0">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O29" t="s">
-        <v>127</v>
+        <v>180</v>
       </c>
       <c r="P29" t="s">
-        <v>127</v>
+        <v>181</v>
       </c>
       <c r="Q29" t="s">
-        <v>148</v>
+        <v>204</v>
       </c>
       <c r="R29" t="s">
-        <v>151</v>
+        <v>207</v>
       </c>
       <c r="S29" t="s">
-        <v>128</v>
+        <v>181</v>
       </c>
     </row>
     <row r="30">
@@ -2205,56 +2366,58 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="C30" s="0">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="D30" t="s">
-        <v>108</v>
+        <v>158</v>
       </c>
       <c r="E30" t="s">
-        <v>113</v>
+        <v>164</v>
       </c>
       <c r="F30" t="s">
-        <v>120</v>
+        <v>171</v>
       </c>
       <c r="G30" t="s">
-        <v>127</v>
+        <v>179</v>
       </c>
       <c r="H30" t="s">
-        <v>134</v>
+        <v>181</v>
       </c>
       <c r="I30" t="s">
-        <v>127</v>
-      </c>
-      <c r="J30" s="0"/>
+        <v>181</v>
+      </c>
+      <c r="J30" s="0">
+        <v>8</v>
+      </c>
       <c r="K30" t="s">
-        <v>128</v>
+        <v>180</v>
       </c>
       <c r="L30" t="s">
-        <v>127</v>
+        <v>179</v>
       </c>
       <c r="M30" t="s">
-        <v>127</v>
+        <v>180</v>
       </c>
       <c r="N30" s="0">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O30" t="s">
-        <v>127</v>
+        <v>180</v>
       </c>
       <c r="P30" t="s">
-        <v>126</v>
+        <v>179</v>
       </c>
       <c r="Q30" t="s">
-        <v>148</v>
+        <v>203</v>
       </c>
       <c r="R30" t="s">
-        <v>152</v>
+        <v>206</v>
       </c>
       <c r="S30" t="s">
-        <v>128</v>
+        <v>181</v>
       </c>
     </row>
     <row r="31">
@@ -2262,56 +2425,58 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>83</v>
-      </c>
-      <c r="C31" s="0"/>
+        <v>108</v>
+      </c>
+      <c r="C31" s="0">
+        <v>43</v>
+      </c>
       <c r="D31" t="s">
-        <v>109</v>
+        <v>159</v>
       </c>
       <c r="E31" t="s">
-        <v>112</v>
+        <v>161</v>
       </c>
       <c r="F31" t="s">
-        <v>119</v>
+        <v>170</v>
       </c>
       <c r="G31" t="s">
-        <v>126</v>
+        <v>179</v>
       </c>
       <c r="H31" t="s">
-        <v>128</v>
+        <v>181</v>
       </c>
       <c r="I31" t="s">
-        <v>128</v>
+        <v>181</v>
       </c>
       <c r="J31" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K31" t="s">
-        <v>126</v>
+        <v>180</v>
       </c>
       <c r="L31" t="s">
-        <v>127</v>
+        <v>179</v>
       </c>
       <c r="M31" t="s">
-        <v>127</v>
+        <v>180</v>
       </c>
       <c r="N31" s="0">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="O31" t="s">
-        <v>126</v>
+        <v>180</v>
       </c>
       <c r="P31" t="s">
-        <v>126</v>
+        <v>180</v>
       </c>
       <c r="Q31" t="s">
-        <v>148</v>
+        <v>203</v>
       </c>
       <c r="R31" t="s">
-        <v>151</v>
+        <v>206</v>
       </c>
       <c r="S31" t="s">
-        <v>128</v>
+        <v>181</v>
       </c>
     </row>
     <row r="32">
@@ -2319,56 +2484,56 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>84</v>
-      </c>
-      <c r="C32" s="0">
-        <v>65</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="C32" s="0"/>
       <c r="D32" t="s">
-        <v>108</v>
+        <v>159</v>
       </c>
       <c r="E32" t="s">
-        <v>114</v>
+        <v>164</v>
       </c>
       <c r="F32" t="s">
-        <v>123</v>
+        <v>172</v>
       </c>
       <c r="G32" t="s">
-        <v>126</v>
+        <v>179</v>
       </c>
       <c r="H32" t="s">
-        <v>128</v>
+        <v>181</v>
       </c>
       <c r="I32" t="s">
-        <v>126</v>
-      </c>
-      <c r="J32" s="0"/>
+        <v>181</v>
+      </c>
+      <c r="J32" s="0">
+        <v>2</v>
+      </c>
       <c r="K32" t="s">
-        <v>128</v>
+        <v>179</v>
       </c>
       <c r="L32" t="s">
-        <v>127</v>
+        <v>180</v>
       </c>
       <c r="M32" t="s">
-        <v>127</v>
+        <v>180</v>
       </c>
       <c r="N32" s="0">
         <v>7</v>
       </c>
       <c r="O32" t="s">
-        <v>127</v>
+        <v>180</v>
       </c>
       <c r="P32" t="s">
-        <v>126</v>
+        <v>180</v>
       </c>
       <c r="Q32" t="s">
-        <v>148</v>
+        <v>203</v>
       </c>
       <c r="R32" t="s">
-        <v>152</v>
+        <v>206</v>
       </c>
       <c r="S32" t="s">
-        <v>128</v>
+        <v>181</v>
       </c>
     </row>
     <row r="33">
@@ -2376,58 +2541,56 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="C33" s="0">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="D33" t="s">
-        <v>108</v>
+        <v>158</v>
       </c>
       <c r="E33" t="s">
-        <v>112</v>
+        <v>162</v>
       </c>
       <c r="F33" t="s">
-        <v>118</v>
+        <v>175</v>
       </c>
       <c r="G33" t="s">
-        <v>126</v>
+        <v>179</v>
       </c>
       <c r="H33" t="s">
-        <v>128</v>
+        <v>181</v>
       </c>
       <c r="I33" t="s">
-        <v>128</v>
-      </c>
-      <c r="J33" s="0">
-        <v>6</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="J33" s="0"/>
       <c r="K33" t="s">
-        <v>127</v>
+        <v>181</v>
       </c>
       <c r="L33" t="s">
-        <v>126</v>
+        <v>180</v>
       </c>
       <c r="M33" t="s">
-        <v>127</v>
+        <v>180</v>
       </c>
       <c r="N33" s="0">
         <v>6</v>
       </c>
       <c r="O33" t="s">
-        <v>127</v>
+        <v>179</v>
       </c>
       <c r="P33" t="s">
-        <v>126</v>
+        <v>179</v>
       </c>
       <c r="Q33" t="s">
-        <v>148</v>
+        <v>203</v>
       </c>
       <c r="R33" t="s">
-        <v>151</v>
+        <v>207</v>
       </c>
       <c r="S33" t="s">
-        <v>128</v>
+        <v>181</v>
       </c>
     </row>
     <row r="34">
@@ -2435,58 +2598,56 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
       <c r="C34" s="0">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="D34" t="s">
-        <v>108</v>
+        <v>158</v>
       </c>
       <c r="E34" t="s">
-        <v>112</v>
+        <v>162</v>
       </c>
       <c r="F34" t="s">
-        <v>118</v>
+        <v>174</v>
       </c>
       <c r="G34" t="s">
-        <v>126</v>
+        <v>180</v>
       </c>
       <c r="H34" t="s">
-        <v>128</v>
+        <v>185</v>
       </c>
       <c r="I34" t="s">
-        <v>128</v>
-      </c>
-      <c r="J34" s="0">
+        <v>180</v>
+      </c>
+      <c r="J34" s="0"/>
+      <c r="K34" t="s">
+        <v>179</v>
+      </c>
+      <c r="L34" t="s">
+        <v>180</v>
+      </c>
+      <c r="M34" t="s">
+        <v>180</v>
+      </c>
+      <c r="N34" s="0">
         <v>5</v>
       </c>
-      <c r="K34" t="s">
-        <v>126</v>
-      </c>
-      <c r="L34" t="s">
-        <v>127</v>
-      </c>
-      <c r="M34" t="s">
-        <v>127</v>
-      </c>
-      <c r="N34" s="0">
-        <v>4</v>
-      </c>
       <c r="O34" t="s">
-        <v>127</v>
+        <v>180</v>
       </c>
       <c r="P34" t="s">
-        <v>126</v>
+        <v>179</v>
       </c>
       <c r="Q34" t="s">
-        <v>148</v>
+        <v>203</v>
       </c>
       <c r="R34" t="s">
-        <v>151</v>
+        <v>207</v>
       </c>
       <c r="S34" t="s">
-        <v>128</v>
+        <v>181</v>
       </c>
     </row>
     <row r="35">
@@ -2494,56 +2655,56 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="C35" s="0">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D35" t="s">
-        <v>108</v>
+        <v>158</v>
       </c>
       <c r="E35" t="s">
-        <v>113</v>
+        <v>162</v>
       </c>
       <c r="F35" t="s">
-        <v>120</v>
+        <v>175</v>
       </c>
       <c r="G35" t="s">
-        <v>126</v>
+        <v>179</v>
       </c>
       <c r="H35" t="s">
-        <v>128</v>
+        <v>181</v>
       </c>
       <c r="I35" t="s">
-        <v>126</v>
+        <v>179</v>
       </c>
       <c r="J35" s="0"/>
       <c r="K35" t="s">
-        <v>128</v>
+        <v>181</v>
       </c>
       <c r="L35" t="s">
-        <v>127</v>
+        <v>181</v>
       </c>
       <c r="M35" t="s">
-        <v>127</v>
+        <v>180</v>
       </c>
       <c r="N35" s="0">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O35" t="s">
-        <v>127</v>
+        <v>181</v>
       </c>
       <c r="P35" t="s">
-        <v>126</v>
+        <v>181</v>
       </c>
       <c r="Q35" t="s">
-        <v>148</v>
+        <v>203</v>
       </c>
       <c r="R35" t="s">
-        <v>152</v>
+        <v>207</v>
       </c>
       <c r="S35" t="s">
-        <v>128</v>
+        <v>181</v>
       </c>
     </row>
     <row r="36">
@@ -2551,56 +2712,58 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>88</v>
-      </c>
-      <c r="C36" s="0"/>
+        <v>113</v>
+      </c>
+      <c r="C36" s="0">
+        <v>60</v>
+      </c>
       <c r="D36" t="s">
-        <v>109</v>
+        <v>158</v>
       </c>
       <c r="E36" t="s">
-        <v>112</v>
+        <v>164</v>
       </c>
       <c r="F36" t="s">
-        <v>119</v>
+        <v>171</v>
       </c>
       <c r="G36" t="s">
-        <v>126</v>
+        <v>179</v>
       </c>
       <c r="H36" t="s">
-        <v>128</v>
+        <v>181</v>
       </c>
       <c r="I36" t="s">
-        <v>128</v>
+        <v>181</v>
       </c>
       <c r="J36" s="0">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K36" t="s">
-        <v>126</v>
+        <v>179</v>
       </c>
       <c r="L36" t="s">
-        <v>127</v>
+        <v>180</v>
       </c>
       <c r="M36" t="s">
-        <v>127</v>
+        <v>180</v>
       </c>
       <c r="N36" s="0">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O36" t="s">
-        <v>127</v>
+        <v>180</v>
       </c>
       <c r="P36" t="s">
-        <v>126</v>
+        <v>179</v>
       </c>
       <c r="Q36" t="s">
-        <v>148</v>
+        <v>203</v>
       </c>
       <c r="R36" t="s">
-        <v>151</v>
+        <v>206</v>
       </c>
       <c r="S36" t="s">
-        <v>128</v>
+        <v>181</v>
       </c>
     </row>
     <row r="37">
@@ -2608,56 +2771,54 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>89</v>
-      </c>
-      <c r="C37" s="0">
-        <v>38</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="C37" s="0"/>
       <c r="D37" t="s">
-        <v>108</v>
+        <v>159</v>
       </c>
       <c r="E37" t="s">
-        <v>113</v>
+        <v>162</v>
       </c>
       <c r="F37" t="s">
-        <v>120</v>
+        <v>167</v>
       </c>
       <c r="G37" t="s">
-        <v>127</v>
+        <v>179</v>
       </c>
       <c r="H37" t="s">
-        <v>135</v>
+        <v>181</v>
       </c>
       <c r="I37" t="s">
-        <v>127</v>
+        <v>179</v>
       </c>
       <c r="J37" s="0"/>
       <c r="K37" t="s">
-        <v>128</v>
+        <v>179</v>
       </c>
       <c r="L37" t="s">
-        <v>127</v>
+        <v>180</v>
       </c>
       <c r="M37" t="s">
-        <v>127</v>
+        <v>180</v>
       </c>
       <c r="N37" s="0">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O37" t="s">
-        <v>128</v>
+        <v>180</v>
       </c>
       <c r="P37" t="s">
-        <v>128</v>
+        <v>179</v>
       </c>
       <c r="Q37" t="s">
-        <v>128</v>
+        <v>204</v>
       </c>
       <c r="R37" t="s">
-        <v>152</v>
+        <v>207</v>
       </c>
       <c r="S37" t="s">
-        <v>128</v>
+        <v>181</v>
       </c>
     </row>
     <row r="38">
@@ -2665,58 +2826,56 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="C38" s="0">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="D38" t="s">
-        <v>109</v>
+        <v>159</v>
       </c>
       <c r="E38" t="s">
-        <v>112</v>
+        <v>162</v>
       </c>
       <c r="F38" t="s">
-        <v>119</v>
+        <v>167</v>
       </c>
       <c r="G38" t="s">
-        <v>126</v>
+        <v>179</v>
       </c>
       <c r="H38" t="s">
-        <v>128</v>
+        <v>181</v>
       </c>
       <c r="I38" t="s">
-        <v>128</v>
-      </c>
-      <c r="J38" s="0">
-        <v>2</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="J38" s="0"/>
       <c r="K38" t="s">
-        <v>126</v>
+        <v>179</v>
       </c>
       <c r="L38" t="s">
-        <v>127</v>
+        <v>180</v>
       </c>
       <c r="M38" t="s">
-        <v>127</v>
+        <v>180</v>
       </c>
       <c r="N38" s="0">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O38" t="s">
-        <v>127</v>
+        <v>180</v>
       </c>
       <c r="P38" t="s">
-        <v>126</v>
+        <v>179</v>
       </c>
       <c r="Q38" t="s">
-        <v>149</v>
+        <v>203</v>
       </c>
       <c r="R38" t="s">
-        <v>151</v>
+        <v>207</v>
       </c>
       <c r="S38" t="s">
-        <v>128</v>
+        <v>181</v>
       </c>
     </row>
     <row r="39">
@@ -2724,56 +2883,56 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>91</v>
-      </c>
-      <c r="C39" s="0">
-        <v>52</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="C39" s="0"/>
       <c r="D39" t="s">
-        <v>108</v>
+        <v>159</v>
       </c>
       <c r="E39" t="s">
-        <v>113</v>
+        <v>161</v>
       </c>
       <c r="F39" t="s">
-        <v>120</v>
+        <v>170</v>
       </c>
       <c r="G39" t="s">
-        <v>127</v>
+        <v>179</v>
       </c>
       <c r="H39" t="s">
-        <v>136</v>
+        <v>181</v>
       </c>
       <c r="I39" t="s">
-        <v>126</v>
-      </c>
-      <c r="J39" s="0"/>
+        <v>181</v>
+      </c>
+      <c r="J39" s="0">
+        <v>5</v>
+      </c>
       <c r="K39" t="s">
-        <v>128</v>
+        <v>179</v>
       </c>
       <c r="L39" t="s">
-        <v>127</v>
+        <v>179</v>
       </c>
       <c r="M39" t="s">
-        <v>127</v>
+        <v>180</v>
       </c>
       <c r="N39" s="0">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O39" t="s">
-        <v>127</v>
+        <v>180</v>
       </c>
       <c r="P39" t="s">
-        <v>126</v>
+        <v>179</v>
       </c>
       <c r="Q39" t="s">
-        <v>148</v>
+        <v>203</v>
       </c>
       <c r="R39" t="s">
-        <v>152</v>
+        <v>206</v>
       </c>
       <c r="S39" t="s">
-        <v>128</v>
+        <v>181</v>
       </c>
     </row>
     <row r="40">
@@ -2781,56 +2940,58 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>92</v>
+        <v>117</v>
       </c>
       <c r="C40" s="0">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="D40" t="s">
-        <v>108</v>
+        <v>159</v>
       </c>
       <c r="E40" t="s">
-        <v>113</v>
+        <v>164</v>
       </c>
       <c r="F40" t="s">
-        <v>121</v>
+        <v>172</v>
       </c>
       <c r="G40" t="s">
-        <v>126</v>
+        <v>179</v>
       </c>
       <c r="H40" t="s">
-        <v>128</v>
+        <v>181</v>
       </c>
       <c r="I40" t="s">
-        <v>126</v>
-      </c>
-      <c r="J40" s="0"/>
+        <v>181</v>
+      </c>
+      <c r="J40" s="0">
+        <v>5</v>
+      </c>
       <c r="K40" t="s">
-        <v>128</v>
+        <v>179</v>
       </c>
       <c r="L40" t="s">
-        <v>127</v>
+        <v>180</v>
       </c>
       <c r="M40" t="s">
-        <v>127</v>
+        <v>180</v>
       </c>
       <c r="N40" s="0">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="O40" t="s">
-        <v>128</v>
+        <v>180</v>
       </c>
       <c r="P40" t="s">
-        <v>128</v>
+        <v>179</v>
       </c>
       <c r="Q40" t="s">
-        <v>128</v>
+        <v>203</v>
       </c>
       <c r="R40" t="s">
-        <v>152</v>
+        <v>206</v>
       </c>
       <c r="S40" t="s">
-        <v>128</v>
+        <v>181</v>
       </c>
     </row>
     <row r="41">
@@ -2838,58 +2999,56 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>93</v>
-      </c>
-      <c r="C41" s="0">
-        <v>42</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="C41" s="0"/>
       <c r="D41" t="s">
-        <v>108</v>
+        <v>159</v>
       </c>
       <c r="E41" t="s">
-        <v>111</v>
+        <v>161</v>
       </c>
       <c r="F41" t="s">
-        <v>116</v>
+        <v>170</v>
       </c>
       <c r="G41" t="s">
-        <v>126</v>
+        <v>179</v>
       </c>
       <c r="H41" t="s">
-        <v>128</v>
+        <v>181</v>
       </c>
       <c r="I41" t="s">
-        <v>128</v>
+        <v>181</v>
       </c>
       <c r="J41" s="0">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K41" t="s">
-        <v>127</v>
+        <v>179</v>
       </c>
       <c r="L41" t="s">
-        <v>127</v>
+        <v>180</v>
       </c>
       <c r="M41" t="s">
-        <v>127</v>
+        <v>180</v>
       </c>
       <c r="N41" s="0">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="O41" t="s">
-        <v>127</v>
+        <v>181</v>
       </c>
       <c r="P41" t="s">
-        <v>126</v>
+        <v>181</v>
       </c>
       <c r="Q41" t="s">
-        <v>148</v>
+        <v>203</v>
       </c>
       <c r="R41" t="s">
-        <v>151</v>
+        <v>206</v>
       </c>
       <c r="S41" t="s">
-        <v>128</v>
+        <v>181</v>
       </c>
     </row>
     <row r="42">
@@ -2897,58 +3056,56 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>94</v>
+        <v>119</v>
       </c>
       <c r="C42" s="0">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D42" t="s">
-        <v>108</v>
+        <v>158</v>
       </c>
       <c r="E42" t="s">
-        <v>112</v>
+        <v>162</v>
       </c>
       <c r="F42" t="s">
-        <v>118</v>
+        <v>174</v>
       </c>
       <c r="G42" t="s">
-        <v>126</v>
+        <v>181</v>
       </c>
       <c r="H42" t="s">
-        <v>128</v>
+        <v>181</v>
       </c>
       <c r="I42" t="s">
-        <v>128</v>
-      </c>
-      <c r="J42" s="0">
-        <v>6</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="J42" s="0"/>
       <c r="K42" t="s">
-        <v>126</v>
+        <v>181</v>
       </c>
       <c r="L42" t="s">
-        <v>126</v>
+        <v>180</v>
       </c>
       <c r="M42" t="s">
-        <v>127</v>
+        <v>180</v>
       </c>
       <c r="N42" s="0">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O42" t="s">
-        <v>127</v>
+        <v>180</v>
       </c>
       <c r="P42" t="s">
-        <v>127</v>
+        <v>180</v>
       </c>
       <c r="Q42" t="s">
-        <v>148</v>
+        <v>203</v>
       </c>
       <c r="R42" t="s">
-        <v>151</v>
+        <v>207</v>
       </c>
       <c r="S42" t="s">
-        <v>128</v>
+        <v>181</v>
       </c>
     </row>
     <row r="43">
@@ -2956,58 +3113,54 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>95</v>
-      </c>
-      <c r="C43" s="0">
-        <v>37</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="C43" s="0"/>
       <c r="D43" t="s">
-        <v>108</v>
+        <v>159</v>
       </c>
       <c r="E43" t="s">
-        <v>112</v>
+        <v>162</v>
       </c>
       <c r="F43" t="s">
-        <v>118</v>
+        <v>169</v>
       </c>
       <c r="G43" t="s">
-        <v>126</v>
+        <v>179</v>
       </c>
       <c r="H43" t="s">
-        <v>128</v>
+        <v>181</v>
       </c>
       <c r="I43" t="s">
-        <v>128</v>
-      </c>
-      <c r="J43" s="0">
+        <v>179</v>
+      </c>
+      <c r="J43" s="0"/>
+      <c r="K43" t="s">
+        <v>180</v>
+      </c>
+      <c r="L43" t="s">
+        <v>180</v>
+      </c>
+      <c r="M43" t="s">
+        <v>180</v>
+      </c>
+      <c r="N43" s="0">
         <v>5</v>
       </c>
-      <c r="K43" t="s">
-        <v>127</v>
-      </c>
-      <c r="L43" t="s">
-        <v>127</v>
-      </c>
-      <c r="M43" t="s">
-        <v>127</v>
-      </c>
-      <c r="N43" s="0">
-        <v>1</v>
-      </c>
       <c r="O43" t="s">
-        <v>128</v>
+        <v>180</v>
       </c>
       <c r="P43" t="s">
-        <v>128</v>
+        <v>179</v>
       </c>
       <c r="Q43" t="s">
-        <v>149</v>
+        <v>203</v>
       </c>
       <c r="R43" t="s">
-        <v>151</v>
+        <v>207</v>
       </c>
       <c r="S43" t="s">
-        <v>128</v>
+        <v>181</v>
       </c>
     </row>
     <row r="44">
@@ -3015,58 +3168,56 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="C44" s="0">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D44" t="s">
-        <v>108</v>
+        <v>158</v>
       </c>
       <c r="E44" t="s">
-        <v>111</v>
+        <v>162</v>
       </c>
       <c r="F44" t="s">
-        <v>116</v>
+        <v>175</v>
       </c>
       <c r="G44" t="s">
-        <v>126</v>
+        <v>180</v>
       </c>
       <c r="H44" t="s">
-        <v>128</v>
+        <v>186</v>
       </c>
       <c r="I44" t="s">
-        <v>128</v>
-      </c>
-      <c r="J44" s="0">
-        <v>5</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="J44" s="0"/>
       <c r="K44" t="s">
-        <v>127</v>
+        <v>180</v>
       </c>
       <c r="L44" t="s">
-        <v>127</v>
+        <v>180</v>
       </c>
       <c r="M44" t="s">
-        <v>127</v>
+        <v>180</v>
       </c>
       <c r="N44" s="0">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O44" t="s">
-        <v>127</v>
+        <v>180</v>
       </c>
       <c r="P44" t="s">
-        <v>126</v>
+        <v>179</v>
       </c>
       <c r="Q44" t="s">
-        <v>148</v>
+        <v>203</v>
       </c>
       <c r="R44" t="s">
-        <v>151</v>
+        <v>207</v>
       </c>
       <c r="S44" t="s">
-        <v>128</v>
+        <v>181</v>
       </c>
     </row>
     <row r="45">
@@ -3074,58 +3225,58 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>97</v>
+        <v>122</v>
       </c>
       <c r="C45" s="0">
         <v>24</v>
       </c>
       <c r="D45" t="s">
-        <v>108</v>
+        <v>159</v>
       </c>
       <c r="E45" t="s">
-        <v>112</v>
+        <v>163</v>
       </c>
       <c r="F45" t="s">
-        <v>118</v>
+        <v>168</v>
       </c>
       <c r="G45" t="s">
-        <v>126</v>
+        <v>179</v>
       </c>
       <c r="H45" t="s">
-        <v>128</v>
+        <v>181</v>
       </c>
       <c r="I45" t="s">
-        <v>128</v>
+        <v>179</v>
       </c>
       <c r="J45" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K45" t="s">
-        <v>127</v>
+        <v>179</v>
       </c>
       <c r="L45" t="s">
-        <v>126</v>
+        <v>180</v>
       </c>
       <c r="M45" t="s">
-        <v>127</v>
+        <v>180</v>
       </c>
       <c r="N45" s="0">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="O45" t="s">
-        <v>128</v>
+        <v>181</v>
       </c>
       <c r="P45" t="s">
-        <v>128</v>
+        <v>181</v>
       </c>
       <c r="Q45" t="s">
-        <v>148</v>
+        <v>204</v>
       </c>
       <c r="R45" t="s">
-        <v>151</v>
+        <v>207</v>
       </c>
       <c r="S45" t="s">
-        <v>128</v>
+        <v>181</v>
       </c>
     </row>
     <row r="46">
@@ -3133,56 +3284,56 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>98</v>
-      </c>
-      <c r="C46" s="0">
-        <v>30</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="C46" s="0"/>
       <c r="D46" t="s">
-        <v>108</v>
+        <v>159</v>
       </c>
       <c r="E46" t="s">
-        <v>114</v>
+        <v>162</v>
       </c>
       <c r="F46" t="s">
-        <v>124</v>
+        <v>167</v>
       </c>
       <c r="G46" t="s">
-        <v>126</v>
+        <v>180</v>
       </c>
       <c r="H46" t="s">
-        <v>128</v>
+        <v>187</v>
       </c>
       <c r="I46" t="s">
-        <v>127</v>
-      </c>
-      <c r="J46" s="0"/>
+        <v>180</v>
+      </c>
+      <c r="J46" s="0">
+        <v>5</v>
+      </c>
       <c r="K46" t="s">
-        <v>128</v>
+        <v>180</v>
       </c>
       <c r="L46" t="s">
-        <v>127</v>
+        <v>180</v>
       </c>
       <c r="M46" t="s">
-        <v>127</v>
+        <v>180</v>
       </c>
       <c r="N46" s="0">
         <v>4</v>
       </c>
       <c r="O46" t="s">
-        <v>127</v>
+        <v>180</v>
       </c>
       <c r="P46" t="s">
-        <v>126</v>
+        <v>179</v>
       </c>
       <c r="Q46" t="s">
-        <v>148</v>
+        <v>203</v>
       </c>
       <c r="R46" t="s">
-        <v>152</v>
+        <v>207</v>
       </c>
       <c r="S46" t="s">
-        <v>128</v>
+        <v>181</v>
       </c>
     </row>
     <row r="47">
@@ -3190,58 +3341,56 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>99</v>
-      </c>
-      <c r="C47" s="0">
-        <v>23</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="C47" s="0"/>
       <c r="D47" t="s">
-        <v>108</v>
+        <v>159</v>
       </c>
       <c r="E47" t="s">
-        <v>111</v>
+        <v>161</v>
       </c>
       <c r="F47" t="s">
-        <v>116</v>
+        <v>170</v>
       </c>
       <c r="G47" t="s">
-        <v>126</v>
+        <v>179</v>
       </c>
       <c r="H47" t="s">
-        <v>128</v>
+        <v>181</v>
       </c>
       <c r="I47" t="s">
-        <v>128</v>
+        <v>181</v>
       </c>
       <c r="J47" s="0">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K47" t="s">
-        <v>127</v>
+        <v>179</v>
       </c>
       <c r="L47" t="s">
-        <v>127</v>
+        <v>180</v>
       </c>
       <c r="M47" t="s">
-        <v>127</v>
+        <v>180</v>
       </c>
       <c r="N47" s="0">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="O47" t="s">
-        <v>127</v>
+        <v>180</v>
       </c>
       <c r="P47" t="s">
-        <v>127</v>
+        <v>180</v>
       </c>
       <c r="Q47" t="s">
-        <v>148</v>
+        <v>204</v>
       </c>
       <c r="R47" t="s">
-        <v>151</v>
+        <v>206</v>
       </c>
       <c r="S47" t="s">
-        <v>128</v>
+        <v>181</v>
       </c>
     </row>
     <row r="48">
@@ -3249,58 +3398,56 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="C48" s="0">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="D48" t="s">
-        <v>108</v>
+        <v>158</v>
       </c>
       <c r="E48" t="s">
-        <v>112</v>
+        <v>162</v>
       </c>
       <c r="F48" t="s">
-        <v>118</v>
+        <v>174</v>
       </c>
       <c r="G48" t="s">
-        <v>126</v>
+        <v>180</v>
       </c>
       <c r="H48" t="s">
-        <v>128</v>
+        <v>188</v>
       </c>
       <c r="I48" t="s">
-        <v>128</v>
-      </c>
-      <c r="J48" s="0">
-        <v>4</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="J48" s="0"/>
       <c r="K48" t="s">
-        <v>127</v>
+        <v>181</v>
       </c>
       <c r="L48" t="s">
-        <v>127</v>
+        <v>180</v>
       </c>
       <c r="M48" t="s">
-        <v>127</v>
+        <v>180</v>
       </c>
       <c r="N48" s="0">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="O48" t="s">
-        <v>127</v>
+        <v>180</v>
       </c>
       <c r="P48" t="s">
-        <v>127</v>
+        <v>179</v>
       </c>
       <c r="Q48" t="s">
-        <v>148</v>
+        <v>203</v>
       </c>
       <c r="R48" t="s">
-        <v>151</v>
+        <v>207</v>
       </c>
       <c r="S48" t="s">
-        <v>128</v>
+        <v>181</v>
       </c>
     </row>
     <row r="49">
@@ -3308,58 +3455,56 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>101</v>
-      </c>
-      <c r="C49" s="0">
-        <v>39</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="C49" s="0"/>
       <c r="D49" t="s">
-        <v>109</v>
+        <v>159</v>
       </c>
       <c r="E49" t="s">
-        <v>112</v>
+        <v>164</v>
       </c>
       <c r="F49" t="s">
-        <v>119</v>
+        <v>172</v>
       </c>
       <c r="G49" t="s">
-        <v>126</v>
+        <v>179</v>
       </c>
       <c r="H49" t="s">
-        <v>128</v>
+        <v>181</v>
       </c>
       <c r="I49" t="s">
-        <v>128</v>
+        <v>181</v>
       </c>
       <c r="J49" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K49" t="s">
-        <v>126</v>
+        <v>179</v>
       </c>
       <c r="L49" t="s">
-        <v>127</v>
+        <v>180</v>
       </c>
       <c r="M49" t="s">
-        <v>127</v>
+        <v>180</v>
       </c>
       <c r="N49" s="0">
         <v>5</v>
       </c>
       <c r="O49" t="s">
-        <v>127</v>
+        <v>180</v>
       </c>
       <c r="P49" t="s">
-        <v>126</v>
+        <v>179</v>
       </c>
       <c r="Q49" t="s">
-        <v>148</v>
+        <v>203</v>
       </c>
       <c r="R49" t="s">
-        <v>151</v>
+        <v>206</v>
       </c>
       <c r="S49" t="s">
-        <v>128</v>
+        <v>181</v>
       </c>
     </row>
     <row r="50">
@@ -3367,58 +3512,56 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="C50" s="0">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="D50" t="s">
-        <v>108</v>
+        <v>158</v>
       </c>
       <c r="E50" t="s">
-        <v>111</v>
+        <v>163</v>
       </c>
       <c r="F50" t="s">
-        <v>116</v>
+        <v>176</v>
       </c>
       <c r="G50" t="s">
-        <v>127</v>
+        <v>179</v>
       </c>
       <c r="H50" t="s">
-        <v>137</v>
+        <v>181</v>
       </c>
       <c r="I50" t="s">
-        <v>128</v>
-      </c>
-      <c r="J50" s="0">
-        <v>1</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="J50" s="0"/>
       <c r="K50" t="s">
-        <v>127</v>
+        <v>181</v>
       </c>
       <c r="L50" t="s">
-        <v>127</v>
+        <v>180</v>
       </c>
       <c r="M50" t="s">
-        <v>127</v>
+        <v>180</v>
       </c>
       <c r="N50" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O50" t="s">
-        <v>127</v>
+        <v>180</v>
       </c>
       <c r="P50" t="s">
-        <v>126</v>
+        <v>180</v>
       </c>
       <c r="Q50" t="s">
-        <v>148</v>
+        <v>203</v>
       </c>
       <c r="R50" t="s">
-        <v>151</v>
+        <v>207</v>
       </c>
       <c r="S50" t="s">
-        <v>128</v>
+        <v>181</v>
       </c>
     </row>
     <row r="51">
@@ -3426,58 +3569,58 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="C51" s="0">
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="D51" t="s">
-        <v>108</v>
+        <v>158</v>
       </c>
       <c r="E51" t="s">
-        <v>111</v>
+        <v>164</v>
       </c>
       <c r="F51" t="s">
-        <v>116</v>
+        <v>171</v>
       </c>
       <c r="G51" t="s">
-        <v>126</v>
+        <v>179</v>
       </c>
       <c r="H51" t="s">
-        <v>128</v>
+        <v>181</v>
       </c>
       <c r="I51" t="s">
-        <v>128</v>
+        <v>181</v>
       </c>
       <c r="J51" s="0">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K51" t="s">
-        <v>127</v>
+        <v>180</v>
       </c>
       <c r="L51" t="s">
-        <v>127</v>
+        <v>179</v>
       </c>
       <c r="M51" t="s">
-        <v>127</v>
+        <v>180</v>
       </c>
       <c r="N51" s="0">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="O51" t="s">
-        <v>127</v>
+        <v>180</v>
       </c>
       <c r="P51" t="s">
-        <v>126</v>
+        <v>179</v>
       </c>
       <c r="Q51" t="s">
-        <v>149</v>
+        <v>203</v>
       </c>
       <c r="R51" t="s">
-        <v>151</v>
+        <v>206</v>
       </c>
       <c r="S51" t="s">
-        <v>128</v>
+        <v>181</v>
       </c>
     </row>
     <row r="52">
@@ -3485,56 +3628,58 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="C52" s="0">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D52" t="s">
-        <v>108</v>
+        <v>158</v>
       </c>
       <c r="E52" t="s">
-        <v>113</v>
+        <v>164</v>
       </c>
       <c r="F52" t="s">
-        <v>120</v>
+        <v>171</v>
       </c>
       <c r="G52" t="s">
-        <v>127</v>
+        <v>179</v>
       </c>
       <c r="H52" t="s">
-        <v>138</v>
+        <v>181</v>
       </c>
       <c r="I52" t="s">
-        <v>126</v>
-      </c>
-      <c r="J52" s="0"/>
+        <v>181</v>
+      </c>
+      <c r="J52" s="0">
+        <v>5</v>
+      </c>
       <c r="K52" t="s">
-        <v>128</v>
+        <v>179</v>
       </c>
       <c r="L52" t="s">
-        <v>127</v>
+        <v>180</v>
       </c>
       <c r="M52" t="s">
-        <v>127</v>
+        <v>180</v>
       </c>
       <c r="N52" s="0">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="O52" t="s">
-        <v>127</v>
+        <v>180</v>
       </c>
       <c r="P52" t="s">
-        <v>126</v>
+        <v>179</v>
       </c>
       <c r="Q52" t="s">
-        <v>148</v>
+        <v>203</v>
       </c>
       <c r="R52" t="s">
-        <v>152</v>
+        <v>206</v>
       </c>
       <c r="S52" t="s">
-        <v>128</v>
+        <v>181</v>
       </c>
     </row>
     <row r="53">
@@ -3542,58 +3687,1513 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="C53" s="0">
+        <v>55</v>
+      </c>
+      <c r="D53" t="s">
+        <v>158</v>
+      </c>
+      <c r="E53" t="s">
+        <v>162</v>
+      </c>
+      <c r="F53" t="s">
+        <v>174</v>
+      </c>
+      <c r="G53" t="s">
+        <v>179</v>
+      </c>
+      <c r="H53" t="s">
+        <v>181</v>
+      </c>
+      <c r="I53" t="s">
+        <v>179</v>
+      </c>
+      <c r="J53" s="0"/>
+      <c r="K53" t="s">
+        <v>181</v>
+      </c>
+      <c r="L53" t="s">
+        <v>180</v>
+      </c>
+      <c r="M53" t="s">
+        <v>180</v>
+      </c>
+      <c r="N53" s="0">
+        <v>2</v>
+      </c>
+      <c r="O53" t="s">
+        <v>180</v>
+      </c>
+      <c r="P53" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>203</v>
+      </c>
+      <c r="R53" t="s">
+        <v>207</v>
+      </c>
+      <c r="S53" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>131</v>
+      </c>
+      <c r="C54" s="0">
+        <v>48</v>
+      </c>
+      <c r="D54" t="s">
+        <v>159</v>
+      </c>
+      <c r="E54" t="s">
+        <v>163</v>
+      </c>
+      <c r="F54" t="s">
+        <v>173</v>
+      </c>
+      <c r="G54" t="s">
+        <v>179</v>
+      </c>
+      <c r="H54" t="s">
+        <v>181</v>
+      </c>
+      <c r="I54" t="s">
+        <v>180</v>
+      </c>
+      <c r="J54" s="0">
+        <v>5</v>
+      </c>
+      <c r="K54" t="s">
+        <v>179</v>
+      </c>
+      <c r="L54" t="s">
+        <v>180</v>
+      </c>
+      <c r="M54" t="s">
+        <v>180</v>
+      </c>
+      <c r="N54" s="0">
+        <v>4</v>
+      </c>
+      <c r="O54" t="s">
+        <v>180</v>
+      </c>
+      <c r="P54" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>203</v>
+      </c>
+      <c r="R54" t="s">
+        <v>207</v>
+      </c>
+      <c r="S54" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>132</v>
+      </c>
+      <c r="C55" s="0">
+        <v>25</v>
+      </c>
+      <c r="D55" t="s">
+        <v>159</v>
+      </c>
+      <c r="E55" t="s">
+        <v>162</v>
+      </c>
+      <c r="F55" t="s">
+        <v>169</v>
+      </c>
+      <c r="G55" t="s">
+        <v>179</v>
+      </c>
+      <c r="H55" t="s">
+        <v>181</v>
+      </c>
+      <c r="I55" t="s">
+        <v>179</v>
+      </c>
+      <c r="J55" s="0"/>
+      <c r="K55" t="s">
+        <v>179</v>
+      </c>
+      <c r="L55" t="s">
+        <v>179</v>
+      </c>
+      <c r="M55" t="s">
+        <v>180</v>
+      </c>
+      <c r="N55" s="0">
+        <v>8</v>
+      </c>
+      <c r="O55" t="s">
+        <v>180</v>
+      </c>
+      <c r="P55" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>203</v>
+      </c>
+      <c r="R55" t="s">
+        <v>207</v>
+      </c>
+      <c r="S55" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>133</v>
+      </c>
+      <c r="C56" s="0"/>
+      <c r="D56" t="s">
+        <v>159</v>
+      </c>
+      <c r="E56" t="s">
+        <v>164</v>
+      </c>
+      <c r="F56" t="s">
+        <v>172</v>
+      </c>
+      <c r="G56" t="s">
+        <v>179</v>
+      </c>
+      <c r="H56" t="s">
+        <v>181</v>
+      </c>
+      <c r="I56" t="s">
+        <v>181</v>
+      </c>
+      <c r="J56" s="0">
+        <v>5</v>
+      </c>
+      <c r="K56" t="s">
+        <v>179</v>
+      </c>
+      <c r="L56" t="s">
+        <v>180</v>
+      </c>
+      <c r="M56" t="s">
+        <v>180</v>
+      </c>
+      <c r="N56" s="0">
+        <v>7</v>
+      </c>
+      <c r="O56" t="s">
+        <v>179</v>
+      </c>
+      <c r="P56" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>203</v>
+      </c>
+      <c r="R56" t="s">
+        <v>206</v>
+      </c>
+      <c r="S56" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>134</v>
+      </c>
+      <c r="C57" s="0">
+        <v>38</v>
+      </c>
+      <c r="D57" t="s">
+        <v>158</v>
+      </c>
+      <c r="E57" t="s">
+        <v>162</v>
+      </c>
+      <c r="F57" t="s">
+        <v>174</v>
+      </c>
+      <c r="G57" t="s">
+        <v>180</v>
+      </c>
+      <c r="H57" t="s">
+        <v>189</v>
+      </c>
+      <c r="I57" t="s">
+        <v>180</v>
+      </c>
+      <c r="J57" s="0"/>
+      <c r="K57" t="s">
+        <v>181</v>
+      </c>
+      <c r="L57" t="s">
+        <v>180</v>
+      </c>
+      <c r="M57" t="s">
+        <v>180</v>
+      </c>
+      <c r="N57" s="0">
+        <v>5</v>
+      </c>
+      <c r="O57" t="s">
+        <v>180</v>
+      </c>
+      <c r="P57" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>203</v>
+      </c>
+      <c r="R57" t="s">
+        <v>207</v>
+      </c>
+      <c r="S57" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>135</v>
+      </c>
+      <c r="C58" s="0">
+        <v>20</v>
+      </c>
+      <c r="D58" t="s">
+        <v>159</v>
+      </c>
+      <c r="E58" t="s">
+        <v>164</v>
+      </c>
+      <c r="F58" t="s">
+        <v>172</v>
+      </c>
+      <c r="G58" t="s">
+        <v>179</v>
+      </c>
+      <c r="H58" t="s">
+        <v>181</v>
+      </c>
+      <c r="I58" t="s">
+        <v>181</v>
+      </c>
+      <c r="J58" s="0">
+        <v>2</v>
+      </c>
+      <c r="K58" t="s">
+        <v>179</v>
+      </c>
+      <c r="L58" t="s">
+        <v>180</v>
+      </c>
+      <c r="M58" t="s">
+        <v>180</v>
+      </c>
+      <c r="N58" s="0">
+        <v>7</v>
+      </c>
+      <c r="O58" t="s">
+        <v>180</v>
+      </c>
+      <c r="P58" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>204</v>
+      </c>
+      <c r="R58" t="s">
+        <v>206</v>
+      </c>
+      <c r="S58" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>136</v>
+      </c>
+      <c r="C59" s="0">
+        <v>53</v>
+      </c>
+      <c r="D59" t="s">
+        <v>159</v>
+      </c>
+      <c r="E59" t="s">
+        <v>162</v>
+      </c>
+      <c r="F59" t="s">
+        <v>169</v>
+      </c>
+      <c r="G59" t="s">
+        <v>179</v>
+      </c>
+      <c r="H59" t="s">
+        <v>181</v>
+      </c>
+      <c r="I59" t="s">
+        <v>180</v>
+      </c>
+      <c r="J59" s="0">
+        <v>5</v>
+      </c>
+      <c r="K59" t="s">
+        <v>180</v>
+      </c>
+      <c r="L59" t="s">
+        <v>179</v>
+      </c>
+      <c r="M59" t="s">
+        <v>180</v>
+      </c>
+      <c r="N59" s="0">
+        <v>7</v>
+      </c>
+      <c r="O59" t="s">
+        <v>180</v>
+      </c>
+      <c r="P59" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>203</v>
+      </c>
+      <c r="R59" t="s">
+        <v>207</v>
+      </c>
+      <c r="S59" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>137</v>
+      </c>
+      <c r="C60" s="0">
+        <v>52</v>
+      </c>
+      <c r="D60" t="s">
+        <v>158</v>
+      </c>
+      <c r="E60" t="s">
+        <v>162</v>
+      </c>
+      <c r="F60" t="s">
+        <v>174</v>
+      </c>
+      <c r="G60" t="s">
+        <v>180</v>
+      </c>
+      <c r="H60" t="s">
+        <v>190</v>
+      </c>
+      <c r="I60" t="s">
+        <v>179</v>
+      </c>
+      <c r="J60" s="0"/>
+      <c r="K60" t="s">
+        <v>181</v>
+      </c>
+      <c r="L60" t="s">
+        <v>180</v>
+      </c>
+      <c r="M60" t="s">
+        <v>180</v>
+      </c>
+      <c r="N60" s="0">
+        <v>6</v>
+      </c>
+      <c r="O60" t="s">
+        <v>180</v>
+      </c>
+      <c r="P60" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>203</v>
+      </c>
+      <c r="R60" t="s">
+        <v>207</v>
+      </c>
+      <c r="S60" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>138</v>
+      </c>
+      <c r="C61" s="0">
+        <v>49</v>
+      </c>
+      <c r="D61" t="s">
+        <v>158</v>
+      </c>
+      <c r="E61" t="s">
+        <v>162</v>
+      </c>
+      <c r="F61" t="s">
+        <v>175</v>
+      </c>
+      <c r="G61" t="s">
+        <v>179</v>
+      </c>
+      <c r="H61" t="s">
+        <v>181</v>
+      </c>
+      <c r="I61" t="s">
+        <v>179</v>
+      </c>
+      <c r="J61" s="0"/>
+      <c r="K61" t="s">
+        <v>181</v>
+      </c>
+      <c r="L61" t="s">
+        <v>180</v>
+      </c>
+      <c r="M61" t="s">
+        <v>180</v>
+      </c>
+      <c r="N61" s="0">
+        <v>6</v>
+      </c>
+      <c r="O61" t="s">
+        <v>180</v>
+      </c>
+      <c r="P61" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>203</v>
+      </c>
+      <c r="R61" t="s">
+        <v>207</v>
+      </c>
+      <c r="S61" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>139</v>
+      </c>
+      <c r="C62" s="0">
+        <v>67</v>
+      </c>
+      <c r="D62" t="s">
+        <v>159</v>
+      </c>
+      <c r="E62" t="s">
+        <v>163</v>
+      </c>
+      <c r="F62" t="s">
+        <v>173</v>
+      </c>
+      <c r="G62" t="s">
+        <v>180</v>
+      </c>
+      <c r="H62" t="s">
+        <v>191</v>
+      </c>
+      <c r="I62" t="s">
+        <v>179</v>
+      </c>
+      <c r="J62" s="0">
+        <v>5</v>
+      </c>
+      <c r="K62" t="s">
+        <v>179</v>
+      </c>
+      <c r="L62" t="s">
+        <v>180</v>
+      </c>
+      <c r="M62" t="s">
+        <v>180</v>
+      </c>
+      <c r="N62" s="0">
+        <v>2</v>
+      </c>
+      <c r="O62" t="s">
+        <v>180</v>
+      </c>
+      <c r="P62" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>203</v>
+      </c>
+      <c r="R62" t="s">
+        <v>207</v>
+      </c>
+      <c r="S62" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>140</v>
+      </c>
+      <c r="C63" s="0">
+        <v>42</v>
+      </c>
+      <c r="D63" t="s">
+        <v>158</v>
+      </c>
+      <c r="E63" t="s">
+        <v>161</v>
+      </c>
+      <c r="F63" t="s">
+        <v>166</v>
+      </c>
+      <c r="G63" t="s">
+        <v>179</v>
+      </c>
+      <c r="H63" t="s">
+        <v>181</v>
+      </c>
+      <c r="I63" t="s">
+        <v>181</v>
+      </c>
+      <c r="J63" s="0">
+        <v>6</v>
+      </c>
+      <c r="K63" t="s">
+        <v>180</v>
+      </c>
+      <c r="L63" t="s">
+        <v>180</v>
+      </c>
+      <c r="M63" t="s">
+        <v>180</v>
+      </c>
+      <c r="N63" s="0">
+        <v>3</v>
+      </c>
+      <c r="O63" t="s">
+        <v>180</v>
+      </c>
+      <c r="P63" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>203</v>
+      </c>
+      <c r="R63" t="s">
+        <v>206</v>
+      </c>
+      <c r="S63" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>141</v>
+      </c>
+      <c r="C64" s="0">
+        <v>44</v>
+      </c>
+      <c r="D64" t="s">
+        <v>158</v>
+      </c>
+      <c r="E64" t="s">
+        <v>164</v>
+      </c>
+      <c r="F64" t="s">
+        <v>171</v>
+      </c>
+      <c r="G64" t="s">
+        <v>179</v>
+      </c>
+      <c r="H64" t="s">
+        <v>181</v>
+      </c>
+      <c r="I64" t="s">
+        <v>181</v>
+      </c>
+      <c r="J64" s="0">
+        <v>6</v>
+      </c>
+      <c r="K64" t="s">
+        <v>179</v>
+      </c>
+      <c r="L64" t="s">
+        <v>179</v>
+      </c>
+      <c r="M64" t="s">
+        <v>180</v>
+      </c>
+      <c r="N64" s="0">
+        <v>6</v>
+      </c>
+      <c r="O64" t="s">
+        <v>180</v>
+      </c>
+      <c r="P64" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>203</v>
+      </c>
+      <c r="R64" t="s">
+        <v>206</v>
+      </c>
+      <c r="S64" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>142</v>
+      </c>
+      <c r="C65" s="0">
+        <v>37</v>
+      </c>
+      <c r="D65" t="s">
+        <v>158</v>
+      </c>
+      <c r="E65" t="s">
+        <v>164</v>
+      </c>
+      <c r="F65" t="s">
+        <v>171</v>
+      </c>
+      <c r="G65" t="s">
+        <v>179</v>
+      </c>
+      <c r="H65" t="s">
+        <v>181</v>
+      </c>
+      <c r="I65" t="s">
+        <v>181</v>
+      </c>
+      <c r="J65" s="0">
+        <v>5</v>
+      </c>
+      <c r="K65" t="s">
+        <v>180</v>
+      </c>
+      <c r="L65" t="s">
+        <v>180</v>
+      </c>
+      <c r="M65" t="s">
+        <v>180</v>
+      </c>
+      <c r="N65" s="0">
+        <v>1</v>
+      </c>
+      <c r="O65" t="s">
+        <v>181</v>
+      </c>
+      <c r="P65" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>204</v>
+      </c>
+      <c r="R65" t="s">
+        <v>206</v>
+      </c>
+      <c r="S65" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>143</v>
+      </c>
+      <c r="C66" s="0">
+        <v>30</v>
+      </c>
+      <c r="D66" t="s">
+        <v>158</v>
+      </c>
+      <c r="E66" t="s">
+        <v>161</v>
+      </c>
+      <c r="F66" t="s">
+        <v>166</v>
+      </c>
+      <c r="G66" t="s">
+        <v>179</v>
+      </c>
+      <c r="H66" t="s">
+        <v>181</v>
+      </c>
+      <c r="I66" t="s">
+        <v>181</v>
+      </c>
+      <c r="J66" s="0">
+        <v>5</v>
+      </c>
+      <c r="K66" t="s">
+        <v>180</v>
+      </c>
+      <c r="L66" t="s">
+        <v>180</v>
+      </c>
+      <c r="M66" t="s">
+        <v>180</v>
+      </c>
+      <c r="N66" s="0">
+        <v>5</v>
+      </c>
+      <c r="O66" t="s">
+        <v>180</v>
+      </c>
+      <c r="P66" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>203</v>
+      </c>
+      <c r="R66" t="s">
+        <v>206</v>
+      </c>
+      <c r="S66" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>144</v>
+      </c>
+      <c r="C67" s="0"/>
+      <c r="D67" t="s">
+        <v>159</v>
+      </c>
+      <c r="E67" t="s">
+        <v>162</v>
+      </c>
+      <c r="F67" t="s">
+        <v>169</v>
+      </c>
+      <c r="G67" t="s">
+        <v>179</v>
+      </c>
+      <c r="H67" t="s">
+        <v>181</v>
+      </c>
+      <c r="I67" t="s">
+        <v>180</v>
+      </c>
+      <c r="J67" s="0">
+        <v>5</v>
+      </c>
+      <c r="K67" t="s">
+        <v>180</v>
+      </c>
+      <c r="L67" t="s">
+        <v>180</v>
+      </c>
+      <c r="M67" t="s">
+        <v>180</v>
+      </c>
+      <c r="N67" s="0">
+        <v>6</v>
+      </c>
+      <c r="O67" t="s">
+        <v>180</v>
+      </c>
+      <c r="P67" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>203</v>
+      </c>
+      <c r="R67" t="s">
+        <v>207</v>
+      </c>
+      <c r="S67" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>145</v>
+      </c>
+      <c r="C68" s="0">
+        <v>24</v>
+      </c>
+      <c r="D68" t="s">
+        <v>158</v>
+      </c>
+      <c r="E68" t="s">
+        <v>164</v>
+      </c>
+      <c r="F68" t="s">
+        <v>171</v>
+      </c>
+      <c r="G68" t="s">
+        <v>179</v>
+      </c>
+      <c r="H68" t="s">
+        <v>181</v>
+      </c>
+      <c r="I68" t="s">
+        <v>181</v>
+      </c>
+      <c r="J68" s="0">
+        <v>4</v>
+      </c>
+      <c r="K68" t="s">
+        <v>180</v>
+      </c>
+      <c r="L68" t="s">
+        <v>179</v>
+      </c>
+      <c r="M68" t="s">
+        <v>180</v>
+      </c>
+      <c r="N68" s="0">
+        <v>5</v>
+      </c>
+      <c r="O68" t="s">
+        <v>180</v>
+      </c>
+      <c r="P68" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>203</v>
+      </c>
+      <c r="R68" t="s">
+        <v>206</v>
+      </c>
+      <c r="S68" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>146</v>
+      </c>
+      <c r="C69" s="0">
+        <v>30</v>
+      </c>
+      <c r="D69" t="s">
+        <v>158</v>
+      </c>
+      <c r="E69" t="s">
+        <v>163</v>
+      </c>
+      <c r="F69" t="s">
+        <v>177</v>
+      </c>
+      <c r="G69" t="s">
+        <v>179</v>
+      </c>
+      <c r="H69" t="s">
+        <v>181</v>
+      </c>
+      <c r="I69" t="s">
+        <v>180</v>
+      </c>
+      <c r="J69" s="0"/>
+      <c r="K69" t="s">
+        <v>181</v>
+      </c>
+      <c r="L69" t="s">
+        <v>180</v>
+      </c>
+      <c r="M69" t="s">
+        <v>180</v>
+      </c>
+      <c r="N69" s="0">
+        <v>3</v>
+      </c>
+      <c r="O69" t="s">
+        <v>180</v>
+      </c>
+      <c r="P69" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>203</v>
+      </c>
+      <c r="R69" t="s">
+        <v>207</v>
+      </c>
+      <c r="S69" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>147</v>
+      </c>
+      <c r="C70" s="0">
+        <v>40</v>
+      </c>
+      <c r="D70" t="s">
+        <v>159</v>
+      </c>
+      <c r="E70" t="s">
+        <v>162</v>
+      </c>
+      <c r="F70" t="s">
+        <v>167</v>
+      </c>
+      <c r="G70" t="s">
+        <v>179</v>
+      </c>
+      <c r="H70" t="s">
+        <v>181</v>
+      </c>
+      <c r="I70" t="s">
+        <v>179</v>
+      </c>
+      <c r="J70" s="0"/>
+      <c r="K70" t="s">
+        <v>179</v>
+      </c>
+      <c r="L70" t="s">
+        <v>179</v>
+      </c>
+      <c r="M70" t="s">
+        <v>180</v>
+      </c>
+      <c r="N70" s="0">
+        <v>2</v>
+      </c>
+      <c r="O70" t="s">
+        <v>180</v>
+      </c>
+      <c r="P70" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>203</v>
+      </c>
+      <c r="R70" t="s">
+        <v>207</v>
+      </c>
+      <c r="S70" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>148</v>
+      </c>
+      <c r="C71" s="0">
+        <v>23</v>
+      </c>
+      <c r="D71" t="s">
+        <v>158</v>
+      </c>
+      <c r="E71" t="s">
+        <v>161</v>
+      </c>
+      <c r="F71" t="s">
+        <v>166</v>
+      </c>
+      <c r="G71" t="s">
+        <v>179</v>
+      </c>
+      <c r="H71" t="s">
+        <v>181</v>
+      </c>
+      <c r="I71" t="s">
+        <v>181</v>
+      </c>
+      <c r="J71" s="0">
+        <v>8</v>
+      </c>
+      <c r="K71" t="s">
+        <v>180</v>
+      </c>
+      <c r="L71" t="s">
+        <v>180</v>
+      </c>
+      <c r="M71" t="s">
+        <v>180</v>
+      </c>
+      <c r="N71" s="0">
+        <v>3</v>
+      </c>
+      <c r="O71" t="s">
+        <v>180</v>
+      </c>
+      <c r="P71" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>203</v>
+      </c>
+      <c r="R71" t="s">
+        <v>206</v>
+      </c>
+      <c r="S71" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>149</v>
+      </c>
+      <c r="C72" s="0">
+        <v>24</v>
+      </c>
+      <c r="D72" t="s">
+        <v>158</v>
+      </c>
+      <c r="E72" t="s">
+        <v>164</v>
+      </c>
+      <c r="F72" t="s">
+        <v>171</v>
+      </c>
+      <c r="G72" t="s">
+        <v>179</v>
+      </c>
+      <c r="H72" t="s">
+        <v>181</v>
+      </c>
+      <c r="I72" t="s">
+        <v>181</v>
+      </c>
+      <c r="J72" s="0">
+        <v>4</v>
+      </c>
+      <c r="K72" t="s">
+        <v>180</v>
+      </c>
+      <c r="L72" t="s">
+        <v>180</v>
+      </c>
+      <c r="M72" t="s">
+        <v>180</v>
+      </c>
+      <c r="N72" s="0">
+        <v>8</v>
+      </c>
+      <c r="O72" t="s">
+        <v>181</v>
+      </c>
+      <c r="P72" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>203</v>
+      </c>
+      <c r="R72" t="s">
+        <v>206</v>
+      </c>
+      <c r="S72" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>150</v>
+      </c>
+      <c r="C73" s="0">
+        <v>39</v>
+      </c>
+      <c r="D73" t="s">
+        <v>159</v>
+      </c>
+      <c r="E73" t="s">
+        <v>164</v>
+      </c>
+      <c r="F73" t="s">
+        <v>172</v>
+      </c>
+      <c r="G73" t="s">
+        <v>179</v>
+      </c>
+      <c r="H73" t="s">
+        <v>181</v>
+      </c>
+      <c r="I73" t="s">
+        <v>181</v>
+      </c>
+      <c r="J73" s="0">
+        <v>3</v>
+      </c>
+      <c r="K73" t="s">
+        <v>179</v>
+      </c>
+      <c r="L73" t="s">
+        <v>180</v>
+      </c>
+      <c r="M73" t="s">
+        <v>180</v>
+      </c>
+      <c r="N73" s="0">
+        <v>1</v>
+      </c>
+      <c r="O73" t="s">
+        <v>181</v>
+      </c>
+      <c r="P73" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>203</v>
+      </c>
+      <c r="R73" t="s">
+        <v>206</v>
+      </c>
+      <c r="S73" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>151</v>
+      </c>
+      <c r="C74" s="0">
+        <v>52</v>
+      </c>
+      <c r="D74" t="s">
+        <v>158</v>
+      </c>
+      <c r="E74" t="s">
+        <v>161</v>
+      </c>
+      <c r="F74" t="s">
+        <v>166</v>
+      </c>
+      <c r="G74" t="s">
+        <v>180</v>
+      </c>
+      <c r="H74" t="s">
+        <v>192</v>
+      </c>
+      <c r="I74" t="s">
+        <v>181</v>
+      </c>
+      <c r="J74" s="0">
+        <v>1</v>
+      </c>
+      <c r="K74" t="s">
+        <v>180</v>
+      </c>
+      <c r="L74" t="s">
+        <v>180</v>
+      </c>
+      <c r="M74" t="s">
+        <v>180</v>
+      </c>
+      <c r="N74" s="0">
+        <v>2</v>
+      </c>
+      <c r="O74" t="s">
+        <v>180</v>
+      </c>
+      <c r="P74" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>203</v>
+      </c>
+      <c r="R74" t="s">
+        <v>206</v>
+      </c>
+      <c r="S74" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>152</v>
+      </c>
+      <c r="C75" s="0">
+        <v>40</v>
+      </c>
+      <c r="D75" t="s">
+        <v>159</v>
+      </c>
+      <c r="E75" t="s">
+        <v>163</v>
+      </c>
+      <c r="F75" t="s">
+        <v>168</v>
+      </c>
+      <c r="G75" t="s">
+        <v>179</v>
+      </c>
+      <c r="H75" t="s">
+        <v>181</v>
+      </c>
+      <c r="I75" t="s">
+        <v>179</v>
+      </c>
+      <c r="J75" s="0">
+        <v>4</v>
+      </c>
+      <c r="K75" t="s">
+        <v>179</v>
+      </c>
+      <c r="L75" t="s">
+        <v>179</v>
+      </c>
+      <c r="M75" t="s">
+        <v>180</v>
+      </c>
+      <c r="N75" s="0">
+        <v>6</v>
+      </c>
+      <c r="O75" t="s">
+        <v>180</v>
+      </c>
+      <c r="P75" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>203</v>
+      </c>
+      <c r="R75" t="s">
+        <v>207</v>
+      </c>
+      <c r="S75" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>153</v>
+      </c>
+      <c r="C76" s="0">
+        <v>71</v>
+      </c>
+      <c r="D76" t="s">
+        <v>158</v>
+      </c>
+      <c r="E76" t="s">
+        <v>161</v>
+      </c>
+      <c r="F76" t="s">
+        <v>166</v>
+      </c>
+      <c r="G76" t="s">
+        <v>179</v>
+      </c>
+      <c r="H76" t="s">
+        <v>181</v>
+      </c>
+      <c r="I76" t="s">
+        <v>181</v>
+      </c>
+      <c r="J76" s="0">
+        <v>4</v>
+      </c>
+      <c r="K76" t="s">
+        <v>180</v>
+      </c>
+      <c r="L76" t="s">
+        <v>180</v>
+      </c>
+      <c r="M76" t="s">
+        <v>180</v>
+      </c>
+      <c r="N76" s="0">
+        <v>3</v>
+      </c>
+      <c r="O76" t="s">
+        <v>180</v>
+      </c>
+      <c r="P76" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>204</v>
+      </c>
+      <c r="R76" t="s">
+        <v>206</v>
+      </c>
+      <c r="S76" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>154</v>
+      </c>
+      <c r="C77" s="0">
+        <v>57</v>
+      </c>
+      <c r="D77" t="s">
+        <v>158</v>
+      </c>
+      <c r="E77" t="s">
+        <v>162</v>
+      </c>
+      <c r="F77" t="s">
+        <v>174</v>
+      </c>
+      <c r="G77" t="s">
+        <v>180</v>
+      </c>
+      <c r="H77" t="s">
+        <v>193</v>
+      </c>
+      <c r="I77" t="s">
+        <v>179</v>
+      </c>
+      <c r="J77" s="0"/>
+      <c r="K77" t="s">
+        <v>181</v>
+      </c>
+      <c r="L77" t="s">
+        <v>180</v>
+      </c>
+      <c r="M77" t="s">
+        <v>180</v>
+      </c>
+      <c r="N77" s="0">
+        <v>4</v>
+      </c>
+      <c r="O77" t="s">
+        <v>180</v>
+      </c>
+      <c r="P77" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>203</v>
+      </c>
+      <c r="R77" t="s">
+        <v>207</v>
+      </c>
+      <c r="S77" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>155</v>
+      </c>
+      <c r="C78" s="0">
         <v>22</v>
       </c>
-      <c r="D53" t="s">
-        <v>108</v>
-      </c>
-      <c r="E53" t="s">
-        <v>112</v>
-      </c>
-      <c r="F53" t="s">
-        <v>118</v>
-      </c>
-      <c r="G53" t="s">
-        <v>126</v>
-      </c>
-      <c r="H53" t="s">
-        <v>128</v>
-      </c>
-      <c r="I53" t="s">
-        <v>128</v>
-      </c>
-      <c r="J53" s="0">
+      <c r="D78" t="s">
+        <v>158</v>
+      </c>
+      <c r="E78" t="s">
+        <v>164</v>
+      </c>
+      <c r="F78" t="s">
+        <v>171</v>
+      </c>
+      <c r="G78" t="s">
+        <v>179</v>
+      </c>
+      <c r="H78" t="s">
+        <v>181</v>
+      </c>
+      <c r="I78" t="s">
+        <v>181</v>
+      </c>
+      <c r="J78" s="0">
         <v>5</v>
       </c>
-      <c r="K53" t="s">
-        <v>126</v>
-      </c>
-      <c r="L53" t="s">
-        <v>127</v>
-      </c>
-      <c r="M53" t="s">
-        <v>127</v>
-      </c>
-      <c r="N53" s="0">
-        <v>3</v>
-      </c>
-      <c r="O53" t="s">
-        <v>127</v>
-      </c>
-      <c r="P53" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q53" t="s">
-        <v>148</v>
-      </c>
-      <c r="R53" t="s">
-        <v>151</v>
-      </c>
-      <c r="S53" t="s">
-        <v>128</v>
+      <c r="K78" t="s">
+        <v>179</v>
+      </c>
+      <c r="L78" t="s">
+        <v>180</v>
+      </c>
+      <c r="M78" t="s">
+        <v>180</v>
+      </c>
+      <c r="N78" s="0">
+        <v>2</v>
+      </c>
+      <c r="O78" t="s">
+        <v>180</v>
+      </c>
+      <c r="P78" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>203</v>
+      </c>
+      <c r="R78" t="s">
+        <v>206</v>
+      </c>
+      <c r="S78" t="s">
+        <v>181</v>
       </c>
     </row>
   </sheetData>
